--- a/Table/Table_xls/w物品类型库.xlsx
+++ b/Table/Table_xls/w物品类型库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13065"/>
+    <workbookView windowWidth="19200" windowHeight="7070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="515">
   <si>
     <t>id</t>
   </si>
@@ -4213,6 +4213,177 @@
   </si>
   <si>
     <t>341115</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级星辉石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级星辉石</t>
+    </r>
+  </si>
+  <si>
+    <t>全能潜能果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点声望值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>130-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>打造书</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>铁</t>
+    </r>
+  </si>
+  <si>
+    <t>150打造书-铁</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>130-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵饰和铁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵饰和铁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点荣誉</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>335041</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元京东卡</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4220,10 +4391,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -4345,9 +4516,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4361,17 +4590,27 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4407,76 +4646,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4569,121 +4740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4701,7 +4764,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4713,19 +4872,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4737,13 +4890,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4785,45 +4956,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -4850,9 +4982,29 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4872,13 +5024,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4890,10 +5061,10 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4902,140 +5073,140 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5315,6 +5486,7 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5369,6 +5541,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -5695,134 +5872,133 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV376"/>
+  <dimension ref="A1:IV386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B134" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B383" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B177" sqref="B177"/>
+      <selection pane="bottomRight" activeCell="B387" sqref="B387"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="20.1428571428571" style="19" customWidth="1"/>
-    <col min="3" max="4" width="11.7142857142857" style="18" customWidth="1"/>
-    <col min="5" max="6" width="13.5714285714286" style="18" customWidth="1"/>
-    <col min="7" max="10" width="11.2857142857143" style="18" customWidth="1"/>
-    <col min="11" max="15" width="9.85714285714286" style="18" customWidth="1"/>
-    <col min="16" max="16" width="11.8571428571429" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9.85714285714286" style="18" customWidth="1"/>
-    <col min="18" max="18" width="11.8571428571429" style="18" customWidth="1"/>
-    <col min="19" max="19" width="9.85714285714286" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.1454545454545" style="19" customWidth="1"/>
+    <col min="3" max="4" width="11.7181818181818" style="18" customWidth="1"/>
+    <col min="5" max="6" width="13.5727272727273" style="18" customWidth="1"/>
+    <col min="7" max="10" width="11.2818181818182" style="18" customWidth="1"/>
+    <col min="11" max="15" width="9.85454545454546" style="18" customWidth="1"/>
+    <col min="16" max="16" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9.85454545454546" style="18" customWidth="1"/>
+    <col min="18" max="18" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.85454545454546" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="21" max="21" width="9" style="18"/>
-    <col min="22" max="22" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="22" max="22" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="23" max="23" width="9" style="18"/>
-    <col min="24" max="24" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="24" max="24" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="25" max="25" width="9" style="18"/>
-    <col min="26" max="26" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="26" max="26" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="27" max="27" width="9" style="18"/>
-    <col min="28" max="28" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="28" max="28" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="29" max="29" width="9" style="18"/>
-    <col min="30" max="30" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="30" max="30" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="31" max="31" width="9" style="18"/>
-    <col min="32" max="32" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="32" max="32" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="33" max="33" width="9" style="18"/>
-    <col min="34" max="34" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="34" max="34" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="35" max="35" width="9" style="18"/>
-    <col min="36" max="36" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="36" max="36" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="37" max="37" width="9" style="18"/>
-    <col min="38" max="38" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="38" max="38" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="39" max="39" width="9" style="18"/>
-    <col min="40" max="40" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="40" max="40" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="41" max="41" width="9" style="18"/>
-    <col min="42" max="42" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="42" max="42" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="43" max="43" width="9" style="18"/>
-    <col min="44" max="44" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="44" max="44" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="45" max="45" width="9" style="18"/>
-    <col min="46" max="46" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="46" max="46" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="47" max="47" width="9" style="18"/>
-    <col min="48" max="48" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="48" max="48" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="49" max="49" width="9" style="18"/>
-    <col min="50" max="50" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="50" max="50" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="51" max="51" width="9" style="18"/>
-    <col min="52" max="52" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="52" max="52" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="53" max="53" width="9" style="18"/>
-    <col min="54" max="54" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="54" max="54" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="55" max="55" width="9" style="18"/>
-    <col min="56" max="56" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="56" max="56" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="57" max="57" width="9" style="18"/>
-    <col min="58" max="58" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="58" max="58" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="59" max="59" width="9" style="18"/>
-    <col min="60" max="60" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="60" max="60" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="61" max="61" width="9" style="18"/>
-    <col min="62" max="62" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="62" max="62" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="63" max="63" width="9" style="18"/>
-    <col min="64" max="64" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="64" max="64" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="65" max="65" width="9" style="18"/>
-    <col min="66" max="66" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="66" max="66" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="67" max="67" width="9" style="18"/>
-    <col min="68" max="68" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="68" max="68" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="69" max="69" width="9" style="18"/>
-    <col min="70" max="70" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="70" max="70" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="71" max="71" width="9" style="18"/>
-    <col min="72" max="72" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="72" max="72" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="73" max="73" width="9" style="18"/>
-    <col min="74" max="74" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="74" max="74" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="75" max="75" width="9" style="18"/>
-    <col min="76" max="76" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="76" max="76" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="77" max="77" width="9" style="18"/>
-    <col min="78" max="78" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="78" max="78" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="79" max="79" width="9" style="18"/>
-    <col min="80" max="80" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="80" max="80" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="81" max="81" width="9" style="18"/>
-    <col min="82" max="82" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="82" max="82" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="83" max="83" width="9" style="18"/>
-    <col min="84" max="84" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="84" max="84" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="85" max="85" width="9" style="18"/>
-    <col min="86" max="86" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="86" max="86" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="87" max="87" width="9" style="18"/>
-    <col min="88" max="88" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="88" max="88" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="89" max="89" width="9" style="18"/>
-    <col min="90" max="90" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="90" max="90" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="91" max="91" width="9" style="18"/>
-    <col min="92" max="92" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="92" max="92" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="93" max="93" width="9" style="18"/>
-    <col min="94" max="94" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="94" max="94" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="95" max="95" width="9" style="18"/>
-    <col min="96" max="96" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="96" max="96" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="97" max="97" width="9" style="18"/>
-    <col min="98" max="98" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="98" max="98" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="99" max="99" width="9" style="18"/>
-    <col min="100" max="100" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="100" max="100" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="101" max="101" width="9" style="18"/>
-    <col min="102" max="102" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="102" max="102" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="103" max="103" width="9" style="18"/>
-    <col min="104" max="104" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="104" max="104" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="105" max="105" width="9" style="18"/>
-    <col min="106" max="106" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="106" max="106" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="107" max="107" width="9" style="18"/>
-    <col min="108" max="108" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="108" max="108" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="109" max="109" width="9" style="18"/>
-    <col min="110" max="110" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="110" max="110" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="111" max="111" width="9" style="18"/>
-    <col min="112" max="112" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="112" max="112" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="113" max="113" width="9" style="18"/>
-    <col min="114" max="114" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="114" max="114" width="11.8545454545455" style="18" customWidth="1"/>
     <col min="115" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:114">
+    <row r="1" ht="13" spans="1:114">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6166,7 +6342,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:14">
+    <row r="2" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A2" s="1">
         <v>200001</v>
       </c>
@@ -6210,7 +6386,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:114">
+    <row r="3" s="1" customFormat="1" ht="13" spans="1:114">
       <c r="A3" s="1">
         <v>200002</v>
       </c>
@@ -6779,7 +6955,7 @@
       <c r="DH8" s="23"/>
       <c r="DJ8" s="23"/>
     </row>
-    <row r="9" s="2" customFormat="1" spans="1:16">
+    <row r="9" s="2" customFormat="1" ht="13" spans="1:16">
       <c r="A9" s="24">
         <v>200008</v>
       </c>
@@ -6799,7 +6975,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" s="2" customFormat="1" spans="1:114">
+    <row r="10" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A10" s="24">
         <v>200009</v>
       </c>
@@ -7042,7 +7218,7 @@
       <c r="DH11" s="24"/>
       <c r="DJ11" s="24"/>
     </row>
-    <row r="12" s="2" customFormat="1" spans="1:114">
+    <row r="12" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A12" s="23">
         <v>200011</v>
       </c>
@@ -7151,7 +7327,7 @@
       <c r="DH12" s="24"/>
       <c r="DJ12" s="24"/>
     </row>
-    <row r="13" s="2" customFormat="1" spans="1:114">
+    <row r="13" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A13" s="24">
         <v>200012</v>
       </c>
@@ -7260,7 +7436,7 @@
       <c r="DH13" s="23"/>
       <c r="DJ13" s="23"/>
     </row>
-    <row r="14" s="2" customFormat="1" spans="1:114">
+    <row r="14" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A14" s="23">
         <v>200013</v>
       </c>
@@ -7369,7 +7545,7 @@
       <c r="DH14" s="23"/>
       <c r="DJ14" s="23"/>
     </row>
-    <row r="15" s="2" customFormat="1" spans="1:114">
+    <row r="15" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A15" s="23">
         <v>200014</v>
       </c>
@@ -7638,7 +7814,7 @@
       <c r="DH15" s="23"/>
       <c r="DJ15" s="23"/>
     </row>
-    <row r="16" s="2" customFormat="1" spans="1:84">
+    <row r="16" s="2" customFormat="1" ht="13" spans="1:84">
       <c r="A16" s="24">
         <v>200015</v>
       </c>
@@ -7892,7 +8068,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" spans="1:28">
+    <row r="17" s="2" customFormat="1" ht="13" spans="1:28">
       <c r="A17" s="23">
         <v>200016</v>
       </c>
@@ -7938,7 +8114,7 @@
       <c r="Z17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" s="2" customFormat="1" spans="1:114">
+    <row r="18" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A18" s="24">
         <v>200017</v>
       </c>
@@ -8067,7 +8243,7 @@
       <c r="DH18" s="22"/>
       <c r="DJ18" s="22"/>
     </row>
-    <row r="19" s="2" customFormat="1" spans="1:114">
+    <row r="19" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A19" s="23">
         <v>200018</v>
       </c>
@@ -8196,7 +8372,7 @@
       <c r="DH19" s="22"/>
       <c r="DJ19" s="22"/>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:114">
+    <row r="20" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A20" s="24">
         <v>200019</v>
       </c>
@@ -8325,7 +8501,7 @@
       <c r="DH20" s="22"/>
       <c r="DJ20" s="22"/>
     </row>
-    <row r="21" s="2" customFormat="1" spans="1:114">
+    <row r="21" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A21" s="23">
         <v>200020</v>
       </c>
@@ -8454,7 +8630,7 @@
       <c r="DH21" s="22"/>
       <c r="DJ21" s="22"/>
     </row>
-    <row r="22" s="2" customFormat="1" spans="1:114">
+    <row r="22" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A22" s="24">
         <v>200021</v>
       </c>
@@ -8583,7 +8759,7 @@
       <c r="DH22" s="22"/>
       <c r="DJ22" s="22"/>
     </row>
-    <row r="23" s="2" customFormat="1" spans="1:114">
+    <row r="23" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A23" s="23">
         <v>200022</v>
       </c>
@@ -8712,7 +8888,7 @@
       <c r="DH23" s="22"/>
       <c r="DJ23" s="22"/>
     </row>
-    <row r="24" s="2" customFormat="1" spans="1:16">
+    <row r="24" s="2" customFormat="1" ht="13" spans="1:16">
       <c r="A24" s="24">
         <v>200023</v>
       </c>
@@ -8747,7 +8923,7 @@
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" s="2" customFormat="1" spans="1:16">
+    <row r="25" s="2" customFormat="1" ht="13" spans="1:16">
       <c r="A25" s="23">
         <v>200024</v>
       </c>
@@ -8782,7 +8958,7 @@
       <c r="N25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" s="2" customFormat="1" spans="1:54">
+    <row r="26" s="2" customFormat="1" ht="13" spans="1:54">
       <c r="A26" s="24">
         <v>200025</v>
       </c>
@@ -8946,7 +9122,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" spans="1:54">
+    <row r="27" s="2" customFormat="1" ht="13" spans="1:54">
       <c r="A27" s="23">
         <v>200026</v>
       </c>
@@ -9110,7 +9286,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" spans="1:54">
+    <row r="28" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A28" s="24">
         <v>200027</v>
       </c>
@@ -9274,7 +9450,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" spans="1:80">
+    <row r="29" s="1" customFormat="1" ht="13" spans="1:80">
       <c r="A29" s="23">
         <v>200028</v>
       </c>
@@ -9516,7 +9692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" spans="1:80">
+    <row r="30" s="1" customFormat="1" ht="13" spans="1:80">
       <c r="A30" s="24">
         <v>200029</v>
       </c>
@@ -9758,7 +9934,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" spans="1:54">
+    <row r="31" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A31" s="23">
         <v>200030</v>
       </c>
@@ -9922,7 +10098,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" spans="1:54">
+    <row r="32" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A32" s="24">
         <v>200031</v>
       </c>
@@ -10086,7 +10262,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" spans="1:10">
+    <row r="33" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A33" s="23">
         <v>200032</v>
       </c>
@@ -10108,7 +10284,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" s="1" customFormat="1" spans="1:10">
+    <row r="34" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A34" s="24">
         <v>200033</v>
       </c>
@@ -10136,7 +10312,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" s="1" customFormat="1" spans="1:54">
+    <row r="35" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A35" s="23">
         <v>200034</v>
       </c>
@@ -10300,7 +10476,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" spans="1:54">
+    <row r="36" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A36" s="24">
         <v>200035</v>
       </c>
@@ -10464,7 +10640,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" spans="1:54">
+    <row r="37" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A37" s="23">
         <v>200036</v>
       </c>
@@ -10628,7 +10804,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" spans="1:10">
+    <row r="38" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A38" s="24">
         <v>200037</v>
       </c>
@@ -10656,7 +10832,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" s="1" customFormat="1" spans="1:10">
+    <row r="39" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A39" s="23">
         <v>200038</v>
       </c>
@@ -10678,7 +10854,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" s="1" customFormat="1" spans="1:10">
+    <row r="40" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A40" s="24">
         <v>200039</v>
       </c>
@@ -10706,7 +10882,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" s="1" customFormat="1" spans="1:10">
+    <row r="41" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A41" s="23">
         <v>200040</v>
       </c>
@@ -10734,7 +10910,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" s="1" customFormat="1" spans="1:10">
+    <row r="42" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A42" s="24">
         <v>200041</v>
       </c>
@@ -10756,7 +10932,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" s="1" customFormat="1" spans="1:80">
+    <row r="43" s="1" customFormat="1" ht="13" spans="1:80">
       <c r="A43" s="23">
         <v>200042</v>
       </c>
@@ -10998,7 +11174,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" spans="1:54">
+    <row r="44" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A44" s="24">
         <v>200043</v>
       </c>
@@ -11162,7 +11338,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" spans="1:80">
+    <row r="45" s="1" customFormat="1" ht="13" spans="1:80">
       <c r="A45" s="23">
         <v>200044</v>
       </c>
@@ -11404,7 +11580,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" spans="1:80">
+    <row r="46" s="1" customFormat="1" ht="13" spans="1:80">
       <c r="A46" s="24">
         <v>200045</v>
       </c>
@@ -11646,7 +11822,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" spans="1:54">
+    <row r="47" s="1" customFormat="1" ht="13" spans="1:54">
       <c r="A47" s="23">
         <v>200046</v>
       </c>
@@ -11810,7 +11986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" spans="1:106">
+    <row r="48" s="1" customFormat="1" ht="13" spans="1:106">
       <c r="A48" s="24">
         <v>200047</v>
       </c>
@@ -12130,7 +12306,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" spans="1:106">
+    <row r="49" s="1" customFormat="1" ht="13" spans="1:106">
       <c r="A49" s="23">
         <v>200048</v>
       </c>
@@ -12450,7 +12626,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" spans="1:22">
+    <row r="50" s="1" customFormat="1" ht="13" spans="1:22">
       <c r="A50" s="24">
         <v>200049</v>
       </c>
@@ -12518,7 +12694,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" spans="1:10">
+    <row r="51" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A51" s="23">
         <v>200050</v>
       </c>
@@ -12540,7 +12716,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" s="1" customFormat="1" spans="1:10">
+    <row r="52" s="1" customFormat="1" ht="13" spans="1:10">
       <c r="A52" s="24">
         <v>200051</v>
       </c>
@@ -12572,7 +12748,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" spans="1:114">
+    <row r="53" s="2" customFormat="1" ht="13" spans="1:114">
       <c r="A53" s="23">
         <v>200052</v>
       </c>
@@ -12686,7 +12862,7 @@
       <c r="DH53" s="24"/>
       <c r="DJ53" s="24"/>
     </row>
-    <row r="54" s="1" customFormat="1" spans="1:16">
+    <row r="54" s="1" customFormat="1" ht="13" spans="1:16">
       <c r="A54" s="23">
         <v>200053</v>
       </c>
@@ -12736,7 +12912,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" spans="1:44">
+    <row r="55" s="1" customFormat="1" ht="13" spans="1:44">
       <c r="A55" s="23">
         <v>200054</v>
       </c>
@@ -12870,7 +13046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" spans="1:114">
+    <row r="56" s="1" customFormat="1" ht="13" spans="1:114">
       <c r="A56" s="23">
         <v>200055</v>
       </c>
@@ -13214,7 +13390,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" spans="1:14">
+    <row r="57" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A57" s="23">
         <v>200056</v>
       </c>
@@ -13258,7 +13434,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" spans="1:12">
+    <row r="58" s="1" customFormat="1" ht="13" spans="1:12">
       <c r="A58" s="23">
         <v>200057</v>
       </c>
@@ -13296,7 +13472,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" spans="1:12">
+    <row r="59" s="1" customFormat="1" ht="13" spans="1:12">
       <c r="A59" s="23">
         <v>200058</v>
       </c>
@@ -13334,7 +13510,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" spans="1:16">
+    <row r="60" s="1" customFormat="1" ht="13" spans="1:16">
       <c r="A60" s="23">
         <v>200059</v>
       </c>
@@ -13384,7 +13560,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" spans="1:16">
+    <row r="61" s="1" customFormat="1" ht="13" spans="1:16">
       <c r="A61" s="23">
         <v>200060</v>
       </c>
@@ -13434,7 +13610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" spans="1:108">
+    <row r="62" s="1" customFormat="1" ht="13" spans="1:108">
       <c r="A62" s="23">
         <v>220000</v>
       </c>
@@ -13712,7 +13888,7 @@
       <c r="DC62" s="28"/>
       <c r="DD62" s="28"/>
     </row>
-    <row r="63" s="1" customFormat="1" spans="1:14">
+    <row r="63" s="1" customFormat="1" ht="13" spans="1:14">
       <c r="A63" s="23">
         <v>220001</v>
       </c>
@@ -13748,7 +13924,7 @@
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
     </row>
-    <row r="64" s="3" customFormat="1" spans="1:6">
+    <row r="64" s="3" customFormat="1" ht="13" spans="1:6">
       <c r="A64" s="29">
         <v>200061</v>
       </c>
@@ -13768,7 +13944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" ht="12" spans="1:6">
+    <row r="65" s="3" customFormat="1" ht="13" spans="1:6">
       <c r="A65" s="29">
         <v>200062</v>
       </c>
@@ -13788,7 +13964,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" ht="12" spans="1:10">
+    <row r="66" s="3" customFormat="1" ht="13" spans="1:10">
       <c r="A66" s="29">
         <v>200063</v>
       </c>
@@ -13820,7 +13996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1" ht="12" spans="1:10">
+    <row r="67" s="3" customFormat="1" ht="13" spans="1:10">
       <c r="A67" s="29">
         <v>200064</v>
       </c>
@@ -13852,7 +14028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" s="3" customFormat="1" ht="12" spans="1:12">
+    <row r="68" s="3" customFormat="1" ht="13" spans="1:12">
       <c r="A68" s="29">
         <v>200065</v>
       </c>
@@ -13890,7 +14066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="1" ht="12" spans="1:6">
+    <row r="69" s="3" customFormat="1" ht="13" spans="1:6">
       <c r="A69" s="29">
         <v>200066</v>
       </c>
@@ -13910,7 +14086,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="1" ht="12" spans="1:10">
+    <row r="70" s="3" customFormat="1" ht="13" spans="1:10">
       <c r="A70" s="29">
         <v>200067</v>
       </c>
@@ -13942,7 +14118,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" ht="12" spans="1:20">
+    <row r="71" s="3" customFormat="1" ht="13" spans="1:20">
       <c r="A71" s="29">
         <v>200068</v>
       </c>
@@ -14004,7 +14180,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" s="3" customFormat="1" ht="12" spans="1:20">
+    <row r="72" s="3" customFormat="1" ht="13" spans="1:20">
       <c r="A72" s="29">
         <v>200069</v>
       </c>
@@ -14066,7 +14242,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" ht="12" spans="1:20">
+    <row r="73" s="3" customFormat="1" ht="13" spans="1:20">
       <c r="A73" s="29">
         <v>200070</v>
       </c>
@@ -14128,7 +14304,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" ht="12" spans="1:84">
+    <row r="74" s="3" customFormat="1" ht="13" spans="1:84">
       <c r="A74" s="29">
         <v>200071</v>
       </c>
@@ -14382,7 +14558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" ht="12" spans="1:84">
+    <row r="75" s="4" customFormat="1" ht="13" spans="1:84">
       <c r="A75" s="35">
         <v>200072</v>
       </c>
@@ -14636,7 +14812,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="12" spans="1:22">
+    <row r="76" s="3" customFormat="1" ht="13" spans="1:22">
       <c r="A76" s="29">
         <v>200073</v>
       </c>
@@ -14704,7 +14880,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" s="3" customFormat="1" ht="12" spans="1:6">
+    <row r="77" s="3" customFormat="1" ht="13" spans="1:6">
       <c r="A77" s="29">
         <v>200074</v>
       </c>
@@ -14724,7 +14900,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1" ht="12" spans="1:8">
+    <row r="78" s="3" customFormat="1" ht="13" spans="1:8">
       <c r="A78" s="29">
         <v>200075</v>
       </c>
@@ -14750,7 +14926,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" ht="12" spans="1:8">
+    <row r="79" s="3" customFormat="1" ht="13" spans="1:8">
       <c r="A79" s="29">
         <v>200076</v>
       </c>
@@ -14776,7 +14952,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="80" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A80" s="29">
         <v>200077</v>
       </c>
@@ -14856,7 +15032,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="81" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A81" s="29">
         <v>200078</v>
       </c>
@@ -14936,7 +15112,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="82" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A82" s="29">
         <v>200079</v>
       </c>
@@ -15016,7 +15192,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="83" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A83" s="29">
         <v>200080</v>
       </c>
@@ -15096,7 +15272,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="84" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A84" s="29">
         <v>200081</v>
       </c>
@@ -15176,7 +15352,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="85" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A85" s="29">
         <v>200082</v>
       </c>
@@ -15256,7 +15432,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="86" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A86" s="29">
         <v>200083</v>
       </c>
@@ -15336,7 +15512,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="87" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A87" s="29">
         <v>200084</v>
       </c>
@@ -15416,7 +15592,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="88" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A88" s="29">
         <v>200085</v>
       </c>
@@ -15496,7 +15672,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="89" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A89" s="29">
         <v>200086</v>
       </c>
@@ -15576,7 +15752,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="90" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A90" s="29">
         <v>200087</v>
       </c>
@@ -15656,7 +15832,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="91" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A91" s="29">
         <v>200088</v>
       </c>
@@ -15736,7 +15912,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="92" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A92" s="29">
         <v>200089</v>
       </c>
@@ -15816,7 +15992,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="93" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A93" s="29">
         <v>200090</v>
       </c>
@@ -15896,7 +16072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" ht="12" spans="1:26">
+    <row r="94" s="3" customFormat="1" ht="13" spans="1:26">
       <c r="A94" s="29">
         <v>200091</v>
       </c>
@@ -20696,7 +20872,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="154" s="6" customFormat="1" ht="12" customHeight="1" spans="1:26">
+    <row r="154" s="6" customFormat="1" ht="12" customHeight="1" spans="1:34">
       <c r="A154" s="41">
         <v>200151</v>
       </c>
@@ -20773,6 +20949,30 @@
         <v>7150613</v>
       </c>
       <c r="Z154" s="6">
+        <v>100</v>
+      </c>
+      <c r="AA154" s="6">
+        <v>7150107</v>
+      </c>
+      <c r="AB154" s="6">
+        <v>100</v>
+      </c>
+      <c r="AC154" s="6">
+        <v>7150108</v>
+      </c>
+      <c r="AD154" s="6">
+        <v>100</v>
+      </c>
+      <c r="AE154" s="6">
+        <v>7150109</v>
+      </c>
+      <c r="AF154" s="6">
+        <v>100</v>
+      </c>
+      <c r="AG154" s="6">
+        <v>7150106</v>
+      </c>
+      <c r="AH154" s="6">
         <v>100</v>
       </c>
     </row>
@@ -21976,7 +22176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" spans="1:20">
+    <row r="170" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A170" s="44">
         <v>200167</v>
       </c>
@@ -21995,7 +22195,7 @@
       <c r="Q170" s="50"/>
       <c r="T170" s="51"/>
     </row>
-    <row r="171" s="5" customFormat="1" spans="1:20">
+    <row r="171" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A171" s="44">
         <v>200168</v>
       </c>
@@ -22014,7 +22214,7 @@
       <c r="Q171" s="50"/>
       <c r="T171" s="51"/>
     </row>
-    <row r="172" s="5" customFormat="1" spans="1:20">
+    <row r="172" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A172" s="44">
         <v>200169</v>
       </c>
@@ -22033,7 +22233,7 @@
       <c r="Q172" s="50"/>
       <c r="T172" s="51"/>
     </row>
-    <row r="173" s="5" customFormat="1" spans="1:20">
+    <row r="173" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A173" s="44">
         <v>200170</v>
       </c>
@@ -22052,7 +22252,7 @@
       <c r="Q173" s="50"/>
       <c r="T173" s="51"/>
     </row>
-    <row r="174" s="5" customFormat="1" spans="1:20">
+    <row r="174" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A174" s="44">
         <v>200171</v>
       </c>
@@ -22071,7 +22271,7 @@
       <c r="Q174" s="50"/>
       <c r="T174" s="51"/>
     </row>
-    <row r="175" s="5" customFormat="1" spans="1:20">
+    <row r="175" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A175" s="44">
         <v>200172</v>
       </c>
@@ -22090,7 +22290,7 @@
       <c r="Q175" s="50"/>
       <c r="T175" s="51"/>
     </row>
-    <row r="176" s="5" customFormat="1" spans="1:20">
+    <row r="176" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A176" s="44">
         <v>200173</v>
       </c>
@@ -22109,7 +22309,7 @@
       <c r="Q176" s="50"/>
       <c r="T176" s="51"/>
     </row>
-    <row r="177" s="5" customFormat="1" spans="1:20">
+    <row r="177" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A177" s="44">
         <v>200174</v>
       </c>
@@ -22128,7 +22328,7 @@
       <c r="Q177" s="50"/>
       <c r="T177" s="51"/>
     </row>
-    <row r="178" s="5" customFormat="1" spans="1:20">
+    <row r="178" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A178" s="44">
         <v>200175</v>
       </c>
@@ -22147,7 +22347,7 @@
       <c r="Q178" s="50"/>
       <c r="T178" s="51"/>
     </row>
-    <row r="179" s="5" customFormat="1" spans="1:20">
+    <row r="179" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A179" s="44">
         <v>200176</v>
       </c>
@@ -22166,7 +22366,7 @@
       <c r="Q179" s="50"/>
       <c r="T179" s="51"/>
     </row>
-    <row r="180" s="5" customFormat="1" spans="1:20">
+    <row r="180" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A180" s="44">
         <v>200177</v>
       </c>
@@ -22185,7 +22385,7 @@
       <c r="Q180" s="50"/>
       <c r="T180" s="51"/>
     </row>
-    <row r="181" s="5" customFormat="1" spans="1:24">
+    <row r="181" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A181" s="44">
         <v>200178</v>
       </c>
@@ -22205,7 +22405,7 @@
       <c r="T181" s="51"/>
       <c r="X181" s="50"/>
     </row>
-    <row r="182" s="5" customFormat="1" spans="1:24">
+    <row r="182" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A182" s="44">
         <v>200179</v>
       </c>
@@ -22225,7 +22425,7 @@
       <c r="T182" s="51"/>
       <c r="X182" s="50"/>
     </row>
-    <row r="183" s="5" customFormat="1" spans="1:24">
+    <row r="183" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A183" s="44">
         <v>200180</v>
       </c>
@@ -22245,7 +22445,7 @@
       <c r="T183" s="51"/>
       <c r="X183" s="50"/>
     </row>
-    <row r="184" s="5" customFormat="1" spans="1:24">
+    <row r="184" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A184" s="44">
         <v>200181</v>
       </c>
@@ -22265,7 +22465,7 @@
       <c r="T184" s="51"/>
       <c r="X184" s="50"/>
     </row>
-    <row r="185" s="5" customFormat="1" spans="1:24">
+    <row r="185" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A185" s="44">
         <v>200182</v>
       </c>
@@ -22285,7 +22485,7 @@
       <c r="T185" s="51"/>
       <c r="X185" s="50"/>
     </row>
-    <row r="186" s="5" customFormat="1" spans="1:24">
+    <row r="186" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A186" s="44">
         <v>200183</v>
       </c>
@@ -22305,7 +22505,7 @@
       <c r="T186" s="51"/>
       <c r="X186" s="50"/>
     </row>
-    <row r="187" s="5" customFormat="1" spans="1:24">
+    <row r="187" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A187" s="44">
         <v>200184</v>
       </c>
@@ -22325,7 +22525,7 @@
       <c r="T187" s="51"/>
       <c r="X187" s="50"/>
     </row>
-    <row r="188" s="5" customFormat="1" spans="1:24">
+    <row r="188" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A188" s="44">
         <v>200185</v>
       </c>
@@ -22345,7 +22545,7 @@
       <c r="T188" s="51"/>
       <c r="X188" s="50"/>
     </row>
-    <row r="189" s="5" customFormat="1" spans="1:24">
+    <row r="189" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A189" s="44">
         <v>200186</v>
       </c>
@@ -22365,7 +22565,7 @@
       <c r="T189" s="51"/>
       <c r="X189" s="50"/>
     </row>
-    <row r="190" s="5" customFormat="1" spans="1:24">
+    <row r="190" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A190" s="44">
         <v>200187</v>
       </c>
@@ -22385,7 +22585,7 @@
       <c r="T190" s="51"/>
       <c r="X190" s="50"/>
     </row>
-    <row r="191" s="5" customFormat="1" spans="1:24">
+    <row r="191" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A191" s="44">
         <v>200188</v>
       </c>
@@ -22405,7 +22605,7 @@
       <c r="T191" s="51"/>
       <c r="X191" s="50"/>
     </row>
-    <row r="192" s="5" customFormat="1" spans="1:24">
+    <row r="192" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A192" s="44">
         <v>200189</v>
       </c>
@@ -22425,7 +22625,7 @@
       <c r="T192" s="51"/>
       <c r="X192" s="50"/>
     </row>
-    <row r="193" s="5" customFormat="1" spans="1:24">
+    <row r="193" s="5" customFormat="1" ht="13" spans="1:24">
       <c r="A193" s="44">
         <v>200190</v>
       </c>
@@ -22445,7 +22645,7 @@
       <c r="T193" s="51"/>
       <c r="X193" s="50"/>
     </row>
-    <row r="194" s="5" customFormat="1" spans="1:20">
+    <row r="194" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A194" s="44">
         <v>200191</v>
       </c>
@@ -22464,7 +22664,7 @@
       <c r="Q194" s="51"/>
       <c r="T194" s="51"/>
     </row>
-    <row r="195" s="5" customFormat="1" spans="1:20">
+    <row r="195" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A195" s="44">
         <v>200192</v>
       </c>
@@ -22483,7 +22683,7 @@
       <c r="Q195" s="51"/>
       <c r="T195" s="51"/>
     </row>
-    <row r="196" s="5" customFormat="1" spans="1:20">
+    <row r="196" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A196" s="44">
         <v>200193</v>
       </c>
@@ -22502,7 +22702,7 @@
       <c r="Q196" s="51"/>
       <c r="T196" s="51"/>
     </row>
-    <row r="197" s="5" customFormat="1" spans="1:20">
+    <row r="197" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A197" s="44">
         <v>200194</v>
       </c>
@@ -22521,7 +22721,7 @@
       <c r="Q197" s="51"/>
       <c r="T197" s="51"/>
     </row>
-    <row r="198" s="5" customFormat="1" spans="1:20">
+    <row r="198" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A198" s="44">
         <v>200195</v>
       </c>
@@ -22540,7 +22740,7 @@
       <c r="Q198" s="51"/>
       <c r="T198" s="51"/>
     </row>
-    <row r="199" s="5" customFormat="1" spans="1:20">
+    <row r="199" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A199" s="44">
         <v>200196</v>
       </c>
@@ -22559,7 +22759,7 @@
       <c r="Q199" s="51"/>
       <c r="T199" s="51"/>
     </row>
-    <row r="200" s="5" customFormat="1" spans="1:20">
+    <row r="200" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A200" s="44">
         <v>200197</v>
       </c>
@@ -22578,7 +22778,7 @@
       <c r="Q200" s="51"/>
       <c r="T200" s="51"/>
     </row>
-    <row r="201" s="5" customFormat="1" spans="1:20">
+    <row r="201" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A201" s="44">
         <v>200198</v>
       </c>
@@ -22597,7 +22797,7 @@
       <c r="Q201" s="51"/>
       <c r="T201" s="51"/>
     </row>
-    <row r="202" s="5" customFormat="1" spans="1:20">
+    <row r="202" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A202" s="44">
         <v>200199</v>
       </c>
@@ -22616,7 +22816,7 @@
       <c r="Q202" s="51"/>
       <c r="T202" s="51"/>
     </row>
-    <row r="203" s="5" customFormat="1" spans="1:20">
+    <row r="203" s="5" customFormat="1" ht="13" spans="1:20">
       <c r="A203" s="44">
         <v>200200</v>
       </c>
@@ -22635,7 +22835,7 @@
       <c r="Q203" s="51"/>
       <c r="T203" s="51"/>
     </row>
-    <row r="204" s="7" customFormat="1" spans="1:84">
+    <row r="204" s="7" customFormat="1" ht="13" spans="1:84">
       <c r="A204" s="53">
         <v>200202</v>
       </c>
@@ -22889,7 +23089,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" s="7" customFormat="1" spans="1:84">
+    <row r="205" s="7" customFormat="1" ht="13" spans="1:84">
       <c r="A205" s="53">
         <v>200203</v>
       </c>
@@ -23143,7 +23343,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" s="7" customFormat="1" spans="1:12">
+    <row r="206" s="7" customFormat="1" ht="13" spans="1:12">
       <c r="A206" s="53">
         <v>200204</v>
       </c>
@@ -23181,7 +23381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" s="8" customFormat="1" ht="14.25" spans="1:256">
+    <row r="207" s="8" customFormat="1" ht="15" spans="1:256">
       <c r="A207" s="56">
         <v>200205</v>
       </c>
@@ -23451,7 +23651,7 @@
       <c r="IU207" s="20"/>
       <c r="IV207" s="20"/>
     </row>
-    <row r="208" s="8" customFormat="1" ht="14.25" spans="1:256">
+    <row r="208" s="8" customFormat="1" ht="15" spans="1:256">
       <c r="A208" s="56">
         <v>200206</v>
       </c>
@@ -23737,7 +23937,7 @@
       <c r="IU208" s="20"/>
       <c r="IV208" s="20"/>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" ht="13" spans="1:4">
       <c r="A209" s="56">
         <v>200207</v>
       </c>
@@ -23903,7 +24103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" ht="13" spans="1:4">
       <c r="A211" s="56">
         <v>200209</v>
       </c>
@@ -23917,7 +24117,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" ht="13.5" spans="1:8">
+    <row r="212" ht="14" spans="1:8">
       <c r="A212" s="56">
         <v>200210</v>
       </c>
@@ -23934,7 +24134,7 @@
       <c r="G212" s="62"/>
       <c r="H212" s="63"/>
     </row>
-    <row r="213" ht="13.5" spans="1:8">
+    <row r="213" ht="14" spans="1:8">
       <c r="A213" s="56">
         <v>200211</v>
       </c>
@@ -23951,7 +24151,7 @@
       <c r="G213" s="62"/>
       <c r="H213" s="63"/>
     </row>
-    <row r="214" ht="13.5" spans="1:8">
+    <row r="214" ht="14" spans="1:8">
       <c r="A214" s="56">
         <v>200212</v>
       </c>
@@ -23973,7 +24173,7 @@
       <c r="G214" s="62"/>
       <c r="H214" s="63"/>
     </row>
-    <row r="215" ht="13.5" spans="1:8">
+    <row r="215" ht="14" spans="1:8">
       <c r="A215" s="56">
         <v>200213</v>
       </c>
@@ -23990,7 +24190,7 @@
       <c r="G215" s="62"/>
       <c r="H215" s="63"/>
     </row>
-    <row r="216" ht="13.5" spans="1:8">
+    <row r="216" ht="14" spans="1:8">
       <c r="A216" s="56">
         <v>200214</v>
       </c>
@@ -24007,7 +24207,7 @@
       <c r="G216" s="62"/>
       <c r="H216" s="63"/>
     </row>
-    <row r="217" ht="13.5" spans="1:8">
+    <row r="217" ht="14" spans="1:8">
       <c r="A217" s="56">
         <v>200215</v>
       </c>
@@ -24024,7 +24224,7 @@
       <c r="G217" s="62"/>
       <c r="H217" s="63"/>
     </row>
-    <row r="218" s="3" customFormat="1" spans="1:10">
+    <row r="218" s="3" customFormat="1" ht="13" spans="1:10">
       <c r="A218" s="56">
         <v>200216</v>
       </c>
@@ -24056,7 +24256,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" spans="1:10">
+    <row r="219" ht="13" spans="1:10">
       <c r="A219" s="56">
         <v>200217</v>
       </c>
@@ -24088,7 +24288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" ht="13" spans="1:4">
       <c r="A220" s="56">
         <v>200218</v>
       </c>
@@ -24102,7 +24302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" ht="13" spans="1:4">
       <c r="A221" s="56">
         <v>200219</v>
       </c>
@@ -24116,7 +24316,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" s="10" customFormat="1" spans="1:16">
+    <row r="222" s="10" customFormat="1" ht="13" spans="1:16">
       <c r="A222" s="56">
         <v>200220</v>
       </c>
@@ -24166,7 +24366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="223" s="10" customFormat="1" spans="1:16">
+    <row r="223" s="10" customFormat="1" ht="13" spans="1:16">
       <c r="A223" s="56">
         <v>200221</v>
       </c>
@@ -24216,7 +24416,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" s="10" customFormat="1" spans="1:16">
+    <row r="224" s="10" customFormat="1" ht="13" spans="1:16">
       <c r="A224" s="56">
         <v>200222</v>
       </c>
@@ -24266,7 +24466,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" s="3" customFormat="1" spans="1:84">
+    <row r="225" s="3" customFormat="1" ht="13" spans="1:84">
       <c r="A225" s="56">
         <v>200223</v>
       </c>
@@ -24520,7 +24720,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="226" s="3" customFormat="1" ht="12" spans="1:12">
+    <row r="226" s="3" customFormat="1" ht="13" spans="1:12">
       <c r="A226" s="29">
         <v>200230</v>
       </c>
@@ -24558,7 +24758,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" s="11" customFormat="1" spans="1:4">
+    <row r="227" s="11" customFormat="1" ht="13" spans="1:4">
       <c r="A227" s="67">
         <v>200231</v>
       </c>
@@ -24572,7 +24772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" s="11" customFormat="1" spans="1:4">
+    <row r="228" s="11" customFormat="1" ht="13" spans="1:4">
       <c r="A228" s="67">
         <v>200232</v>
       </c>
@@ -24586,7 +24786,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" s="11" customFormat="1" spans="1:10">
+    <row r="229" s="11" customFormat="1" ht="13" spans="1:10">
       <c r="A229" s="67">
         <v>200233</v>
       </c>
@@ -24618,7 +24818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" ht="13" spans="1:4">
       <c r="A230" s="67">
         <v>200234</v>
       </c>
@@ -24632,7 +24832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" ht="13" spans="1:4">
       <c r="A231" s="67">
         <v>200235</v>
       </c>
@@ -24646,7 +24846,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" ht="13" spans="1:4">
       <c r="A232" s="67">
         <v>200236</v>
       </c>
@@ -24660,7 +24860,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" ht="13" spans="1:4">
       <c r="A233" s="67">
         <v>200237</v>
       </c>
@@ -24674,7 +24874,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" ht="13" spans="1:4">
       <c r="A234" s="67">
         <v>200238</v>
       </c>
@@ -24688,7 +24888,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" spans="1:14">
+    <row r="235" ht="13" spans="1:14">
       <c r="A235" s="67">
         <v>200239</v>
       </c>
@@ -24703,7 +24903,7 @@
       </c>
       <c r="N235" s="73"/>
     </row>
-    <row r="236" spans="1:14">
+    <row r="236" ht="13" spans="1:14">
       <c r="A236" s="67">
         <v>200240</v>
       </c>
@@ -24718,7 +24918,7 @@
       </c>
       <c r="N236" s="73"/>
     </row>
-    <row r="237" spans="1:14">
+    <row r="237" ht="13" spans="1:14">
       <c r="A237" s="67">
         <v>200241</v>
       </c>
@@ -24733,7 +24933,7 @@
       </c>
       <c r="N237" s="73"/>
     </row>
-    <row r="238" spans="1:14">
+    <row r="238" ht="13" spans="1:14">
       <c r="A238" s="67">
         <v>200242</v>
       </c>
@@ -24748,7 +24948,7 @@
       </c>
       <c r="N238" s="73"/>
     </row>
-    <row r="239" spans="1:14">
+    <row r="239" ht="13" spans="1:14">
       <c r="A239" s="67">
         <v>200243</v>
       </c>
@@ -24763,7 +24963,7 @@
       </c>
       <c r="N239" s="73"/>
     </row>
-    <row r="240" spans="1:14">
+    <row r="240" ht="13" spans="1:14">
       <c r="A240" s="67">
         <v>200244</v>
       </c>
@@ -24778,7 +24978,7 @@
       </c>
       <c r="N240" s="73"/>
     </row>
-    <row r="241" spans="1:14">
+    <row r="241" ht="13" spans="1:14">
       <c r="A241" s="67">
         <v>200245</v>
       </c>
@@ -24793,7 +24993,7 @@
       </c>
       <c r="N241" s="73"/>
     </row>
-    <row r="242" spans="1:14">
+    <row r="242" ht="13" spans="1:14">
       <c r="A242" s="67">
         <v>200246</v>
       </c>
@@ -24808,7 +25008,7 @@
       </c>
       <c r="N242" s="73"/>
     </row>
-    <row r="243" spans="1:14">
+    <row r="243" ht="13" spans="1:14">
       <c r="A243" s="67">
         <v>200247</v>
       </c>
@@ -24823,7 +25023,7 @@
       </c>
       <c r="N243" s="73"/>
     </row>
-    <row r="244" spans="1:14">
+    <row r="244" ht="13" spans="1:14">
       <c r="A244" s="67">
         <v>200248</v>
       </c>
@@ -24838,7 +25038,7 @@
       </c>
       <c r="N244" s="73"/>
     </row>
-    <row r="245" spans="1:14">
+    <row r="245" ht="13" spans="1:14">
       <c r="A245" s="67">
         <v>200249</v>
       </c>
@@ -26929,7 +27129,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" spans="1:22">
+    <row r="267" ht="13" spans="1:22">
       <c r="A267" s="18">
         <v>200321</v>
       </c>
@@ -26992,7 +27192,7 @@
       </c>
       <c r="V267" s="72"/>
     </row>
-    <row r="268" spans="1:22">
+    <row r="268" ht="13" spans="1:22">
       <c r="A268" s="18">
         <v>200322</v>
       </c>
@@ -27055,7 +27255,7 @@
       </c>
       <c r="V268" s="72"/>
     </row>
-    <row r="269" spans="1:22">
+    <row r="269" ht="13" spans="1:22">
       <c r="A269" s="18">
         <v>200323</v>
       </c>
@@ -27118,7 +27318,7 @@
       </c>
       <c r="V269" s="72"/>
     </row>
-    <row r="270" spans="1:22">
+    <row r="270" ht="13" spans="1:22">
       <c r="A270" s="18">
         <v>200324</v>
       </c>
@@ -27181,7 +27381,7 @@
       </c>
       <c r="V270" s="72"/>
     </row>
-    <row r="271" spans="1:22">
+    <row r="271" ht="13" spans="1:22">
       <c r="A271" s="18">
         <v>200325</v>
       </c>
@@ -27244,7 +27444,7 @@
       </c>
       <c r="V271" s="72"/>
     </row>
-    <row r="272" spans="1:22">
+    <row r="272" ht="13" spans="1:22">
       <c r="A272" s="18">
         <v>200326</v>
       </c>
@@ -27307,7 +27507,7 @@
       </c>
       <c r="V272" s="72"/>
     </row>
-    <row r="273" spans="1:22">
+    <row r="273" ht="13" spans="1:22">
       <c r="A273" s="18">
         <v>200327</v>
       </c>
@@ -27370,7 +27570,7 @@
       </c>
       <c r="V273" s="72"/>
     </row>
-    <row r="274" spans="1:22">
+    <row r="274" ht="13" spans="1:22">
       <c r="A274" s="18">
         <v>200328</v>
       </c>
@@ -27433,7 +27633,7 @@
       </c>
       <c r="V274" s="72"/>
     </row>
-    <row r="275" spans="1:22">
+    <row r="275" ht="13" spans="1:22">
       <c r="A275" s="18">
         <v>200329</v>
       </c>
@@ -27496,7 +27696,7 @@
       </c>
       <c r="V275" s="72"/>
     </row>
-    <row r="276" spans="1:22">
+    <row r="276" ht="13" spans="1:22">
       <c r="A276" s="18">
         <v>200330</v>
       </c>
@@ -27559,7 +27759,7 @@
       </c>
       <c r="V276" s="72"/>
     </row>
-    <row r="277" spans="1:22">
+    <row r="277" ht="13" spans="1:22">
       <c r="A277" s="18">
         <v>200331</v>
       </c>
@@ -27622,7 +27822,7 @@
       </c>
       <c r="V277" s="72"/>
     </row>
-    <row r="278" spans="1:22">
+    <row r="278" ht="13" spans="1:22">
       <c r="A278" s="18">
         <v>200332</v>
       </c>
@@ -27685,7 +27885,7 @@
       </c>
       <c r="V278" s="72"/>
     </row>
-    <row r="279" spans="1:22">
+    <row r="279" ht="13" spans="1:22">
       <c r="A279" s="18">
         <v>200333</v>
       </c>
@@ -27748,7 +27948,7 @@
       </c>
       <c r="V279" s="72"/>
     </row>
-    <row r="280" spans="1:22">
+    <row r="280" ht="13" spans="1:22">
       <c r="A280" s="18">
         <v>200334</v>
       </c>
@@ -27811,7 +28011,7 @@
       </c>
       <c r="V280" s="72"/>
     </row>
-    <row r="281" spans="1:22">
+    <row r="281" ht="13" spans="1:22">
       <c r="A281" s="18">
         <v>200335</v>
       </c>
@@ -27874,7 +28074,7 @@
       </c>
       <c r="V281" s="72"/>
     </row>
-    <row r="282" spans="1:22">
+    <row r="282" ht="13" spans="1:22">
       <c r="A282" s="18">
         <v>200336</v>
       </c>
@@ -27937,7 +28137,7 @@
       </c>
       <c r="V282" s="72"/>
     </row>
-    <row r="283" spans="1:22">
+    <row r="283" ht="13" spans="1:22">
       <c r="A283" s="18">
         <v>200337</v>
       </c>
@@ -28000,7 +28200,7 @@
       </c>
       <c r="V283" s="72"/>
     </row>
-    <row r="284" spans="1:22">
+    <row r="284" ht="13" spans="1:22">
       <c r="A284" s="18">
         <v>200338</v>
       </c>
@@ -28529,7 +28729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" spans="1:12">
+    <row r="290" ht="13" spans="1:12">
       <c r="A290" s="18">
         <v>200344</v>
       </c>
@@ -28567,7 +28767,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:16">
+    <row r="291" ht="13" spans="1:16">
       <c r="A291" s="18">
         <v>200345</v>
       </c>
@@ -28617,7 +28817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" ht="13" spans="1:6">
       <c r="A292" s="18">
         <v>200346</v>
       </c>
@@ -28637,7 +28837,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" spans="1:10">
+    <row r="293" ht="13" spans="1:10">
       <c r="A293" s="18">
         <v>200347</v>
       </c>
@@ -28669,7 +28869,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" ht="13" spans="1:4">
       <c r="A294" s="18">
         <v>200348</v>
       </c>
@@ -28683,7 +28883,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" ht="13" spans="1:4">
       <c r="A295" s="18">
         <v>200349</v>
       </c>
@@ -28697,7 +28897,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" ht="13" spans="1:4">
       <c r="A296" s="18">
         <v>200350</v>
       </c>
@@ -28711,7 +28911,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" ht="13" spans="1:4">
       <c r="A297" s="18">
         <v>200351</v>
       </c>
@@ -28725,7 +28925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" ht="13" spans="1:4">
       <c r="A298" s="18">
         <v>200352</v>
       </c>
@@ -28739,7 +28939,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" s="12" customFormat="1" spans="1:18">
+    <row r="299" s="12" customFormat="1" ht="13" spans="1:18">
       <c r="A299" s="12">
         <v>200353</v>
       </c>
@@ -28765,7 +28965,7 @@
       <c r="P299" s="79"/>
       <c r="R299" s="79"/>
     </row>
-    <row r="300" s="12" customFormat="1" spans="1:34">
+    <row r="300" s="12" customFormat="1" ht="13" spans="1:34">
       <c r="A300" s="12">
         <v>200354</v>
       </c>
@@ -28869,7 +29069,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" s="12" customFormat="1" spans="1:34">
+    <row r="301" s="12" customFormat="1" ht="13" spans="1:34">
       <c r="A301" s="12">
         <v>200355</v>
       </c>
@@ -28973,7 +29173,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" s="12" customFormat="1" spans="1:34">
+    <row r="302" s="12" customFormat="1" ht="13" spans="1:34">
       <c r="A302" s="12">
         <v>200356</v>
       </c>
@@ -29077,7 +29277,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" s="12" customFormat="1" spans="1:34">
+    <row r="303" s="12" customFormat="1" ht="13" spans="1:34">
       <c r="A303" s="12">
         <v>200357</v>
       </c>
@@ -29181,7 +29381,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" s="12" customFormat="1" spans="1:34">
+    <row r="304" s="12" customFormat="1" ht="13" spans="1:34">
       <c r="A304" s="12">
         <v>200358</v>
       </c>
@@ -29285,7 +29485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" s="12" customFormat="1" spans="1:34">
+    <row r="305" s="12" customFormat="1" ht="13" spans="1:34">
       <c r="A305" s="12">
         <v>200359</v>
       </c>
@@ -29389,7 +29589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" s="13" customFormat="1" spans="1:20">
+    <row r="306" s="13" customFormat="1" ht="13" spans="1:20">
       <c r="A306" s="13">
         <v>200360</v>
       </c>
@@ -29451,7 +29651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" s="14" customFormat="1" spans="1:20">
+    <row r="307" s="14" customFormat="1" ht="13" spans="1:20">
       <c r="A307" s="13">
         <v>200361</v>
       </c>
@@ -29513,7 +29713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" s="14" customFormat="1" spans="1:20">
+    <row r="308" s="14" customFormat="1" ht="13" spans="1:20">
       <c r="A308" s="13">
         <v>200362</v>
       </c>
@@ -29575,7 +29775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" s="14" customFormat="1" spans="1:20">
+    <row r="309" s="14" customFormat="1" ht="13" spans="1:20">
       <c r="A309" s="13">
         <v>200363</v>
       </c>
@@ -29637,7 +29837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" s="14" customFormat="1" spans="1:20">
+    <row r="310" s="14" customFormat="1" ht="13" spans="1:20">
       <c r="A310" s="13">
         <v>200364</v>
       </c>
@@ -29699,7 +29899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" s="14" customFormat="1" spans="1:20">
+    <row r="311" s="14" customFormat="1" ht="13" spans="1:20">
       <c r="A311" s="13">
         <v>200365</v>
       </c>
@@ -29761,7 +29961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" s="15" customFormat="1" spans="1:20">
+    <row r="312" s="15" customFormat="1" ht="13" spans="1:20">
       <c r="A312" s="13">
         <v>200366</v>
       </c>
@@ -29823,7 +30023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="15" customFormat="1" spans="1:20">
+    <row r="313" s="15" customFormat="1" ht="13" spans="1:20">
       <c r="A313" s="13">
         <v>200367</v>
       </c>
@@ -29885,7 +30085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" s="15" customFormat="1" spans="1:20">
+    <row r="314" s="15" customFormat="1" ht="13" spans="1:20">
       <c r="A314" s="13">
         <v>200368</v>
       </c>
@@ -29947,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" ht="13" spans="1:17">
       <c r="A315" s="13">
         <v>200369</v>
       </c>
@@ -29982,7 +30182,7 @@
       <c r="P315" s="83"/>
       <c r="Q315" s="90"/>
     </row>
-    <row r="316" s="4" customFormat="1" spans="1:84">
+    <row r="316" s="4" customFormat="1" ht="13" spans="1:84">
       <c r="A316" s="13">
         <v>200370</v>
       </c>
@@ -30236,7 +30436,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" s="3" customFormat="1" spans="1:10">
+    <row r="317" s="3" customFormat="1" ht="13" spans="1:10">
       <c r="A317" s="13">
         <v>200371</v>
       </c>
@@ -30268,7 +30468,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" ht="13" spans="1:4">
       <c r="A318" s="13">
         <v>200372</v>
       </c>
@@ -30282,7 +30482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" ht="13" spans="1:4">
       <c r="A319" s="13">
         <v>200373</v>
       </c>
@@ -30296,7 +30496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" ht="13" spans="1:4">
       <c r="A320" s="13">
         <v>200374</v>
       </c>
@@ -30310,7 +30510,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" ht="13" spans="1:4">
       <c r="A321" s="13">
         <v>200375</v>
       </c>
@@ -30324,7 +30524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" spans="1:8">
+    <row r="322" ht="13" spans="1:8">
       <c r="A322" s="13">
         <v>200376</v>
       </c>
@@ -30350,7 +30550,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="323" spans="1:10">
+    <row r="323" ht="13" spans="1:10">
       <c r="A323" s="18">
         <v>200377</v>
       </c>
@@ -30382,7 +30582,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" ht="13" spans="1:4">
       <c r="A324" s="18">
         <v>200378</v>
       </c>
@@ -30396,7 +30596,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" ht="13" spans="1:4">
       <c r="A325" s="18">
         <v>200379</v>
       </c>
@@ -30410,7 +30610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="326" s="4" customFormat="1" spans="1:84">
+    <row r="326" s="4" customFormat="1" ht="13" spans="1:84">
       <c r="A326" s="18">
         <v>200382</v>
       </c>
@@ -30664,7 +30864,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" spans="1:26">
+    <row r="327" ht="13" spans="1:26">
       <c r="A327" s="18">
         <v>200383</v>
       </c>
@@ -30744,7 +30944,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" ht="13" spans="1:4">
       <c r="A328" s="18">
         <v>200384</v>
       </c>
@@ -30758,7 +30958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" ht="13" spans="1:4">
       <c r="A329" s="18">
         <v>200385</v>
       </c>
@@ -30772,7 +30972,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" ht="13" spans="1:4">
       <c r="A330" s="18">
         <v>200386</v>
       </c>
@@ -30786,7 +30986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" spans="1:66">
+    <row r="331" ht="13" spans="1:66">
       <c r="A331" s="18">
         <v>200389</v>
       </c>
@@ -30986,7 +31186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" spans="1:38">
+    <row r="332" ht="13" spans="1:38">
       <c r="A332" s="18">
         <v>200392</v>
       </c>
@@ -31102,7 +31302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" spans="1:38">
+    <row r="333" ht="13" spans="1:38">
       <c r="A333" s="18">
         <v>200393</v>
       </c>
@@ -31218,7 +31418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:38">
+    <row r="334" ht="13" spans="1:38">
       <c r="A334" s="18">
         <v>200394</v>
       </c>
@@ -31334,7 +31534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:56">
+    <row r="335" ht="13" spans="1:56">
       <c r="A335" s="18">
         <v>200395</v>
       </c>
@@ -31504,7 +31704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:56">
+    <row r="336" ht="13" spans="1:56">
       <c r="A336" s="18">
         <v>200396</v>
       </c>
@@ -31674,7 +31874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:38">
+    <row r="337" ht="13" spans="1:38">
       <c r="A337" s="18">
         <v>200397</v>
       </c>
@@ -31790,7 +31990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:66">
+    <row r="338" ht="13" spans="1:66">
       <c r="A338" s="18">
         <v>200398</v>
       </c>
@@ -31990,7 +32190,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="339" spans="1:98">
+    <row r="339" ht="13" spans="1:98">
       <c r="A339" s="18">
         <v>200399</v>
       </c>
@@ -32286,7 +32486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="340" spans="1:98">
+    <row r="340" ht="13" spans="1:98">
       <c r="A340" s="18">
         <v>200400</v>
       </c>
@@ -32582,7 +32782,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="341" s="16" customFormat="1" spans="1:66">
+    <row r="341" s="16" customFormat="1" ht="13" spans="1:66">
       <c r="A341" s="16">
         <v>200401</v>
       </c>
@@ -32782,7 +32982,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="342" spans="1:66">
+    <row r="342" ht="13" spans="1:66">
       <c r="A342" s="18">
         <v>200402</v>
       </c>
@@ -32982,7 +33182,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="343" spans="1:98">
+    <row r="343" ht="13" spans="1:98">
       <c r="A343" s="18">
         <v>200403</v>
       </c>
@@ -33278,7 +33478,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="344" spans="1:8">
+    <row r="344" ht="13" spans="1:8">
       <c r="A344" s="18">
         <v>200404</v>
       </c>
@@ -33304,7 +33504,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="345" spans="1:3">
+    <row r="345" ht="13" spans="1:3">
       <c r="A345" s="18">
         <v>200405</v>
       </c>
@@ -33315,7 +33515,7 @@
         <v>522134</v>
       </c>
     </row>
-    <row r="346" spans="1:20">
+    <row r="346" ht="13" spans="1:20">
       <c r="A346" s="18">
         <v>200406</v>
       </c>
@@ -33377,7 +33577,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" spans="1:10">
+    <row r="347" ht="13" spans="1:10">
       <c r="A347" s="18">
         <v>200407</v>
       </c>
@@ -33409,7 +33609,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" spans="1:10">
+    <row r="348" ht="13" spans="1:10">
       <c r="A348" s="18">
         <v>200408</v>
       </c>
@@ -33441,7 +33641,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" spans="1:10">
+    <row r="349" ht="13" spans="1:10">
       <c r="A349" s="18">
         <v>200409</v>
       </c>
@@ -33473,7 +33673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" spans="1:10">
+    <row r="350" ht="13" spans="1:10">
       <c r="A350" s="18">
         <v>200410</v>
       </c>
@@ -33505,7 +33705,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" spans="1:12">
+    <row r="351" ht="13" spans="1:12">
       <c r="A351" s="18">
         <v>200411</v>
       </c>
@@ -33543,7 +33743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" ht="13" spans="1:6">
       <c r="A352" s="18">
         <v>200412</v>
       </c>
@@ -33563,7 +33763,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" spans="1:14">
+    <row r="353" ht="13" spans="1:14">
       <c r="A353" s="18">
         <v>200413</v>
       </c>
@@ -33607,7 +33807,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" ht="13" spans="1:4">
       <c r="A354" s="18">
         <v>200415</v>
       </c>
@@ -33621,7 +33821,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" spans="1:12">
+    <row r="355" ht="13" spans="1:12">
       <c r="A355" s="18">
         <v>200416</v>
       </c>
@@ -33659,7 +33859,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" spans="1:20">
+    <row r="356" ht="13" spans="1:20">
       <c r="A356" s="18">
         <v>200417</v>
       </c>
@@ -33721,7 +33921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" s="17" customFormat="1" spans="1:18">
+    <row r="357" s="17" customFormat="1" ht="13" spans="1:18">
       <c r="A357" s="17">
         <v>200418</v>
       </c>
@@ -33777,7 +33977,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="358" spans="1:14">
+    <row r="358" ht="13" spans="1:14">
       <c r="A358" s="18">
         <v>200419</v>
       </c>
@@ -33821,7 +34021,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" ht="13" spans="1:4">
       <c r="A359" s="18">
         <v>200420</v>
       </c>
@@ -33835,7 +34035,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" spans="1:60">
+    <row r="360" ht="13" spans="1:60">
       <c r="A360" s="18">
         <v>200421</v>
       </c>
@@ -34017,7 +34217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" ht="13" spans="1:4">
       <c r="A361" s="18">
         <v>200422</v>
       </c>
@@ -34031,7 +34231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" ht="13" spans="1:4">
       <c r="A362" s="18">
         <v>200423</v>
       </c>
@@ -34045,7 +34245,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" customFormat="1" spans="1:72">
+    <row r="363" customFormat="1" ht="13" spans="1:72">
       <c r="A363" s="18">
         <v>200424</v>
       </c>
@@ -34263,7 +34463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" customFormat="1" spans="1:4">
+    <row r="364" customFormat="1" ht="13" spans="1:4">
       <c r="A364" s="18">
         <v>200425</v>
       </c>
@@ -34277,7 +34477,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" spans="1:8">
+    <row r="365" ht="13" spans="1:8">
       <c r="A365" s="18">
         <v>200426</v>
       </c>
@@ -34303,7 +34503,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="366" spans="1:8">
+    <row r="366" ht="13" spans="1:8">
       <c r="A366" s="18">
         <v>200427</v>
       </c>
@@ -34329,7 +34529,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="367" spans="1:8">
+    <row r="367" ht="13" spans="1:8">
       <c r="A367" s="18">
         <v>200428</v>
       </c>
@@ -34355,7 +34555,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="368" spans="1:38">
+    <row r="368" ht="13" spans="1:38">
       <c r="A368" s="18">
         <v>200429</v>
       </c>
@@ -34471,7 +34671,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="369" spans="1:12">
+    <row r="369" ht="13" spans="1:12">
       <c r="A369" s="18">
         <v>200430</v>
       </c>
@@ -34509,7 +34709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" ht="13" spans="1:17">
       <c r="A370" s="18">
         <v>200431</v>
       </c>
@@ -34562,7 +34762,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" ht="13" spans="1:4">
       <c r="A371" s="18">
         <v>200432</v>
       </c>
@@ -34576,7 +34776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" ht="13" spans="1:4">
       <c r="A372" s="18">
         <v>200433</v>
       </c>
@@ -34590,7 +34790,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" ht="13" spans="1:4">
       <c r="A373" s="18">
         <v>200434</v>
       </c>
@@ -34604,7 +34804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="374" ht="15" spans="1:6">
+    <row r="374" ht="15.5" spans="1:6">
       <c r="A374" s="18">
         <v>200435</v>
       </c>
@@ -34624,7 +34824,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" ht="13" spans="1:4">
       <c r="A375" s="18">
         <v>200436</v>
       </c>
@@ -34638,7 +34838,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="376" ht="13.5" spans="1:4">
+    <row r="376" ht="14" spans="1:4">
       <c r="A376" s="18">
         <v>200437</v>
       </c>
@@ -34649,6 +34849,602 @@
         <v>503</v>
       </c>
       <c r="D376" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="377" ht="13" spans="1:4">
+      <c r="A377" s="18">
+        <v>200438</v>
+      </c>
+      <c r="B377" s="91" t="s">
+        <v>504</v>
+      </c>
+      <c r="C377" s="18">
+        <v>35279</v>
+      </c>
+      <c r="D377" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="378" ht="13" spans="1:4">
+      <c r="A378" s="18">
+        <v>200439</v>
+      </c>
+      <c r="B378" s="91" t="s">
+        <v>505</v>
+      </c>
+      <c r="C378" s="18">
+        <v>35280</v>
+      </c>
+      <c r="D378" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="379" ht="13" spans="1:4">
+      <c r="A379" s="18">
+        <v>200440</v>
+      </c>
+      <c r="B379" s="57" t="s">
+        <v>506</v>
+      </c>
+      <c r="C379" s="18">
+        <v>631124</v>
+      </c>
+      <c r="D379" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="380" ht="13" spans="1:4">
+      <c r="A380" s="18">
+        <v>200441</v>
+      </c>
+      <c r="B380" s="91" t="s">
+        <v>507</v>
+      </c>
+      <c r="C380" s="18">
+        <v>335060</v>
+      </c>
+      <c r="D380" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="381" s="18" customFormat="1" ht="13" spans="1:104">
+      <c r="A381" s="18">
+        <v>200442</v>
+      </c>
+      <c r="B381" s="91" t="s">
+        <v>508</v>
+      </c>
+      <c r="C381" s="80">
+        <v>351300</v>
+      </c>
+      <c r="D381" s="79">
+        <v>100</v>
+      </c>
+      <c r="E381" s="80">
+        <v>351301</v>
+      </c>
+      <c r="F381" s="79">
+        <v>100</v>
+      </c>
+      <c r="G381" s="80">
+        <v>351302</v>
+      </c>
+      <c r="H381" s="79">
+        <v>100</v>
+      </c>
+      <c r="I381" s="80">
+        <v>351303</v>
+      </c>
+      <c r="J381" s="79">
+        <v>100</v>
+      </c>
+      <c r="K381" s="80">
+        <v>351304</v>
+      </c>
+      <c r="L381" s="79">
+        <v>100</v>
+      </c>
+      <c r="M381" s="80">
+        <v>351305</v>
+      </c>
+      <c r="N381" s="79">
+        <v>100</v>
+      </c>
+      <c r="O381" s="80">
+        <v>351306</v>
+      </c>
+      <c r="P381" s="79">
+        <v>100</v>
+      </c>
+      <c r="Q381" s="80">
+        <v>351307</v>
+      </c>
+      <c r="R381" s="79">
+        <v>100</v>
+      </c>
+      <c r="S381" s="80">
+        <v>351308</v>
+      </c>
+      <c r="T381" s="79">
+        <v>100</v>
+      </c>
+      <c r="U381" s="80">
+        <v>351309</v>
+      </c>
+      <c r="V381" s="79">
+        <v>100</v>
+      </c>
+      <c r="W381" s="80">
+        <v>351310</v>
+      </c>
+      <c r="X381" s="79">
+        <v>100</v>
+      </c>
+      <c r="Y381" s="80">
+        <v>351311</v>
+      </c>
+      <c r="Z381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AA381" s="80">
+        <v>351312</v>
+      </c>
+      <c r="AB381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AC381" s="80">
+        <v>351313</v>
+      </c>
+      <c r="AD381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AE381" s="80">
+        <v>351314</v>
+      </c>
+      <c r="AF381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AG381" s="80">
+        <v>351315</v>
+      </c>
+      <c r="AH381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AI381" s="80">
+        <v>351400</v>
+      </c>
+      <c r="AJ381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AK381" s="80">
+        <v>351401</v>
+      </c>
+      <c r="AL381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AM381" s="80">
+        <v>351402</v>
+      </c>
+      <c r="AN381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AO381" s="80">
+        <v>351403</v>
+      </c>
+      <c r="AP381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AQ381" s="80">
+        <v>351404</v>
+      </c>
+      <c r="AR381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AS381" s="80">
+        <v>351405</v>
+      </c>
+      <c r="AT381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AU381" s="80">
+        <v>351406</v>
+      </c>
+      <c r="AV381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AW381" s="80">
+        <v>351407</v>
+      </c>
+      <c r="AX381" s="79">
+        <v>100</v>
+      </c>
+      <c r="AY381" s="80">
+        <v>351408</v>
+      </c>
+      <c r="AZ381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BA381" s="80">
+        <v>351409</v>
+      </c>
+      <c r="BB381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BC381" s="80">
+        <v>351410</v>
+      </c>
+      <c r="BD381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BE381" s="80">
+        <v>351411</v>
+      </c>
+      <c r="BF381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BG381" s="80">
+        <v>351412</v>
+      </c>
+      <c r="BH381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BI381" s="80">
+        <v>351413</v>
+      </c>
+      <c r="BJ381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BK381" s="80">
+        <v>351414</v>
+      </c>
+      <c r="BL381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BM381" s="80">
+        <v>351415</v>
+      </c>
+      <c r="BN381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BO381" s="80">
+        <v>351500</v>
+      </c>
+      <c r="BP381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BQ381" s="80">
+        <v>351501</v>
+      </c>
+      <c r="BR381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BS381" s="80">
+        <v>351502</v>
+      </c>
+      <c r="BT381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BU381" s="80">
+        <v>351503</v>
+      </c>
+      <c r="BV381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BW381" s="80">
+        <v>351504</v>
+      </c>
+      <c r="BX381" s="79">
+        <v>100</v>
+      </c>
+      <c r="BY381" s="80">
+        <v>351505</v>
+      </c>
+      <c r="BZ381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CA381" s="80">
+        <v>351506</v>
+      </c>
+      <c r="CB381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CC381" s="80">
+        <v>351507</v>
+      </c>
+      <c r="CD381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CE381" s="80">
+        <v>351508</v>
+      </c>
+      <c r="CF381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CG381" s="80">
+        <v>351509</v>
+      </c>
+      <c r="CH381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CI381" s="80">
+        <v>351510</v>
+      </c>
+      <c r="CJ381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CK381" s="80">
+        <v>351511</v>
+      </c>
+      <c r="CL381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CM381" s="80">
+        <v>351512</v>
+      </c>
+      <c r="CN381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CO381" s="80">
+        <v>351513</v>
+      </c>
+      <c r="CP381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CQ381" s="80">
+        <v>351514</v>
+      </c>
+      <c r="CR381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CS381" s="80">
+        <v>351515</v>
+      </c>
+      <c r="CT381" s="79">
+        <v>100</v>
+      </c>
+      <c r="CU381" s="87">
+        <v>341113</v>
+      </c>
+      <c r="CV381" s="83">
+        <v>900</v>
+      </c>
+      <c r="CW381" s="87">
+        <v>341114</v>
+      </c>
+      <c r="CX381" s="83">
+        <v>800</v>
+      </c>
+      <c r="CY381" s="87">
+        <v>341115</v>
+      </c>
+      <c r="CZ381" s="83">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="382" s="12" customFormat="1" ht="13" spans="1:36">
+      <c r="A382" s="18">
+        <v>200443</v>
+      </c>
+      <c r="B382" s="78" t="s">
+        <v>509</v>
+      </c>
+      <c r="C382" s="80">
+        <v>351500</v>
+      </c>
+      <c r="D382" s="79">
+        <v>100</v>
+      </c>
+      <c r="E382" s="80">
+        <v>351501</v>
+      </c>
+      <c r="F382" s="79">
+        <v>100</v>
+      </c>
+      <c r="G382" s="80">
+        <v>351502</v>
+      </c>
+      <c r="H382" s="79">
+        <v>100</v>
+      </c>
+      <c r="I382" s="80">
+        <v>351503</v>
+      </c>
+      <c r="J382" s="79">
+        <v>100</v>
+      </c>
+      <c r="K382" s="80">
+        <v>351504</v>
+      </c>
+      <c r="L382" s="79">
+        <v>100</v>
+      </c>
+      <c r="M382" s="80">
+        <v>351505</v>
+      </c>
+      <c r="N382" s="79">
+        <v>100</v>
+      </c>
+      <c r="O382" s="80">
+        <v>351506</v>
+      </c>
+      <c r="P382" s="79">
+        <v>100</v>
+      </c>
+      <c r="Q382" s="80">
+        <v>351507</v>
+      </c>
+      <c r="R382" s="79">
+        <v>100</v>
+      </c>
+      <c r="S382" s="80">
+        <v>351508</v>
+      </c>
+      <c r="T382" s="79">
+        <v>100</v>
+      </c>
+      <c r="U382" s="80">
+        <v>351509</v>
+      </c>
+      <c r="V382" s="79">
+        <v>100</v>
+      </c>
+      <c r="W382" s="80">
+        <v>351510</v>
+      </c>
+      <c r="X382" s="79">
+        <v>100</v>
+      </c>
+      <c r="Y382" s="80">
+        <v>351511</v>
+      </c>
+      <c r="Z382" s="79">
+        <v>100</v>
+      </c>
+      <c r="AA382" s="80">
+        <v>351512</v>
+      </c>
+      <c r="AB382" s="79">
+        <v>100</v>
+      </c>
+      <c r="AC382" s="80">
+        <v>351513</v>
+      </c>
+      <c r="AD382" s="79">
+        <v>100</v>
+      </c>
+      <c r="AE382" s="80">
+        <v>351514</v>
+      </c>
+      <c r="AF382" s="79">
+        <v>100</v>
+      </c>
+      <c r="AG382" s="80">
+        <v>351515</v>
+      </c>
+      <c r="AH382" s="79">
+        <v>100</v>
+      </c>
+      <c r="AI382" s="90" t="s">
+        <v>503</v>
+      </c>
+      <c r="AJ382" s="18">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="383" s="18" customFormat="1" ht="13" spans="1:20">
+      <c r="A383" s="18">
+        <v>200444</v>
+      </c>
+      <c r="B383" s="91" t="s">
+        <v>510</v>
+      </c>
+      <c r="C383" s="69" t="s">
+        <v>482</v>
+      </c>
+      <c r="D383" s="18">
+        <v>100</v>
+      </c>
+      <c r="E383" s="69" t="s">
+        <v>483</v>
+      </c>
+      <c r="F383" s="18">
+        <v>100</v>
+      </c>
+      <c r="G383" s="90" t="s">
+        <v>484</v>
+      </c>
+      <c r="H383" s="18">
+        <v>100</v>
+      </c>
+      <c r="I383" s="69" t="s">
+        <v>478</v>
+      </c>
+      <c r="J383" s="18">
+        <v>100</v>
+      </c>
+      <c r="K383" s="69" t="s">
+        <v>479</v>
+      </c>
+      <c r="L383" s="18">
+        <v>100</v>
+      </c>
+      <c r="M383" s="90" t="s">
+        <v>480</v>
+      </c>
+      <c r="N383" s="18">
+        <v>100</v>
+      </c>
+      <c r="O383" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="P383" s="18">
+        <v>100</v>
+      </c>
+      <c r="Q383" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="R383" s="18">
+        <v>100</v>
+      </c>
+      <c r="S383" s="90" t="s">
+        <v>476</v>
+      </c>
+      <c r="T383" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="384" ht="13" spans="1:8">
+      <c r="A384" s="18">
+        <v>200445</v>
+      </c>
+      <c r="B384" s="91" t="s">
+        <v>511</v>
+      </c>
+      <c r="C384" s="69" t="s">
+        <v>474</v>
+      </c>
+      <c r="D384" s="18">
+        <v>100</v>
+      </c>
+      <c r="E384" s="69" t="s">
+        <v>475</v>
+      </c>
+      <c r="F384" s="18">
+        <v>100</v>
+      </c>
+      <c r="G384" s="90" t="s">
+        <v>476</v>
+      </c>
+      <c r="H384" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="385" ht="13" spans="1:4">
+      <c r="A385" s="18">
+        <v>200446</v>
+      </c>
+      <c r="B385" s="91" t="s">
+        <v>512</v>
+      </c>
+      <c r="C385" s="69" t="s">
+        <v>513</v>
+      </c>
+      <c r="D385" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="386" ht="13" spans="1:4">
+      <c r="A386" s="18">
+        <v>200447</v>
+      </c>
+      <c r="B386" s="105" t="s">
+        <v>514</v>
+      </c>
+      <c r="C386" s="100">
+        <v>340434</v>
+      </c>
+      <c r="D386" s="18">
         <v>100</v>
       </c>
     </row>

--- a/Table/Table_xls/w物品类型库.xlsx
+++ b/Table/Table_xls/w物品类型库.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7070"/>
+    <workbookView windowWidth="28695" windowHeight="13065"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="585" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527">
   <si>
     <t>id</t>
   </si>
@@ -3830,12 +3830,56 @@
   </si>
   <si>
     <r>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级打造书</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>100-110</t>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51000</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>40514</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>110</t>
     </r>
     <r>
       <rPr>
@@ -3843,17 +3887,560 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>级打造书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>340523</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级打造书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51200</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>340532</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>130</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级打造书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51300</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>340541</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级打造书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51400</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>340550</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级打造书</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>51500</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>340559</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>100-120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的铁</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金币</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万</t>
+    </r>
+  </si>
+  <si>
+    <t>孩子礼包</t>
+  </si>
+  <si>
+    <t>灵饰打造书100副本</t>
+  </si>
+  <si>
+    <t>灵饰打造书110副本</t>
+  </si>
+  <si>
+    <t>灵饰打造书120副本</t>
+  </si>
+  <si>
+    <t>灵饰打造书130副本</t>
+  </si>
+  <si>
+    <t>灵饰打造书140副本</t>
+  </si>
+  <si>
+    <t>星辉石</t>
+  </si>
+  <si>
+    <t>孤儿手册</t>
+  </si>
+  <si>
+    <t>低级潜能果</t>
+  </si>
+  <si>
+    <t>稀有技能</t>
+  </si>
+  <si>
+    <t>四宝石宝箱</t>
+  </si>
+  <si>
+    <t>潜能果礼包</t>
+  </si>
+  <si>
+    <t>潜能果礼包掉落</t>
+  </si>
+  <si>
+    <t>超级技能礼包</t>
+  </si>
+  <si>
+    <t>法宝碎片</t>
+  </si>
+  <si>
+    <t>内丹</t>
+  </si>
+  <si>
+    <t>内丹礼包</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵饰元灵</t>
+    </r>
+  </si>
+  <si>
+    <t>624118</t>
+  </si>
+  <si>
+    <t>623118</t>
+  </si>
+  <si>
+    <t>611118</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>140</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵饰元灵</t>
+    </r>
+  </si>
+  <si>
+    <t>624117</t>
+  </si>
+  <si>
+    <t>623117</t>
+  </si>
+  <si>
+    <t>611117</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>130</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵饰元灵</t>
+    </r>
+  </si>
+  <si>
+    <t>624116</t>
+  </si>
+  <si>
+    <t>623116</t>
+  </si>
+  <si>
+    <t>611116</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>70-120</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>灵饰元灵</t>
+    </r>
+  </si>
+  <si>
+    <t>624110</t>
+  </si>
+  <si>
+    <t>624111</t>
+  </si>
+  <si>
+    <t>624112</t>
+  </si>
+  <si>
+    <t>624113</t>
+  </si>
+  <si>
+    <t>624114</t>
+  </si>
+  <si>
+    <t>624115</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1-5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星辉石</t>
+    </r>
+  </si>
+  <si>
+    <t>平台特殊技能</t>
+  </si>
+  <si>
+    <t>转生果</t>
+  </si>
+  <si>
+    <t>340430</t>
+  </si>
+  <si>
+    <t>渡劫丹</t>
+  </si>
+  <si>
+    <t>340431</t>
+  </si>
+  <si>
+    <t>千叶碎片</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>紫色灵饰</t>
+    </r>
+  </si>
+  <si>
+    <t>觉醒★打造符</t>
+  </si>
+  <si>
+    <t>331115</t>
+  </si>
+  <si>
+    <t>觉醒★精铁</t>
+  </si>
+  <si>
+    <t>341115</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级星辉石</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>级星辉石</t>
+    </r>
+  </si>
+  <si>
+    <t>全能潜能果</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>点声望值</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>130-150</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>打造书</t>
     </r>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>100-120</t>
+      <t>-</t>
     </r>
     <r>
       <rPr>
@@ -3861,8 +4448,11 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>打造书</t>
-    </r>
+      <t>铁</t>
+    </r>
+  </si>
+  <si>
+    <t>150打造书-铁</t>
   </si>
   <si>
     <r>
@@ -3871,7 +4461,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>110-130</t>
+      <t>130-150</t>
     </r>
     <r>
       <rPr>
@@ -3879,7 +4469,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>打造书</t>
+      <t>灵饰和铁</t>
     </r>
   </si>
   <si>
@@ -3889,7 +4479,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>120-140</t>
+      <t>150</t>
     </r>
     <r>
       <rPr>
@@ -3897,7 +4487,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>打造书</t>
+      <t>灵饰和铁</t>
     </r>
   </si>
   <si>
@@ -3907,7 +4497,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>130-140</t>
+      <t>50</t>
     </r>
     <r>
       <rPr>
@@ -3915,7 +4505,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>打造书</t>
+      <t>点荣誉</t>
     </r>
   </si>
   <si>
@@ -3925,15 +4515,7 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>130-150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打造书</t>
+      <t>335041</t>
     </r>
   </si>
   <si>
@@ -3943,437 +4525,6 @@
         <rFont val="Arial"/>
         <charset val="134"/>
       </rPr>
-      <t>100-120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>的铁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金币</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>万</t>
-    </r>
-  </si>
-  <si>
-    <t>孩子礼包</t>
-  </si>
-  <si>
-    <t>灵饰打造书100副本</t>
-  </si>
-  <si>
-    <t>灵饰打造书110副本</t>
-  </si>
-  <si>
-    <t>灵饰打造书120副本</t>
-  </si>
-  <si>
-    <t>灵饰打造书130副本</t>
-  </si>
-  <si>
-    <t>灵饰打造书140副本</t>
-  </si>
-  <si>
-    <t>星辉石</t>
-  </si>
-  <si>
-    <t>孤儿手册</t>
-  </si>
-  <si>
-    <t>低级潜能果</t>
-  </si>
-  <si>
-    <t>稀有技能</t>
-  </si>
-  <si>
-    <t>四宝石宝箱</t>
-  </si>
-  <si>
-    <t>潜能果礼包</t>
-  </si>
-  <si>
-    <t>潜能果礼包掉落</t>
-  </si>
-  <si>
-    <t>超级技能礼包</t>
-  </si>
-  <si>
-    <t>法宝碎片</t>
-  </si>
-  <si>
-    <t>内丹</t>
-  </si>
-  <si>
-    <t>内丹礼包</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵饰元灵</t>
-    </r>
-  </si>
-  <si>
-    <t>624118</t>
-  </si>
-  <si>
-    <t>623118</t>
-  </si>
-  <si>
-    <t>611118</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>140</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵饰元灵</t>
-    </r>
-  </si>
-  <si>
-    <t>624117</t>
-  </si>
-  <si>
-    <t>623117</t>
-  </si>
-  <si>
-    <t>611117</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>130</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵饰元灵</t>
-    </r>
-  </si>
-  <si>
-    <t>624116</t>
-  </si>
-  <si>
-    <t>623116</t>
-  </si>
-  <si>
-    <t>611116</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>70-120</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵饰元灵</t>
-    </r>
-  </si>
-  <si>
-    <t>624110</t>
-  </si>
-  <si>
-    <t>624111</t>
-  </si>
-  <si>
-    <t>624112</t>
-  </si>
-  <si>
-    <t>624113</t>
-  </si>
-  <si>
-    <t>624114</t>
-  </si>
-  <si>
-    <t>624115</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1-5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>星辉石</t>
-    </r>
-  </si>
-  <si>
-    <t>平台特殊技能</t>
-  </si>
-  <si>
-    <t>转生果</t>
-  </si>
-  <si>
-    <t>340430</t>
-  </si>
-  <si>
-    <t>渡劫丹</t>
-  </si>
-  <si>
-    <t>340431</t>
-  </si>
-  <si>
-    <t>千叶碎片</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>紫色灵饰</t>
-    </r>
-  </si>
-  <si>
-    <t>觉醒★打造符</t>
-  </si>
-  <si>
-    <t>331115</t>
-  </si>
-  <si>
-    <t>觉醒★精铁</t>
-  </si>
-  <si>
-    <t>341115</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>9</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级星辉石</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>级星辉石</t>
-    </r>
-  </si>
-  <si>
-    <t>全能潜能果</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点声望值</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>130-150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>打造书</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>铁</t>
-    </r>
-  </si>
-  <si>
-    <t>150打造书-铁</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>130-150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵饰和铁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>150</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>灵饰和铁</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>点荣誉</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <charset val="134"/>
-      </rPr>
-      <t>335041</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>20</t>
     </r>
     <r>
@@ -4391,10 +4542,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -4509,25 +4660,57 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4545,21 +4728,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -4568,30 +4744,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -4601,37 +4768,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4648,6 +4784,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4722,6 +4873,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="17"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4734,7 +4891,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4746,13 +4921,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4770,49 +5017,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4824,7 +5041,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4836,67 +5053,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4908,13 +5065,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4956,15 +5107,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4982,10 +5124,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -5005,6 +5145,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -5061,10 +5212,10 @@
     <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -5073,140 +5224,140 @@
     <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="43" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -5463,9 +5614,10 @@
     <xf numFmtId="49" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5473,20 +5625,21 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -5541,11 +5694,6 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="49" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -5872,133 +6020,134 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1:IV386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B383" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C350" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B387" sqref="B387"/>
+      <selection pane="bottomRight" activeCell="AI343" sqref="AI343"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="9" style="18"/>
-    <col min="2" max="2" width="20.1454545454545" style="19" customWidth="1"/>
-    <col min="3" max="4" width="11.7181818181818" style="18" customWidth="1"/>
-    <col min="5" max="6" width="13.5727272727273" style="18" customWidth="1"/>
-    <col min="7" max="10" width="11.2818181818182" style="18" customWidth="1"/>
-    <col min="11" max="15" width="9.85454545454546" style="18" customWidth="1"/>
-    <col min="16" max="16" width="11.8545454545455" style="18" customWidth="1"/>
-    <col min="17" max="17" width="9.85454545454546" style="18" customWidth="1"/>
-    <col min="18" max="18" width="11.8545454545455" style="18" customWidth="1"/>
-    <col min="19" max="19" width="9.85454545454546" style="18" customWidth="1"/>
-    <col min="20" max="20" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="2" max="2" width="20.1428571428571" style="19" customWidth="1"/>
+    <col min="3" max="4" width="11.7142857142857" style="18" customWidth="1"/>
+    <col min="5" max="6" width="13.5714285714286" style="18" customWidth="1"/>
+    <col min="7" max="10" width="11.2857142857143" style="18" customWidth="1"/>
+    <col min="11" max="15" width="9.85714285714286" style="18" customWidth="1"/>
+    <col min="16" max="16" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="17" max="17" width="9.85714285714286" style="18" customWidth="1"/>
+    <col min="18" max="18" width="11.8571428571429" style="18" customWidth="1"/>
+    <col min="19" max="19" width="9.85714285714286" style="18" customWidth="1"/>
+    <col min="20" max="20" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="21" max="21" width="9" style="18"/>
-    <col min="22" max="22" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="22" max="22" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="23" max="23" width="9" style="18"/>
-    <col min="24" max="24" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="24" max="24" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="25" max="25" width="9" style="18"/>
-    <col min="26" max="26" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="26" max="26" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="27" max="27" width="9" style="18"/>
-    <col min="28" max="28" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="28" max="28" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="29" max="29" width="9" style="18"/>
-    <col min="30" max="30" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="30" max="30" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="31" max="31" width="9" style="18"/>
-    <col min="32" max="32" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="32" max="32" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="33" max="33" width="9" style="18"/>
-    <col min="34" max="34" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="34" max="34" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="35" max="35" width="9" style="18"/>
-    <col min="36" max="36" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="36" max="36" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="37" max="37" width="9" style="18"/>
-    <col min="38" max="38" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="38" max="38" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="39" max="39" width="9" style="18"/>
-    <col min="40" max="40" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="40" max="40" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="41" max="41" width="9" style="18"/>
-    <col min="42" max="42" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="42" max="42" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="43" max="43" width="9" style="18"/>
-    <col min="44" max="44" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="44" max="44" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="45" max="45" width="9" style="18"/>
-    <col min="46" max="46" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="46" max="46" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="47" max="47" width="9" style="18"/>
-    <col min="48" max="48" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="48" max="48" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="49" max="49" width="9" style="18"/>
-    <col min="50" max="50" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="50" max="50" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="51" max="51" width="9" style="18"/>
-    <col min="52" max="52" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="52" max="52" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="53" max="53" width="9" style="18"/>
-    <col min="54" max="54" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="54" max="54" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="55" max="55" width="9" style="18"/>
-    <col min="56" max="56" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="56" max="56" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="57" max="57" width="9" style="18"/>
-    <col min="58" max="58" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="58" max="58" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="59" max="59" width="9" style="18"/>
-    <col min="60" max="60" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="60" max="60" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="61" max="61" width="9" style="18"/>
-    <col min="62" max="62" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="62" max="62" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="63" max="63" width="9" style="18"/>
-    <col min="64" max="64" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="64" max="64" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="65" max="65" width="9" style="18"/>
-    <col min="66" max="66" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="66" max="66" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="67" max="67" width="9" style="18"/>
-    <col min="68" max="68" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="68" max="68" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="69" max="69" width="9" style="18"/>
-    <col min="70" max="70" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="70" max="70" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="71" max="71" width="9" style="18"/>
-    <col min="72" max="72" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="72" max="72" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="73" max="73" width="9" style="18"/>
-    <col min="74" max="74" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="74" max="74" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="75" max="75" width="9" style="18"/>
-    <col min="76" max="76" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="76" max="76" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="77" max="77" width="9" style="18"/>
-    <col min="78" max="78" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="78" max="78" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="79" max="79" width="9" style="18"/>
-    <col min="80" max="80" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="80" max="80" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="81" max="81" width="9" style="18"/>
-    <col min="82" max="82" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="82" max="82" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="83" max="83" width="9" style="18"/>
-    <col min="84" max="84" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="84" max="84" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="85" max="85" width="9" style="18"/>
-    <col min="86" max="86" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="86" max="86" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="87" max="87" width="9" style="18"/>
-    <col min="88" max="88" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="88" max="88" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="89" max="89" width="9" style="18"/>
-    <col min="90" max="90" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="90" max="90" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="91" max="91" width="9" style="18"/>
-    <col min="92" max="92" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="92" max="92" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="93" max="93" width="9" style="18"/>
-    <col min="94" max="94" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="94" max="94" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="95" max="95" width="9" style="18"/>
-    <col min="96" max="96" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="96" max="96" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="97" max="97" width="9" style="18"/>
-    <col min="98" max="98" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="98" max="98" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="99" max="99" width="9" style="18"/>
-    <col min="100" max="100" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="100" max="100" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="101" max="101" width="9" style="18"/>
-    <col min="102" max="102" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="102" max="102" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="103" max="103" width="9" style="18"/>
-    <col min="104" max="104" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="104" max="104" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="105" max="105" width="9" style="18"/>
-    <col min="106" max="106" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="106" max="106" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="107" max="107" width="9" style="18"/>
-    <col min="108" max="108" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="108" max="108" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="109" max="109" width="9" style="18"/>
-    <col min="110" max="110" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="110" max="110" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="111" max="111" width="9" style="18"/>
-    <col min="112" max="112" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="112" max="112" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="113" max="113" width="9" style="18"/>
-    <col min="114" max="114" width="11.8545454545455" style="18" customWidth="1"/>
+    <col min="114" max="114" width="11.8571428571429" style="18" customWidth="1"/>
     <col min="115" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13" spans="1:114">
+    <row r="1" spans="1:114">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -6342,7 +6491,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13" spans="1:14">
+    <row r="2" s="1" customFormat="1" spans="1:14">
       <c r="A2" s="1">
         <v>200001</v>
       </c>
@@ -6386,7 +6535,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13" spans="1:114">
+    <row r="3" s="1" customFormat="1" spans="1:114">
       <c r="A3" s="1">
         <v>200002</v>
       </c>
@@ -6955,7 +7104,7 @@
       <c r="DH8" s="23"/>
       <c r="DJ8" s="23"/>
     </row>
-    <row r="9" s="2" customFormat="1" ht="13" spans="1:16">
+    <row r="9" s="2" customFormat="1" spans="1:16">
       <c r="A9" s="24">
         <v>200008</v>
       </c>
@@ -6975,7 +7124,7 @@
       <c r="N9" s="1"/>
       <c r="P9" s="1"/>
     </row>
-    <row r="10" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="10" s="2" customFormat="1" spans="1:114">
       <c r="A10" s="24">
         <v>200009</v>
       </c>
@@ -7218,7 +7367,7 @@
       <c r="DH11" s="24"/>
       <c r="DJ11" s="24"/>
     </row>
-    <row r="12" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="12" s="2" customFormat="1" spans="1:114">
       <c r="A12" s="23">
         <v>200011</v>
       </c>
@@ -7327,7 +7476,7 @@
       <c r="DH12" s="24"/>
       <c r="DJ12" s="24"/>
     </row>
-    <row r="13" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="13" s="2" customFormat="1" spans="1:114">
       <c r="A13" s="24">
         <v>200012</v>
       </c>
@@ -7436,7 +7585,7 @@
       <c r="DH13" s="23"/>
       <c r="DJ13" s="23"/>
     </row>
-    <row r="14" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="14" s="2" customFormat="1" spans="1:114">
       <c r="A14" s="23">
         <v>200013</v>
       </c>
@@ -7545,7 +7694,7 @@
       <c r="DH14" s="23"/>
       <c r="DJ14" s="23"/>
     </row>
-    <row r="15" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="15" s="2" customFormat="1" spans="1:114">
       <c r="A15" s="23">
         <v>200014</v>
       </c>
@@ -7814,7 +7963,7 @@
       <c r="DH15" s="23"/>
       <c r="DJ15" s="23"/>
     </row>
-    <row r="16" s="2" customFormat="1" ht="13" spans="1:84">
+    <row r="16" s="2" customFormat="1" spans="1:84">
       <c r="A16" s="24">
         <v>200015</v>
       </c>
@@ -8068,7 +8217,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" s="2" customFormat="1" ht="13" spans="1:28">
+    <row r="17" s="2" customFormat="1" spans="1:28">
       <c r="A17" s="23">
         <v>200016</v>
       </c>
@@ -8114,7 +8263,7 @@
       <c r="Z17" s="1"/>
       <c r="AB17" s="1"/>
     </row>
-    <row r="18" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="18" s="2" customFormat="1" spans="1:114">
       <c r="A18" s="24">
         <v>200017</v>
       </c>
@@ -8243,7 +8392,7 @@
       <c r="DH18" s="22"/>
       <c r="DJ18" s="22"/>
     </row>
-    <row r="19" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="19" s="2" customFormat="1" spans="1:114">
       <c r="A19" s="23">
         <v>200018</v>
       </c>
@@ -8372,7 +8521,7 @@
       <c r="DH19" s="22"/>
       <c r="DJ19" s="22"/>
     </row>
-    <row r="20" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="20" s="2" customFormat="1" spans="1:114">
       <c r="A20" s="24">
         <v>200019</v>
       </c>
@@ -8501,7 +8650,7 @@
       <c r="DH20" s="22"/>
       <c r="DJ20" s="22"/>
     </row>
-    <row r="21" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="21" s="2" customFormat="1" spans="1:114">
       <c r="A21" s="23">
         <v>200020</v>
       </c>
@@ -8630,7 +8779,7 @@
       <c r="DH21" s="22"/>
       <c r="DJ21" s="22"/>
     </row>
-    <row r="22" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="22" s="2" customFormat="1" spans="1:114">
       <c r="A22" s="24">
         <v>200021</v>
       </c>
@@ -8759,7 +8908,7 @@
       <c r="DH22" s="22"/>
       <c r="DJ22" s="22"/>
     </row>
-    <row r="23" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="23" s="2" customFormat="1" spans="1:114">
       <c r="A23" s="23">
         <v>200022</v>
       </c>
@@ -8888,7 +9037,7 @@
       <c r="DH23" s="22"/>
       <c r="DJ23" s="22"/>
     </row>
-    <row r="24" s="2" customFormat="1" ht="13" spans="1:16">
+    <row r="24" s="2" customFormat="1" spans="1:16">
       <c r="A24" s="24">
         <v>200023</v>
       </c>
@@ -8923,7 +9072,7 @@
       <c r="N24" s="1"/>
       <c r="P24" s="1"/>
     </row>
-    <row r="25" s="2" customFormat="1" ht="13" spans="1:16">
+    <row r="25" s="2" customFormat="1" spans="1:16">
       <c r="A25" s="23">
         <v>200024</v>
       </c>
@@ -8958,7 +9107,7 @@
       <c r="N25" s="1"/>
       <c r="P25" s="1"/>
     </row>
-    <row r="26" s="2" customFormat="1" ht="13" spans="1:54">
+    <row r="26" s="2" customFormat="1" spans="1:54">
       <c r="A26" s="24">
         <v>200025</v>
       </c>
@@ -9122,7 +9271,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="27" s="2" customFormat="1" ht="13" spans="1:54">
+    <row r="27" s="2" customFormat="1" spans="1:54">
       <c r="A27" s="23">
         <v>200026</v>
       </c>
@@ -9286,7 +9435,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="28" s="1" customFormat="1" spans="1:54">
       <c r="A28" s="24">
         <v>200027</v>
       </c>
@@ -9450,7 +9599,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" s="1" customFormat="1" ht="13" spans="1:80">
+    <row r="29" s="1" customFormat="1" spans="1:80">
       <c r="A29" s="23">
         <v>200028</v>
       </c>
@@ -9692,7 +9841,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" s="1" customFormat="1" ht="13" spans="1:80">
+    <row r="30" s="1" customFormat="1" spans="1:80">
       <c r="A30" s="24">
         <v>200029</v>
       </c>
@@ -9934,7 +10083,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="31" s="1" customFormat="1" spans="1:54">
       <c r="A31" s="23">
         <v>200030</v>
       </c>
@@ -10098,7 +10247,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="32" s="1" customFormat="1" spans="1:54">
       <c r="A32" s="24">
         <v>200031</v>
       </c>
@@ -10262,7 +10411,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="33" s="1" customFormat="1" spans="1:10">
       <c r="A33" s="23">
         <v>200032</v>
       </c>
@@ -10284,7 +10433,7 @@
       <c r="I33" s="22"/>
       <c r="J33" s="22"/>
     </row>
-    <row r="34" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="34" s="1" customFormat="1" spans="1:10">
       <c r="A34" s="24">
         <v>200033</v>
       </c>
@@ -10312,7 +10461,7 @@
       <c r="I34" s="22"/>
       <c r="J34" s="22"/>
     </row>
-    <row r="35" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="35" s="1" customFormat="1" spans="1:54">
       <c r="A35" s="23">
         <v>200034</v>
       </c>
@@ -10476,7 +10625,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="36" s="1" customFormat="1" spans="1:54">
       <c r="A36" s="24">
         <v>200035</v>
       </c>
@@ -10640,7 +10789,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="37" s="1" customFormat="1" spans="1:54">
       <c r="A37" s="23">
         <v>200036</v>
       </c>
@@ -10804,7 +10953,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="38" s="1" customFormat="1" spans="1:10">
       <c r="A38" s="24">
         <v>200037</v>
       </c>
@@ -10832,7 +10981,7 @@
       <c r="I38" s="22"/>
       <c r="J38" s="22"/>
     </row>
-    <row r="39" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="39" s="1" customFormat="1" spans="1:10">
       <c r="A39" s="23">
         <v>200038</v>
       </c>
@@ -10854,7 +11003,7 @@
       <c r="I39" s="22"/>
       <c r="J39" s="22"/>
     </row>
-    <row r="40" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="40" s="1" customFormat="1" spans="1:10">
       <c r="A40" s="24">
         <v>200039</v>
       </c>
@@ -10882,7 +11031,7 @@
       <c r="I40" s="22"/>
       <c r="J40" s="22"/>
     </row>
-    <row r="41" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="41" s="1" customFormat="1" spans="1:10">
       <c r="A41" s="23">
         <v>200040</v>
       </c>
@@ -10910,7 +11059,7 @@
       <c r="I41" s="22"/>
       <c r="J41" s="22"/>
     </row>
-    <row r="42" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="42" s="1" customFormat="1" spans="1:10">
       <c r="A42" s="24">
         <v>200041</v>
       </c>
@@ -10932,7 +11081,7 @@
       <c r="I42" s="22"/>
       <c r="J42" s="22"/>
     </row>
-    <row r="43" s="1" customFormat="1" ht="13" spans="1:80">
+    <row r="43" s="1" customFormat="1" spans="1:80">
       <c r="A43" s="23">
         <v>200042</v>
       </c>
@@ -11174,7 +11323,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="44" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="44" s="1" customFormat="1" spans="1:54">
       <c r="A44" s="24">
         <v>200043</v>
       </c>
@@ -11338,7 +11487,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="45" s="1" customFormat="1" ht="13" spans="1:80">
+    <row r="45" s="1" customFormat="1" spans="1:80">
       <c r="A45" s="23">
         <v>200044</v>
       </c>
@@ -11580,7 +11729,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="46" s="1" customFormat="1" ht="13" spans="1:80">
+    <row r="46" s="1" customFormat="1" spans="1:80">
       <c r="A46" s="24">
         <v>200045</v>
       </c>
@@ -11822,7 +11971,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="47" s="1" customFormat="1" ht="13" spans="1:54">
+    <row r="47" s="1" customFormat="1" spans="1:54">
       <c r="A47" s="23">
         <v>200046</v>
       </c>
@@ -11986,7 +12135,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" s="1" customFormat="1" ht="13" spans="1:106">
+    <row r="48" s="1" customFormat="1" spans="1:106">
       <c r="A48" s="24">
         <v>200047</v>
       </c>
@@ -12306,7 +12455,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="49" s="1" customFormat="1" ht="13" spans="1:106">
+    <row r="49" s="1" customFormat="1" spans="1:106">
       <c r="A49" s="23">
         <v>200048</v>
       </c>
@@ -12626,7 +12775,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="50" s="1" customFormat="1" ht="13" spans="1:22">
+    <row r="50" s="1" customFormat="1" spans="1:22">
       <c r="A50" s="24">
         <v>200049</v>
       </c>
@@ -12694,7 +12843,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="51" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="51" s="1" customFormat="1" spans="1:10">
       <c r="A51" s="23">
         <v>200050</v>
       </c>
@@ -12716,7 +12865,7 @@
       <c r="I51" s="22"/>
       <c r="J51" s="22"/>
     </row>
-    <row r="52" s="1" customFormat="1" ht="13" spans="1:10">
+    <row r="52" s="1" customFormat="1" spans="1:10">
       <c r="A52" s="24">
         <v>200051</v>
       </c>
@@ -12748,7 +12897,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" s="2" customFormat="1" ht="13" spans="1:114">
+    <row r="53" s="2" customFormat="1" spans="1:114">
       <c r="A53" s="23">
         <v>200052</v>
       </c>
@@ -12862,7 +13011,7 @@
       <c r="DH53" s="24"/>
       <c r="DJ53" s="24"/>
     </row>
-    <row r="54" s="1" customFormat="1" ht="13" spans="1:16">
+    <row r="54" s="1" customFormat="1" spans="1:16">
       <c r="A54" s="23">
         <v>200053</v>
       </c>
@@ -12912,7 +13061,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="55" s="1" customFormat="1" ht="13" spans="1:44">
+    <row r="55" s="1" customFormat="1" spans="1:44">
       <c r="A55" s="23">
         <v>200054</v>
       </c>
@@ -13046,7 +13195,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" s="1" customFormat="1" ht="13" spans="1:114">
+    <row r="56" s="1" customFormat="1" spans="1:114">
       <c r="A56" s="23">
         <v>200055</v>
       </c>
@@ -13390,7 +13539,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="57" s="1" customFormat="1" ht="13" spans="1:14">
+    <row r="57" s="1" customFormat="1" spans="1:14">
       <c r="A57" s="23">
         <v>200056</v>
       </c>
@@ -13434,7 +13583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" s="1" customFormat="1" ht="13" spans="1:12">
+    <row r="58" s="1" customFormat="1" spans="1:12">
       <c r="A58" s="23">
         <v>200057</v>
       </c>
@@ -13472,7 +13621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" s="1" customFormat="1" ht="13" spans="1:12">
+    <row r="59" s="1" customFormat="1" spans="1:12">
       <c r="A59" s="23">
         <v>200058</v>
       </c>
@@ -13510,7 +13659,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" s="1" customFormat="1" ht="13" spans="1:16">
+    <row r="60" s="1" customFormat="1" spans="1:16">
       <c r="A60" s="23">
         <v>200059</v>
       </c>
@@ -13560,7 +13709,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" s="1" customFormat="1" ht="13" spans="1:16">
+    <row r="61" s="1" customFormat="1" spans="1:16">
       <c r="A61" s="23">
         <v>200060</v>
       </c>
@@ -13610,7 +13759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="62" s="1" customFormat="1" ht="13" spans="1:108">
+    <row r="62" s="1" customFormat="1" spans="1:108">
       <c r="A62" s="23">
         <v>220000</v>
       </c>
@@ -13888,7 +14037,7 @@
       <c r="DC62" s="28"/>
       <c r="DD62" s="28"/>
     </row>
-    <row r="63" s="1" customFormat="1" ht="13" spans="1:14">
+    <row r="63" s="1" customFormat="1" spans="1:14">
       <c r="A63" s="23">
         <v>220001</v>
       </c>
@@ -13924,7 +14073,7 @@
       <c r="M63" s="28"/>
       <c r="N63" s="28"/>
     </row>
-    <row r="64" s="3" customFormat="1" ht="13" spans="1:6">
+    <row r="64" s="3" customFormat="1" spans="1:6">
       <c r="A64" s="29">
         <v>200061</v>
       </c>
@@ -13944,7 +14093,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="65" s="3" customFormat="1" ht="13" spans="1:6">
+    <row r="65" s="3" customFormat="1" ht="12" spans="1:6">
       <c r="A65" s="29">
         <v>200062</v>
       </c>
@@ -13964,7 +14113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="66" s="3" customFormat="1" ht="13" spans="1:10">
+    <row r="66" s="3" customFormat="1" ht="12" spans="1:10">
       <c r="A66" s="29">
         <v>200063</v>
       </c>
@@ -13996,7 +14145,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" s="3" customFormat="1" ht="13" spans="1:10">
+    <row r="67" s="3" customFormat="1" ht="12" spans="1:10">
       <c r="A67" s="29">
         <v>200064</v>
       </c>
@@ -14028,7 +14177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="68" s="3" customFormat="1" ht="13" spans="1:12">
+    <row r="68" s="3" customFormat="1" ht="12" spans="1:12">
       <c r="A68" s="29">
         <v>200065</v>
       </c>
@@ -14066,7 +14215,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="69" s="3" customFormat="1" ht="13" spans="1:6">
+    <row r="69" s="3" customFormat="1" ht="12" spans="1:6">
       <c r="A69" s="29">
         <v>200066</v>
       </c>
@@ -14086,7 +14235,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="70" s="3" customFormat="1" ht="13" spans="1:10">
+    <row r="70" s="3" customFormat="1" ht="12" spans="1:10">
       <c r="A70" s="29">
         <v>200067</v>
       </c>
@@ -14118,7 +14267,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="71" s="3" customFormat="1" ht="13" spans="1:20">
+    <row r="71" s="3" customFormat="1" ht="12" spans="1:20">
       <c r="A71" s="29">
         <v>200068</v>
       </c>
@@ -14180,7 +14329,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="72" s="3" customFormat="1" ht="13" spans="1:20">
+    <row r="72" s="3" customFormat="1" ht="12" spans="1:20">
       <c r="A72" s="29">
         <v>200069</v>
       </c>
@@ -14242,7 +14391,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="73" s="3" customFormat="1" ht="13" spans="1:20">
+    <row r="73" s="3" customFormat="1" ht="12" spans="1:20">
       <c r="A73" s="29">
         <v>200070</v>
       </c>
@@ -14304,7 +14453,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" ht="13" spans="1:84">
+    <row r="74" s="3" customFormat="1" ht="12" spans="1:84">
       <c r="A74" s="29">
         <v>200071</v>
       </c>
@@ -14558,7 +14707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="75" s="4" customFormat="1" ht="13" spans="1:84">
+    <row r="75" s="4" customFormat="1" ht="12" spans="1:84">
       <c r="A75" s="35">
         <v>200072</v>
       </c>
@@ -14812,7 +14961,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="76" s="3" customFormat="1" ht="13" spans="1:22">
+    <row r="76" s="3" customFormat="1" ht="12" spans="1:22">
       <c r="A76" s="29">
         <v>200073</v>
       </c>
@@ -14880,7 +15029,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="77" s="3" customFormat="1" ht="13" spans="1:6">
+    <row r="77" s="3" customFormat="1" ht="12" spans="1:6">
       <c r="A77" s="29">
         <v>200074</v>
       </c>
@@ -14900,7 +15049,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="78" s="3" customFormat="1" ht="13" spans="1:8">
+    <row r="78" s="3" customFormat="1" ht="12" spans="1:8">
       <c r="A78" s="29">
         <v>200075</v>
       </c>
@@ -14926,7 +15075,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="79" s="3" customFormat="1" ht="13" spans="1:8">
+    <row r="79" s="3" customFormat="1" ht="12" spans="1:8">
       <c r="A79" s="29">
         <v>200076</v>
       </c>
@@ -14952,7 +15101,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="80" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="80" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A80" s="29">
         <v>200077</v>
       </c>
@@ -15032,7 +15181,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="81" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="81" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A81" s="29">
         <v>200078</v>
       </c>
@@ -15112,7 +15261,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="82" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="82" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A82" s="29">
         <v>200079</v>
       </c>
@@ -15192,7 +15341,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="83" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="83" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A83" s="29">
         <v>200080</v>
       </c>
@@ -15272,7 +15421,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="84" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="84" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A84" s="29">
         <v>200081</v>
       </c>
@@ -15352,7 +15501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="85" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="85" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A85" s="29">
         <v>200082</v>
       </c>
@@ -15432,7 +15581,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="86" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="86" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A86" s="29">
         <v>200083</v>
       </c>
@@ -15512,7 +15661,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="87" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="87" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A87" s="29">
         <v>200084</v>
       </c>
@@ -15592,7 +15741,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="88" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="88" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A88" s="29">
         <v>200085</v>
       </c>
@@ -15672,7 +15821,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="89" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="89" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A89" s="29">
         <v>200086</v>
       </c>
@@ -15752,7 +15901,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="90" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="90" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A90" s="29">
         <v>200087</v>
       </c>
@@ -15832,7 +15981,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="91" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="91" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A91" s="29">
         <v>200088</v>
       </c>
@@ -15912,7 +16061,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="92" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="92" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A92" s="29">
         <v>200089</v>
       </c>
@@ -15992,7 +16141,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="93" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="93" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A93" s="29">
         <v>200090</v>
       </c>
@@ -16072,7 +16221,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="94" s="3" customFormat="1" ht="13" spans="1:26">
+    <row r="94" s="3" customFormat="1" ht="12" spans="1:26">
       <c r="A94" s="29">
         <v>200091</v>
       </c>
@@ -22176,7 +22325,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="170" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="170" s="5" customFormat="1" spans="1:20">
       <c r="A170" s="44">
         <v>200167</v>
       </c>
@@ -22195,7 +22344,7 @@
       <c r="Q170" s="50"/>
       <c r="T170" s="51"/>
     </row>
-    <row r="171" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="171" s="5" customFormat="1" spans="1:20">
       <c r="A171" s="44">
         <v>200168</v>
       </c>
@@ -22214,7 +22363,7 @@
       <c r="Q171" s="50"/>
       <c r="T171" s="51"/>
     </row>
-    <row r="172" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="172" s="5" customFormat="1" spans="1:20">
       <c r="A172" s="44">
         <v>200169</v>
       </c>
@@ -22233,7 +22382,7 @@
       <c r="Q172" s="50"/>
       <c r="T172" s="51"/>
     </row>
-    <row r="173" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="173" s="5" customFormat="1" spans="1:20">
       <c r="A173" s="44">
         <v>200170</v>
       </c>
@@ -22252,7 +22401,7 @@
       <c r="Q173" s="50"/>
       <c r="T173" s="51"/>
     </row>
-    <row r="174" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="174" s="5" customFormat="1" spans="1:20">
       <c r="A174" s="44">
         <v>200171</v>
       </c>
@@ -22271,7 +22420,7 @@
       <c r="Q174" s="50"/>
       <c r="T174" s="51"/>
     </row>
-    <row r="175" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="175" s="5" customFormat="1" spans="1:20">
       <c r="A175" s="44">
         <v>200172</v>
       </c>
@@ -22290,7 +22439,7 @@
       <c r="Q175" s="50"/>
       <c r="T175" s="51"/>
     </row>
-    <row r="176" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="176" s="5" customFormat="1" spans="1:20">
       <c r="A176" s="44">
         <v>200173</v>
       </c>
@@ -22309,7 +22458,7 @@
       <c r="Q176" s="50"/>
       <c r="T176" s="51"/>
     </row>
-    <row r="177" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="177" s="5" customFormat="1" spans="1:20">
       <c r="A177" s="44">
         <v>200174</v>
       </c>
@@ -22328,7 +22477,7 @@
       <c r="Q177" s="50"/>
       <c r="T177" s="51"/>
     </row>
-    <row r="178" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="178" s="5" customFormat="1" spans="1:20">
       <c r="A178" s="44">
         <v>200175</v>
       </c>
@@ -22347,7 +22496,7 @@
       <c r="Q178" s="50"/>
       <c r="T178" s="51"/>
     </row>
-    <row r="179" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="179" s="5" customFormat="1" spans="1:20">
       <c r="A179" s="44">
         <v>200176</v>
       </c>
@@ -22366,7 +22515,7 @@
       <c r="Q179" s="50"/>
       <c r="T179" s="51"/>
     </row>
-    <row r="180" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="180" s="5" customFormat="1" spans="1:20">
       <c r="A180" s="44">
         <v>200177</v>
       </c>
@@ -22385,7 +22534,7 @@
       <c r="Q180" s="50"/>
       <c r="T180" s="51"/>
     </row>
-    <row r="181" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="181" s="5" customFormat="1" spans="1:24">
       <c r="A181" s="44">
         <v>200178</v>
       </c>
@@ -22405,7 +22554,7 @@
       <c r="T181" s="51"/>
       <c r="X181" s="50"/>
     </row>
-    <row r="182" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="182" s="5" customFormat="1" spans="1:24">
       <c r="A182" s="44">
         <v>200179</v>
       </c>
@@ -22425,7 +22574,7 @@
       <c r="T182" s="51"/>
       <c r="X182" s="50"/>
     </row>
-    <row r="183" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="183" s="5" customFormat="1" spans="1:24">
       <c r="A183" s="44">
         <v>200180</v>
       </c>
@@ -22445,7 +22594,7 @@
       <c r="T183" s="51"/>
       <c r="X183" s="50"/>
     </row>
-    <row r="184" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="184" s="5" customFormat="1" spans="1:24">
       <c r="A184" s="44">
         <v>200181</v>
       </c>
@@ -22465,7 +22614,7 @@
       <c r="T184" s="51"/>
       <c r="X184" s="50"/>
     </row>
-    <row r="185" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="185" s="5" customFormat="1" spans="1:24">
       <c r="A185" s="44">
         <v>200182</v>
       </c>
@@ -22485,7 +22634,7 @@
       <c r="T185" s="51"/>
       <c r="X185" s="50"/>
     </row>
-    <row r="186" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="186" s="5" customFormat="1" spans="1:24">
       <c r="A186" s="44">
         <v>200183</v>
       </c>
@@ -22505,7 +22654,7 @@
       <c r="T186" s="51"/>
       <c r="X186" s="50"/>
     </row>
-    <row r="187" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="187" s="5" customFormat="1" spans="1:24">
       <c r="A187" s="44">
         <v>200184</v>
       </c>
@@ -22525,7 +22674,7 @@
       <c r="T187" s="51"/>
       <c r="X187" s="50"/>
     </row>
-    <row r="188" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="188" s="5" customFormat="1" spans="1:24">
       <c r="A188" s="44">
         <v>200185</v>
       </c>
@@ -22545,7 +22694,7 @@
       <c r="T188" s="51"/>
       <c r="X188" s="50"/>
     </row>
-    <row r="189" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="189" s="5" customFormat="1" spans="1:24">
       <c r="A189" s="44">
         <v>200186</v>
       </c>
@@ -22565,7 +22714,7 @@
       <c r="T189" s="51"/>
       <c r="X189" s="50"/>
     </row>
-    <row r="190" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="190" s="5" customFormat="1" spans="1:24">
       <c r="A190" s="44">
         <v>200187</v>
       </c>
@@ -22585,7 +22734,7 @@
       <c r="T190" s="51"/>
       <c r="X190" s="50"/>
     </row>
-    <row r="191" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="191" s="5" customFormat="1" spans="1:24">
       <c r="A191" s="44">
         <v>200188</v>
       </c>
@@ -22605,7 +22754,7 @@
       <c r="T191" s="51"/>
       <c r="X191" s="50"/>
     </row>
-    <row r="192" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="192" s="5" customFormat="1" spans="1:24">
       <c r="A192" s="44">
         <v>200189</v>
       </c>
@@ -22625,7 +22774,7 @@
       <c r="T192" s="51"/>
       <c r="X192" s="50"/>
     </row>
-    <row r="193" s="5" customFormat="1" ht="13" spans="1:24">
+    <row r="193" s="5" customFormat="1" spans="1:24">
       <c r="A193" s="44">
         <v>200190</v>
       </c>
@@ -22645,7 +22794,7 @@
       <c r="T193" s="51"/>
       <c r="X193" s="50"/>
     </row>
-    <row r="194" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="194" s="5" customFormat="1" spans="1:20">
       <c r="A194" s="44">
         <v>200191</v>
       </c>
@@ -22664,7 +22813,7 @@
       <c r="Q194" s="51"/>
       <c r="T194" s="51"/>
     </row>
-    <row r="195" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="195" s="5" customFormat="1" spans="1:20">
       <c r="A195" s="44">
         <v>200192</v>
       </c>
@@ -22683,7 +22832,7 @@
       <c r="Q195" s="51"/>
       <c r="T195" s="51"/>
     </row>
-    <row r="196" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="196" s="5" customFormat="1" spans="1:20">
       <c r="A196" s="44">
         <v>200193</v>
       </c>
@@ -22702,7 +22851,7 @@
       <c r="Q196" s="51"/>
       <c r="T196" s="51"/>
     </row>
-    <row r="197" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="197" s="5" customFormat="1" spans="1:20">
       <c r="A197" s="44">
         <v>200194</v>
       </c>
@@ -22721,7 +22870,7 @@
       <c r="Q197" s="51"/>
       <c r="T197" s="51"/>
     </row>
-    <row r="198" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="198" s="5" customFormat="1" spans="1:20">
       <c r="A198" s="44">
         <v>200195</v>
       </c>
@@ -22740,7 +22889,7 @@
       <c r="Q198" s="51"/>
       <c r="T198" s="51"/>
     </row>
-    <row r="199" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="199" s="5" customFormat="1" spans="1:20">
       <c r="A199" s="44">
         <v>200196</v>
       </c>
@@ -22759,7 +22908,7 @@
       <c r="Q199" s="51"/>
       <c r="T199" s="51"/>
     </row>
-    <row r="200" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="200" s="5" customFormat="1" spans="1:20">
       <c r="A200" s="44">
         <v>200197</v>
       </c>
@@ -22778,7 +22927,7 @@
       <c r="Q200" s="51"/>
       <c r="T200" s="51"/>
     </row>
-    <row r="201" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="201" s="5" customFormat="1" spans="1:20">
       <c r="A201" s="44">
         <v>200198</v>
       </c>
@@ -22797,7 +22946,7 @@
       <c r="Q201" s="51"/>
       <c r="T201" s="51"/>
     </row>
-    <row r="202" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="202" s="5" customFormat="1" spans="1:20">
       <c r="A202" s="44">
         <v>200199</v>
       </c>
@@ -22816,7 +22965,7 @@
       <c r="Q202" s="51"/>
       <c r="T202" s="51"/>
     </row>
-    <row r="203" s="5" customFormat="1" ht="13" spans="1:20">
+    <row r="203" s="5" customFormat="1" spans="1:20">
       <c r="A203" s="44">
         <v>200200</v>
       </c>
@@ -22835,7 +22984,7 @@
       <c r="Q203" s="51"/>
       <c r="T203" s="51"/>
     </row>
-    <row r="204" s="7" customFormat="1" ht="13" spans="1:84">
+    <row r="204" s="7" customFormat="1" spans="1:84">
       <c r="A204" s="53">
         <v>200202</v>
       </c>
@@ -23089,7 +23238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="205" s="7" customFormat="1" ht="13" spans="1:84">
+    <row r="205" s="7" customFormat="1" spans="1:84">
       <c r="A205" s="53">
         <v>200203</v>
       </c>
@@ -23343,7 +23492,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="206" s="7" customFormat="1" ht="13" spans="1:12">
+    <row r="206" s="7" customFormat="1" spans="1:12">
       <c r="A206" s="53">
         <v>200204</v>
       </c>
@@ -23381,7 +23530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="207" s="8" customFormat="1" ht="15" spans="1:256">
+    <row r="207" s="8" customFormat="1" ht="14.25" spans="1:256">
       <c r="A207" s="56">
         <v>200205</v>
       </c>
@@ -23651,7 +23800,7 @@
       <c r="IU207" s="20"/>
       <c r="IV207" s="20"/>
     </row>
-    <row r="208" s="8" customFormat="1" ht="15" spans="1:256">
+    <row r="208" s="8" customFormat="1" ht="14.25" spans="1:256">
       <c r="A208" s="56">
         <v>200206</v>
       </c>
@@ -23937,7 +24086,7 @@
       <c r="IU208" s="20"/>
       <c r="IV208" s="20"/>
     </row>
-    <row r="209" ht="13" spans="1:4">
+    <row r="209" spans="1:4">
       <c r="A209" s="56">
         <v>200207</v>
       </c>
@@ -24103,7 +24252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" ht="13" spans="1:4">
+    <row r="211" spans="1:4">
       <c r="A211" s="56">
         <v>200209</v>
       </c>
@@ -24117,7 +24266,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="212" ht="14" spans="1:8">
+    <row r="212" ht="13.5" spans="1:8">
       <c r="A212" s="56">
         <v>200210</v>
       </c>
@@ -24134,7 +24283,7 @@
       <c r="G212" s="62"/>
       <c r="H212" s="63"/>
     </row>
-    <row r="213" ht="14" spans="1:8">
+    <row r="213" ht="13.5" spans="1:8">
       <c r="A213" s="56">
         <v>200211</v>
       </c>
@@ -24151,7 +24300,7 @@
       <c r="G213" s="62"/>
       <c r="H213" s="63"/>
     </row>
-    <row r="214" ht="14" spans="1:8">
+    <row r="214" ht="13.5" spans="1:8">
       <c r="A214" s="56">
         <v>200212</v>
       </c>
@@ -24173,7 +24322,7 @@
       <c r="G214" s="62"/>
       <c r="H214" s="63"/>
     </row>
-    <row r="215" ht="14" spans="1:8">
+    <row r="215" ht="13.5" spans="1:8">
       <c r="A215" s="56">
         <v>200213</v>
       </c>
@@ -24190,7 +24339,7 @@
       <c r="G215" s="62"/>
       <c r="H215" s="63"/>
     </row>
-    <row r="216" ht="14" spans="1:8">
+    <row r="216" ht="13.5" spans="1:8">
       <c r="A216" s="56">
         <v>200214</v>
       </c>
@@ -24207,7 +24356,7 @@
       <c r="G216" s="62"/>
       <c r="H216" s="63"/>
     </row>
-    <row r="217" ht="14" spans="1:8">
+    <row r="217" ht="13.5" spans="1:8">
       <c r="A217" s="56">
         <v>200215</v>
       </c>
@@ -24224,7 +24373,7 @@
       <c r="G217" s="62"/>
       <c r="H217" s="63"/>
     </row>
-    <row r="218" s="3" customFormat="1" ht="13" spans="1:10">
+    <row r="218" s="3" customFormat="1" spans="1:10">
       <c r="A218" s="56">
         <v>200216</v>
       </c>
@@ -24256,7 +24405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="219" ht="13" spans="1:10">
+    <row r="219" spans="1:10">
       <c r="A219" s="56">
         <v>200217</v>
       </c>
@@ -24288,7 +24437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="220" ht="13" spans="1:4">
+    <row r="220" spans="1:4">
       <c r="A220" s="56">
         <v>200218</v>
       </c>
@@ -24302,7 +24451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="221" ht="13" spans="1:4">
+    <row r="221" spans="1:4">
       <c r="A221" s="56">
         <v>200219</v>
       </c>
@@ -24316,7 +24465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="222" s="10" customFormat="1" ht="13" spans="1:16">
+    <row r="222" s="10" customFormat="1" spans="1:16">
       <c r="A222" s="56">
         <v>200220</v>
       </c>
@@ -24366,7 +24515,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="223" s="10" customFormat="1" ht="13" spans="1:16">
+    <row r="223" s="10" customFormat="1" spans="1:16">
       <c r="A223" s="56">
         <v>200221</v>
       </c>
@@ -24416,7 +24565,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="224" s="10" customFormat="1" ht="13" spans="1:16">
+    <row r="224" s="10" customFormat="1" spans="1:16">
       <c r="A224" s="56">
         <v>200222</v>
       </c>
@@ -24466,7 +24615,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="225" s="3" customFormat="1" ht="13" spans="1:84">
+    <row r="225" s="3" customFormat="1" spans="1:84">
       <c r="A225" s="56">
         <v>200223</v>
       </c>
@@ -24720,7 +24869,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="226" s="3" customFormat="1" ht="13" spans="1:12">
+    <row r="226" s="3" customFormat="1" ht="12" spans="1:12">
       <c r="A226" s="29">
         <v>200230</v>
       </c>
@@ -24758,7 +24907,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" s="11" customFormat="1" ht="13" spans="1:4">
+    <row r="227" s="11" customFormat="1" spans="1:4">
       <c r="A227" s="67">
         <v>200231</v>
       </c>
@@ -24772,7 +24921,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="228" s="11" customFormat="1" ht="13" spans="1:4">
+    <row r="228" s="11" customFormat="1" spans="1:4">
       <c r="A228" s="67">
         <v>200232</v>
       </c>
@@ -24786,7 +24935,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="229" s="11" customFormat="1" ht="13" spans="1:10">
+    <row r="229" s="11" customFormat="1" spans="1:10">
       <c r="A229" s="67">
         <v>200233</v>
       </c>
@@ -24818,7 +24967,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="230" ht="13" spans="1:4">
+    <row r="230" spans="1:4">
       <c r="A230" s="67">
         <v>200234</v>
       </c>
@@ -24832,7 +24981,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="231" ht="13" spans="1:4">
+    <row r="231" spans="1:4">
       <c r="A231" s="67">
         <v>200235</v>
       </c>
@@ -24846,7 +24995,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="232" ht="13" spans="1:4">
+    <row r="232" spans="1:4">
       <c r="A232" s="67">
         <v>200236</v>
       </c>
@@ -24860,7 +25009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="233" ht="13" spans="1:4">
+    <row r="233" spans="1:4">
       <c r="A233" s="67">
         <v>200237</v>
       </c>
@@ -24874,7 +25023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="234" ht="13" spans="1:4">
+    <row r="234" spans="1:4">
       <c r="A234" s="67">
         <v>200238</v>
       </c>
@@ -24888,7 +25037,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="235" ht="13" spans="1:14">
+    <row r="235" spans="1:14">
       <c r="A235" s="67">
         <v>200239</v>
       </c>
@@ -24903,7 +25052,7 @@
       </c>
       <c r="N235" s="73"/>
     </row>
-    <row r="236" ht="13" spans="1:14">
+    <row r="236" spans="1:14">
       <c r="A236" s="67">
         <v>200240</v>
       </c>
@@ -24918,7 +25067,7 @@
       </c>
       <c r="N236" s="73"/>
     </row>
-    <row r="237" ht="13" spans="1:14">
+    <row r="237" spans="1:14">
       <c r="A237" s="67">
         <v>200241</v>
       </c>
@@ -24933,7 +25082,7 @@
       </c>
       <c r="N237" s="73"/>
     </row>
-    <row r="238" ht="13" spans="1:14">
+    <row r="238" spans="1:14">
       <c r="A238" s="67">
         <v>200242</v>
       </c>
@@ -24948,7 +25097,7 @@
       </c>
       <c r="N238" s="73"/>
     </row>
-    <row r="239" ht="13" spans="1:14">
+    <row r="239" spans="1:14">
       <c r="A239" s="67">
         <v>200243</v>
       </c>
@@ -24963,7 +25112,7 @@
       </c>
       <c r="N239" s="73"/>
     </row>
-    <row r="240" ht="13" spans="1:14">
+    <row r="240" spans="1:14">
       <c r="A240" s="67">
         <v>200244</v>
       </c>
@@ -24978,7 +25127,7 @@
       </c>
       <c r="N240" s="73"/>
     </row>
-    <row r="241" ht="13" spans="1:14">
+    <row r="241" spans="1:14">
       <c r="A241" s="67">
         <v>200245</v>
       </c>
@@ -24993,7 +25142,7 @@
       </c>
       <c r="N241" s="73"/>
     </row>
-    <row r="242" ht="13" spans="1:14">
+    <row r="242" spans="1:14">
       <c r="A242" s="67">
         <v>200246</v>
       </c>
@@ -25008,7 +25157,7 @@
       </c>
       <c r="N242" s="73"/>
     </row>
-    <row r="243" ht="13" spans="1:14">
+    <row r="243" spans="1:14">
       <c r="A243" s="67">
         <v>200247</v>
       </c>
@@ -25023,7 +25172,7 @@
       </c>
       <c r="N243" s="73"/>
     </row>
-    <row r="244" ht="13" spans="1:14">
+    <row r="244" spans="1:14">
       <c r="A244" s="67">
         <v>200248</v>
       </c>
@@ -25038,7 +25187,7 @@
       </c>
       <c r="N244" s="73"/>
     </row>
-    <row r="245" ht="13" spans="1:14">
+    <row r="245" spans="1:14">
       <c r="A245" s="67">
         <v>200249</v>
       </c>
@@ -27129,7 +27278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="267" ht="13" spans="1:22">
+    <row r="267" spans="1:22">
       <c r="A267" s="18">
         <v>200321</v>
       </c>
@@ -27192,7 +27341,7 @@
       </c>
       <c r="V267" s="72"/>
     </row>
-    <row r="268" ht="13" spans="1:22">
+    <row r="268" spans="1:22">
       <c r="A268" s="18">
         <v>200322</v>
       </c>
@@ -27255,7 +27404,7 @@
       </c>
       <c r="V268" s="72"/>
     </row>
-    <row r="269" ht="13" spans="1:22">
+    <row r="269" spans="1:22">
       <c r="A269" s="18">
         <v>200323</v>
       </c>
@@ -27318,7 +27467,7 @@
       </c>
       <c r="V269" s="72"/>
     </row>
-    <row r="270" ht="13" spans="1:22">
+    <row r="270" spans="1:22">
       <c r="A270" s="18">
         <v>200324</v>
       </c>
@@ -27381,7 +27530,7 @@
       </c>
       <c r="V270" s="72"/>
     </row>
-    <row r="271" ht="13" spans="1:22">
+    <row r="271" spans="1:22">
       <c r="A271" s="18">
         <v>200325</v>
       </c>
@@ -27444,7 +27593,7 @@
       </c>
       <c r="V271" s="72"/>
     </row>
-    <row r="272" ht="13" spans="1:22">
+    <row r="272" spans="1:22">
       <c r="A272" s="18">
         <v>200326</v>
       </c>
@@ -27507,7 +27656,7 @@
       </c>
       <c r="V272" s="72"/>
     </row>
-    <row r="273" ht="13" spans="1:22">
+    <row r="273" spans="1:22">
       <c r="A273" s="18">
         <v>200327</v>
       </c>
@@ -27570,7 +27719,7 @@
       </c>
       <c r="V273" s="72"/>
     </row>
-    <row r="274" ht="13" spans="1:22">
+    <row r="274" spans="1:22">
       <c r="A274" s="18">
         <v>200328</v>
       </c>
@@ -27633,7 +27782,7 @@
       </c>
       <c r="V274" s="72"/>
     </row>
-    <row r="275" ht="13" spans="1:22">
+    <row r="275" spans="1:22">
       <c r="A275" s="18">
         <v>200329</v>
       </c>
@@ -27696,7 +27845,7 @@
       </c>
       <c r="V275" s="72"/>
     </row>
-    <row r="276" ht="13" spans="1:22">
+    <row r="276" spans="1:22">
       <c r="A276" s="18">
         <v>200330</v>
       </c>
@@ -27759,7 +27908,7 @@
       </c>
       <c r="V276" s="72"/>
     </row>
-    <row r="277" ht="13" spans="1:22">
+    <row r="277" spans="1:22">
       <c r="A277" s="18">
         <v>200331</v>
       </c>
@@ -27822,7 +27971,7 @@
       </c>
       <c r="V277" s="72"/>
     </row>
-    <row r="278" ht="13" spans="1:22">
+    <row r="278" spans="1:22">
       <c r="A278" s="18">
         <v>200332</v>
       </c>
@@ -27885,7 +28034,7 @@
       </c>
       <c r="V278" s="72"/>
     </row>
-    <row r="279" ht="13" spans="1:22">
+    <row r="279" spans="1:22">
       <c r="A279" s="18">
         <v>200333</v>
       </c>
@@ -27948,7 +28097,7 @@
       </c>
       <c r="V279" s="72"/>
     </row>
-    <row r="280" ht="13" spans="1:22">
+    <row r="280" spans="1:22">
       <c r="A280" s="18">
         <v>200334</v>
       </c>
@@ -28011,7 +28160,7 @@
       </c>
       <c r="V280" s="72"/>
     </row>
-    <row r="281" ht="13" spans="1:22">
+    <row r="281" spans="1:22">
       <c r="A281" s="18">
         <v>200335</v>
       </c>
@@ -28074,7 +28223,7 @@
       </c>
       <c r="V281" s="72"/>
     </row>
-    <row r="282" ht="13" spans="1:22">
+    <row r="282" spans="1:22">
       <c r="A282" s="18">
         <v>200336</v>
       </c>
@@ -28137,7 +28286,7 @@
       </c>
       <c r="V282" s="72"/>
     </row>
-    <row r="283" ht="13" spans="1:22">
+    <row r="283" spans="1:22">
       <c r="A283" s="18">
         <v>200337</v>
       </c>
@@ -28200,7 +28349,7 @@
       </c>
       <c r="V283" s="72"/>
     </row>
-    <row r="284" ht="13" spans="1:22">
+    <row r="284" spans="1:22">
       <c r="A284" s="18">
         <v>200338</v>
       </c>
@@ -28729,7 +28878,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="290" ht="13" spans="1:12">
+    <row r="290" spans="1:12">
       <c r="A290" s="18">
         <v>200344</v>
       </c>
@@ -28767,7 +28916,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" ht="13" spans="1:16">
+    <row r="291" spans="1:16">
       <c r="A291" s="18">
         <v>200345</v>
       </c>
@@ -28817,7 +28966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" ht="13" spans="1:6">
+    <row r="292" spans="1:6">
       <c r="A292" s="18">
         <v>200346</v>
       </c>
@@ -28837,7 +28986,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="293" ht="13" spans="1:10">
+    <row r="293" spans="1:10">
       <c r="A293" s="18">
         <v>200347</v>
       </c>
@@ -28869,7 +29018,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="294" ht="13" spans="1:4">
+    <row r="294" spans="1:4">
       <c r="A294" s="18">
         <v>200348</v>
       </c>
@@ -28883,7 +29032,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="295" ht="13" spans="1:4">
+    <row r="295" spans="1:4">
       <c r="A295" s="18">
         <v>200349</v>
       </c>
@@ -28897,7 +29046,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" ht="13" spans="1:4">
+    <row r="296" spans="1:4">
       <c r="A296" s="18">
         <v>200350</v>
       </c>
@@ -28911,7 +29060,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="297" ht="13" spans="1:4">
+    <row r="297" spans="1:4">
       <c r="A297" s="18">
         <v>200351</v>
       </c>
@@ -28925,7 +29074,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="298" ht="13" spans="1:4">
+    <row r="298" spans="1:4">
       <c r="A298" s="18">
         <v>200352</v>
       </c>
@@ -28939,7 +29088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="299" s="12" customFormat="1" ht="13" spans="1:18">
+    <row r="299" s="12" customFormat="1" spans="1:18">
       <c r="A299" s="12">
         <v>200353</v>
       </c>
@@ -28965,7 +29114,7 @@
       <c r="P299" s="79"/>
       <c r="R299" s="79"/>
     </row>
-    <row r="300" s="12" customFormat="1" ht="13" spans="1:34">
+    <row r="300" s="12" customFormat="1" spans="1:34">
       <c r="A300" s="12">
         <v>200354</v>
       </c>
@@ -29069,7 +29218,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="301" s="12" customFormat="1" ht="13" spans="1:34">
+    <row r="301" s="12" customFormat="1" spans="1:34">
       <c r="A301" s="12">
         <v>200355</v>
       </c>
@@ -29173,7 +29322,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="302" s="12" customFormat="1" ht="13" spans="1:34">
+    <row r="302" s="12" customFormat="1" spans="1:34">
       <c r="A302" s="12">
         <v>200356</v>
       </c>
@@ -29277,7 +29426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="303" s="12" customFormat="1" ht="13" spans="1:34">
+    <row r="303" s="12" customFormat="1" spans="1:34">
       <c r="A303" s="12">
         <v>200357</v>
       </c>
@@ -29381,7 +29530,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="304" s="12" customFormat="1" ht="13" spans="1:34">
+    <row r="304" s="12" customFormat="1" spans="1:34">
       <c r="A304" s="12">
         <v>200358</v>
       </c>
@@ -29485,7 +29634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="305" s="12" customFormat="1" ht="13" spans="1:34">
+    <row r="305" s="12" customFormat="1" spans="1:34">
       <c r="A305" s="12">
         <v>200359</v>
       </c>
@@ -29589,7 +29738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="306" s="13" customFormat="1" ht="13" spans="1:20">
+    <row r="306" s="13" customFormat="1" spans="1:20">
       <c r="A306" s="13">
         <v>200360</v>
       </c>
@@ -29651,7 +29800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" s="14" customFormat="1" ht="13" spans="1:20">
+    <row r="307" s="14" customFormat="1" spans="1:20">
       <c r="A307" s="13">
         <v>200361</v>
       </c>
@@ -29713,7 +29862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" s="14" customFormat="1" ht="13" spans="1:20">
+    <row r="308" s="14" customFormat="1" spans="1:20">
       <c r="A308" s="13">
         <v>200362</v>
       </c>
@@ -29775,7 +29924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" s="14" customFormat="1" ht="13" spans="1:20">
+    <row r="309" s="14" customFormat="1" spans="1:20">
       <c r="A309" s="13">
         <v>200363</v>
       </c>
@@ -29837,7 +29986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" s="14" customFormat="1" ht="13" spans="1:20">
+    <row r="310" s="14" customFormat="1" spans="1:20">
       <c r="A310" s="13">
         <v>200364</v>
       </c>
@@ -29899,7 +30048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" s="14" customFormat="1" ht="13" spans="1:20">
+    <row r="311" s="14" customFormat="1" spans="1:20">
       <c r="A311" s="13">
         <v>200365</v>
       </c>
@@ -29961,7 +30110,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" s="15" customFormat="1" ht="13" spans="1:20">
+    <row r="312" s="15" customFormat="1" spans="1:20">
       <c r="A312" s="13">
         <v>200366</v>
       </c>
@@ -30023,7 +30172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="15" customFormat="1" ht="13" spans="1:20">
+    <row r="313" s="15" customFormat="1" spans="1:20">
       <c r="A313" s="13">
         <v>200367</v>
       </c>
@@ -30085,7 +30234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" s="15" customFormat="1" ht="13" spans="1:20">
+    <row r="314" s="15" customFormat="1" spans="1:20">
       <c r="A314" s="13">
         <v>200368</v>
       </c>
@@ -30147,7 +30296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" ht="13" spans="1:17">
+    <row r="315" spans="1:17">
       <c r="A315" s="13">
         <v>200369</v>
       </c>
@@ -30182,7 +30331,7 @@
       <c r="P315" s="83"/>
       <c r="Q315" s="90"/>
     </row>
-    <row r="316" s="4" customFormat="1" ht="13" spans="1:84">
+    <row r="316" s="4" customFormat="1" spans="1:84">
       <c r="A316" s="13">
         <v>200370</v>
       </c>
@@ -30436,7 +30585,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="317" s="3" customFormat="1" ht="13" spans="1:10">
+    <row r="317" s="3" customFormat="1" spans="1:10">
       <c r="A317" s="13">
         <v>200371</v>
       </c>
@@ -30468,7 +30617,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="318" ht="13" spans="1:4">
+    <row r="318" spans="1:4">
       <c r="A318" s="13">
         <v>200372</v>
       </c>
@@ -30482,7 +30631,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="319" ht="13" spans="1:4">
+    <row r="319" spans="1:4">
       <c r="A319" s="13">
         <v>200373</v>
       </c>
@@ -30496,7 +30645,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="320" ht="13" spans="1:4">
+    <row r="320" spans="1:4">
       <c r="A320" s="13">
         <v>200374</v>
       </c>
@@ -30510,7 +30659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="321" ht="13" spans="1:4">
+    <row r="321" spans="1:4">
       <c r="A321" s="13">
         <v>200375</v>
       </c>
@@ -30524,7 +30673,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="322" ht="13" spans="1:8">
+    <row r="322" spans="1:8">
       <c r="A322" s="13">
         <v>200376</v>
       </c>
@@ -30550,7 +30699,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="323" ht="13" spans="1:10">
+    <row r="323" spans="1:10">
       <c r="A323" s="18">
         <v>200377</v>
       </c>
@@ -30582,7 +30731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" ht="13" spans="1:4">
+    <row r="324" spans="1:4">
       <c r="A324" s="18">
         <v>200378</v>
       </c>
@@ -30596,7 +30745,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="325" ht="13" spans="1:4">
+    <row r="325" spans="1:4">
       <c r="A325" s="18">
         <v>200379</v>
       </c>
@@ -30610,7 +30759,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="326" s="4" customFormat="1" ht="13" spans="1:84">
+    <row r="326" s="4" customFormat="1" spans="1:84">
       <c r="A326" s="18">
         <v>200382</v>
       </c>
@@ -30864,7 +31013,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="327" ht="13" spans="1:26">
+    <row r="327" spans="1:26">
       <c r="A327" s="18">
         <v>200383</v>
       </c>
@@ -30944,7 +31093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="328" ht="13" spans="1:4">
+    <row r="328" spans="1:4">
       <c r="A328" s="18">
         <v>200384</v>
       </c>
@@ -30958,7 +31107,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="329" ht="13" spans="1:4">
+    <row r="329" spans="1:4">
       <c r="A329" s="18">
         <v>200385</v>
       </c>
@@ -30972,7 +31121,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="330" ht="13" spans="1:4">
+    <row r="330" spans="1:4">
       <c r="A330" s="18">
         <v>200386</v>
       </c>
@@ -30986,7 +31135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="331" ht="13" spans="1:66">
+    <row r="331" spans="1:66">
       <c r="A331" s="18">
         <v>200389</v>
       </c>
@@ -31186,7 +31335,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="332" ht="13" spans="1:38">
+    <row r="332" spans="1:38">
       <c r="A332" s="18">
         <v>200392</v>
       </c>
@@ -31302,7 +31451,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="333" ht="13" spans="1:38">
+    <row r="333" spans="1:38">
       <c r="A333" s="18">
         <v>200393</v>
       </c>
@@ -31418,7 +31567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" ht="13" spans="1:38">
+    <row r="334" spans="1:38">
       <c r="A334" s="18">
         <v>200394</v>
       </c>
@@ -31534,7 +31683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" ht="13" spans="1:56">
+    <row r="335" spans="1:56">
       <c r="A335" s="18">
         <v>200395</v>
       </c>
@@ -31704,7 +31853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" ht="13" spans="1:56">
+    <row r="336" spans="1:56">
       <c r="A336" s="18">
         <v>200396</v>
       </c>
@@ -31874,7 +32023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" ht="13" spans="1:38">
+    <row r="337" spans="1:38">
       <c r="A337" s="18">
         <v>200397</v>
       </c>
@@ -31990,1500 +32139,1150 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" ht="13" spans="1:66">
+    <row r="338" spans="1:52">
       <c r="A338" s="18">
         <v>200398</v>
       </c>
       <c r="B338" s="91" t="s">
         <v>448</v>
       </c>
-      <c r="C338" s="80">
-        <v>351000</v>
+      <c r="C338" s="94" t="s">
+        <v>449</v>
       </c>
       <c r="D338" s="79">
         <v>100</v>
       </c>
-      <c r="E338" s="80">
+      <c r="E338" s="95">
+        <f t="shared" ref="E338:I338" si="0">C338+1</f>
         <v>351001</v>
       </c>
       <c r="F338" s="79">
         <v>100</v>
       </c>
-      <c r="G338" s="80">
+      <c r="G338" s="95">
+        <f t="shared" si="0"/>
         <v>351002</v>
       </c>
       <c r="H338" s="79">
         <v>100</v>
       </c>
-      <c r="I338" s="80">
+      <c r="I338" s="95">
+        <f t="shared" si="0"/>
         <v>351003</v>
       </c>
       <c r="J338" s="79">
         <v>100</v>
       </c>
-      <c r="K338" s="80">
+      <c r="K338" s="95">
+        <f t="shared" ref="K338:O338" si="1">I338+1</f>
         <v>351004</v>
       </c>
       <c r="L338" s="79">
         <v>100</v>
       </c>
-      <c r="M338" s="80">
+      <c r="M338" s="95">
+        <f t="shared" si="1"/>
         <v>351005</v>
       </c>
       <c r="N338" s="79">
         <v>100</v>
       </c>
-      <c r="O338" s="80">
+      <c r="O338" s="95">
+        <f t="shared" si="1"/>
         <v>351006</v>
       </c>
       <c r="P338" s="79">
         <v>100</v>
       </c>
-      <c r="Q338" s="80">
+      <c r="Q338" s="95">
+        <f t="shared" ref="Q338:U338" si="2">O338+1</f>
         <v>351007</v>
       </c>
       <c r="R338" s="79">
         <v>100</v>
       </c>
-      <c r="S338" s="80">
+      <c r="S338" s="95">
+        <f t="shared" si="2"/>
         <v>351008</v>
       </c>
       <c r="T338" s="79">
         <v>100</v>
       </c>
-      <c r="U338" s="80">
+      <c r="U338" s="95">
+        <f t="shared" si="2"/>
         <v>351009</v>
       </c>
       <c r="V338" s="79">
         <v>100</v>
       </c>
-      <c r="W338" s="80">
+      <c r="W338" s="95">
+        <f t="shared" ref="W338:AA338" si="3">U338+1</f>
         <v>351010</v>
       </c>
       <c r="X338" s="79">
         <v>100</v>
       </c>
-      <c r="Y338" s="80">
+      <c r="Y338" s="95">
+        <f t="shared" si="3"/>
         <v>351011</v>
       </c>
       <c r="Z338" s="79">
         <v>100</v>
       </c>
-      <c r="AA338" s="80">
+      <c r="AA338" s="95">
+        <f t="shared" si="3"/>
         <v>351012</v>
       </c>
       <c r="AB338" s="79">
         <v>100</v>
       </c>
-      <c r="AC338" s="80">
+      <c r="AC338" s="95">
+        <f t="shared" ref="AC338:AG338" si="4">AA338+1</f>
         <v>351013</v>
       </c>
       <c r="AD338" s="79">
         <v>100</v>
       </c>
-      <c r="AE338" s="80">
+      <c r="AE338" s="95">
+        <f t="shared" si="4"/>
         <v>351014</v>
       </c>
       <c r="AF338" s="79">
         <v>100</v>
       </c>
-      <c r="AG338" s="80">
+      <c r="AG338" s="95">
+        <f t="shared" si="4"/>
         <v>351015</v>
       </c>
       <c r="AH338" s="79">
         <v>100</v>
       </c>
-      <c r="AI338" s="80">
-        <v>351100</v>
+      <c r="AI338" s="108" t="s">
+        <v>450</v>
       </c>
       <c r="AJ338" s="79">
         <v>100</v>
       </c>
-      <c r="AK338" s="80">
-        <v>351101</v>
+      <c r="AK338" s="95">
+        <f t="shared" ref="AK338:AO338" si="5">AI338+1</f>
+        <v>340515</v>
       </c>
       <c r="AL338" s="79">
         <v>100</v>
       </c>
-      <c r="AM338" s="80">
-        <v>351102</v>
+      <c r="AM338" s="95">
+        <f t="shared" si="5"/>
+        <v>340516</v>
       </c>
       <c r="AN338" s="79">
         <v>100</v>
       </c>
-      <c r="AO338" s="80">
-        <v>351103</v>
+      <c r="AO338" s="95">
+        <f t="shared" si="5"/>
+        <v>340517</v>
       </c>
       <c r="AP338" s="79">
         <v>100</v>
       </c>
-      <c r="AQ338" s="80">
-        <v>351104</v>
+      <c r="AQ338" s="95">
+        <f t="shared" ref="AQ338:AU338" si="6">AO338+1</f>
+        <v>340518</v>
       </c>
       <c r="AR338" s="79">
         <v>100</v>
       </c>
-      <c r="AS338" s="80">
-        <v>351105</v>
+      <c r="AS338" s="95">
+        <f t="shared" si="6"/>
+        <v>340519</v>
       </c>
       <c r="AT338" s="79">
         <v>100</v>
       </c>
-      <c r="AU338" s="80">
-        <v>351106</v>
+      <c r="AU338" s="95">
+        <f t="shared" si="6"/>
+        <v>340520</v>
       </c>
       <c r="AV338" s="79">
         <v>100</v>
       </c>
-      <c r="AW338" s="80">
-        <v>351107</v>
+      <c r="AW338" s="95">
+        <f>AU338+1</f>
+        <v>340521</v>
       </c>
       <c r="AX338" s="79">
         <v>100</v>
       </c>
-      <c r="AY338" s="80">
-        <v>351108</v>
+      <c r="AY338" s="95">
+        <f>AW338+1</f>
+        <v>340522</v>
       </c>
       <c r="AZ338" s="79">
         <v>100</v>
       </c>
-      <c r="BA338" s="80">
-        <v>351109</v>
-      </c>
-      <c r="BB338" s="79">
-        <v>100</v>
-      </c>
-      <c r="BC338" s="80">
-        <v>351110</v>
-      </c>
-      <c r="BD338" s="79">
-        <v>100</v>
-      </c>
-      <c r="BE338" s="80">
-        <v>351111</v>
-      </c>
-      <c r="BF338" s="79">
-        <v>100</v>
-      </c>
-      <c r="BG338" s="80">
-        <v>351112</v>
-      </c>
-      <c r="BH338" s="79">
-        <v>100</v>
-      </c>
-      <c r="BI338" s="80">
-        <v>351113</v>
-      </c>
-      <c r="BJ338" s="79">
-        <v>100</v>
-      </c>
-      <c r="BK338" s="80">
-        <v>351114</v>
-      </c>
-      <c r="BL338" s="79">
-        <v>100</v>
-      </c>
-      <c r="BM338" s="80">
-        <v>351115</v>
-      </c>
-      <c r="BN338" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="339" ht="13" spans="1:98">
+    </row>
+    <row r="339" spans="1:52">
       <c r="A339" s="18">
         <v>200399</v>
       </c>
       <c r="B339" s="91" t="s">
-        <v>449</v>
-      </c>
-      <c r="C339" s="80">
-        <v>351000</v>
+        <v>451</v>
+      </c>
+      <c r="C339" s="96" t="s">
+        <v>452</v>
       </c>
       <c r="D339" s="79">
         <v>100</v>
       </c>
-      <c r="E339" s="80">
-        <v>351001</v>
+      <c r="E339" s="95">
+        <f>C339+1</f>
+        <v>351101</v>
       </c>
       <c r="F339" s="79">
         <v>100</v>
       </c>
-      <c r="G339" s="80">
-        <v>351002</v>
+      <c r="G339" s="95">
+        <f>E339+1</f>
+        <v>351102</v>
       </c>
       <c r="H339" s="79">
         <v>100</v>
       </c>
-      <c r="I339" s="80">
-        <v>351003</v>
+      <c r="I339" s="95">
+        <f>G339+1</f>
+        <v>351103</v>
       </c>
       <c r="J339" s="79">
         <v>100</v>
       </c>
-      <c r="K339" s="80">
-        <v>351004</v>
+      <c r="K339" s="95">
+        <f>I339+1</f>
+        <v>351104</v>
       </c>
       <c r="L339" s="79">
         <v>100</v>
       </c>
-      <c r="M339" s="80">
-        <v>351005</v>
+      <c r="M339" s="95">
+        <f>K339+1</f>
+        <v>351105</v>
       </c>
       <c r="N339" s="79">
         <v>100</v>
       </c>
-      <c r="O339" s="80">
-        <v>351006</v>
+      <c r="O339" s="95">
+        <f>M339+1</f>
+        <v>351106</v>
       </c>
       <c r="P339" s="79">
         <v>100</v>
       </c>
-      <c r="Q339" s="80">
-        <v>351007</v>
+      <c r="Q339" s="95">
+        <f>O339+1</f>
+        <v>351107</v>
       </c>
       <c r="R339" s="79">
         <v>100</v>
       </c>
-      <c r="S339" s="80">
-        <v>351008</v>
+      <c r="S339" s="95">
+        <f>Q339+1</f>
+        <v>351108</v>
       </c>
       <c r="T339" s="79">
         <v>100</v>
       </c>
-      <c r="U339" s="80">
-        <v>351009</v>
+      <c r="U339" s="95">
+        <f>S339+1</f>
+        <v>351109</v>
       </c>
       <c r="V339" s="79">
         <v>100</v>
       </c>
-      <c r="W339" s="80">
-        <v>351010</v>
+      <c r="W339" s="95">
+        <f>U339+1</f>
+        <v>351110</v>
       </c>
       <c r="X339" s="79">
         <v>100</v>
       </c>
-      <c r="Y339" s="80">
-        <v>351011</v>
+      <c r="Y339" s="95">
+        <f>W339+1</f>
+        <v>351111</v>
       </c>
       <c r="Z339" s="79">
         <v>100</v>
       </c>
-      <c r="AA339" s="80">
-        <v>351012</v>
+      <c r="AA339" s="95">
+        <f>Y339+1</f>
+        <v>351112</v>
       </c>
       <c r="AB339" s="79">
         <v>100</v>
       </c>
-      <c r="AC339" s="80">
-        <v>351013</v>
+      <c r="AC339" s="95">
+        <f>AA339+1</f>
+        <v>351113</v>
       </c>
       <c r="AD339" s="79">
         <v>100</v>
       </c>
-      <c r="AE339" s="80">
-        <v>351014</v>
+      <c r="AE339" s="95">
+        <f>AC339+1</f>
+        <v>351114</v>
       </c>
       <c r="AF339" s="79">
         <v>100</v>
       </c>
-      <c r="AG339" s="80">
-        <v>351015</v>
+      <c r="AG339" s="95">
+        <f>AE339+1</f>
+        <v>351115</v>
       </c>
       <c r="AH339" s="79">
         <v>100</v>
       </c>
-      <c r="AI339" s="80">
-        <v>351100</v>
+      <c r="AI339" s="96" t="s">
+        <v>453</v>
       </c>
       <c r="AJ339" s="79">
         <v>100</v>
       </c>
-      <c r="AK339" s="80">
-        <v>351101</v>
+      <c r="AK339" s="95">
+        <f>AI339+1</f>
+        <v>340524</v>
       </c>
       <c r="AL339" s="79">
         <v>100</v>
       </c>
-      <c r="AM339" s="80">
-        <v>351102</v>
+      <c r="AM339" s="95">
+        <f>AK339+1</f>
+        <v>340525</v>
       </c>
       <c r="AN339" s="79">
         <v>100</v>
       </c>
-      <c r="AO339" s="80">
-        <v>351103</v>
+      <c r="AO339" s="95">
+        <f>AM339+1</f>
+        <v>340526</v>
       </c>
       <c r="AP339" s="79">
         <v>100</v>
       </c>
-      <c r="AQ339" s="80">
-        <v>351104</v>
+      <c r="AQ339" s="95">
+        <f>AO339+1</f>
+        <v>340527</v>
       </c>
       <c r="AR339" s="79">
         <v>100</v>
       </c>
-      <c r="AS339" s="80">
-        <v>351105</v>
+      <c r="AS339" s="95">
+        <f>AQ339+1</f>
+        <v>340528</v>
       </c>
       <c r="AT339" s="79">
         <v>100</v>
       </c>
-      <c r="AU339" s="80">
-        <v>351106</v>
+      <c r="AU339" s="95">
+        <f>AS339+1</f>
+        <v>340529</v>
       </c>
       <c r="AV339" s="79">
         <v>100</v>
       </c>
-      <c r="AW339" s="80">
-        <v>351107</v>
+      <c r="AW339" s="95">
+        <f>AU339+1</f>
+        <v>340530</v>
       </c>
       <c r="AX339" s="79">
         <v>100</v>
       </c>
-      <c r="AY339" s="80">
-        <v>351108</v>
+      <c r="AY339" s="95">
+        <f>AW339+1</f>
+        <v>340531</v>
       </c>
       <c r="AZ339" s="79">
         <v>100</v>
       </c>
-      <c r="BA339" s="80">
-        <v>351109</v>
-      </c>
-      <c r="BB339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BC339" s="80">
-        <v>351110</v>
-      </c>
-      <c r="BD339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BE339" s="80">
-        <v>351111</v>
-      </c>
-      <c r="BF339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BG339" s="80">
-        <v>351112</v>
-      </c>
-      <c r="BH339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BI339" s="80">
-        <v>351113</v>
-      </c>
-      <c r="BJ339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BK339" s="80">
-        <v>351114</v>
-      </c>
-      <c r="BL339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BM339" s="80">
-        <v>351115</v>
-      </c>
-      <c r="BN339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BO339" s="80">
-        <v>351200</v>
-      </c>
-      <c r="BP339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BQ339" s="80">
-        <v>351201</v>
-      </c>
-      <c r="BR339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BS339" s="80">
-        <v>351202</v>
-      </c>
-      <c r="BT339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BU339" s="80">
-        <v>351203</v>
-      </c>
-      <c r="BV339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BW339" s="80">
-        <v>351204</v>
-      </c>
-      <c r="BX339" s="79">
-        <v>100</v>
-      </c>
-      <c r="BY339" s="80">
-        <v>351205</v>
-      </c>
-      <c r="BZ339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CA339" s="80">
-        <v>351206</v>
-      </c>
-      <c r="CB339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CC339" s="80">
-        <v>351207</v>
-      </c>
-      <c r="CD339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CE339" s="80">
-        <v>351208</v>
-      </c>
-      <c r="CF339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CG339" s="80">
-        <v>351209</v>
-      </c>
-      <c r="CH339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CI339" s="80">
-        <v>351210</v>
-      </c>
-      <c r="CJ339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CK339" s="80">
-        <v>351211</v>
-      </c>
-      <c r="CL339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CM339" s="80">
-        <v>351212</v>
-      </c>
-      <c r="CN339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CO339" s="80">
-        <v>351213</v>
-      </c>
-      <c r="CP339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CQ339" s="80">
-        <v>351214</v>
-      </c>
-      <c r="CR339" s="79">
-        <v>100</v>
-      </c>
-      <c r="CS339" s="80">
-        <v>351215</v>
-      </c>
-      <c r="CT339" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="340" ht="13" spans="1:98">
+    </row>
+    <row r="340" spans="1:52">
       <c r="A340" s="18">
         <v>200400</v>
       </c>
       <c r="B340" s="91" t="s">
-        <v>450</v>
-      </c>
-      <c r="C340" s="80">
-        <v>351100</v>
+        <v>454</v>
+      </c>
+      <c r="C340" s="97" t="s">
+        <v>455</v>
       </c>
       <c r="D340" s="79">
         <v>100</v>
       </c>
-      <c r="E340" s="80">
-        <v>351101</v>
+      <c r="E340" s="95">
+        <f>C340+1</f>
+        <v>351201</v>
       </c>
       <c r="F340" s="79">
         <v>100</v>
       </c>
-      <c r="G340" s="80">
-        <v>351102</v>
+      <c r="G340" s="95">
+        <f>E340+1</f>
+        <v>351202</v>
       </c>
       <c r="H340" s="79">
         <v>100</v>
       </c>
-      <c r="I340" s="80">
-        <v>351103</v>
+      <c r="I340" s="95">
+        <f>G340+1</f>
+        <v>351203</v>
       </c>
       <c r="J340" s="79">
         <v>100</v>
       </c>
-      <c r="K340" s="80">
-        <v>351104</v>
+      <c r="K340" s="95">
+        <f>I340+1</f>
+        <v>351204</v>
       </c>
       <c r="L340" s="79">
         <v>100</v>
       </c>
-      <c r="M340" s="80">
-        <v>351105</v>
+      <c r="M340" s="95">
+        <f>K340+1</f>
+        <v>351205</v>
       </c>
       <c r="N340" s="79">
         <v>100</v>
       </c>
-      <c r="O340" s="80">
-        <v>351106</v>
+      <c r="O340" s="95">
+        <f>M340+1</f>
+        <v>351206</v>
       </c>
       <c r="P340" s="79">
         <v>100</v>
       </c>
-      <c r="Q340" s="80">
-        <v>351107</v>
+      <c r="Q340" s="95">
+        <f>O340+1</f>
+        <v>351207</v>
       </c>
       <c r="R340" s="79">
         <v>100</v>
       </c>
-      <c r="S340" s="80">
-        <v>351108</v>
+      <c r="S340" s="95">
+        <f>Q340+1</f>
+        <v>351208</v>
       </c>
       <c r="T340" s="79">
         <v>100</v>
       </c>
-      <c r="U340" s="80">
-        <v>351109</v>
+      <c r="U340" s="95">
+        <f>S340+1</f>
+        <v>351209</v>
       </c>
       <c r="V340" s="79">
         <v>100</v>
       </c>
-      <c r="W340" s="80">
-        <v>351110</v>
+      <c r="W340" s="95">
+        <f>U340+1</f>
+        <v>351210</v>
       </c>
       <c r="X340" s="79">
         <v>100</v>
       </c>
-      <c r="Y340" s="80">
-        <v>351111</v>
+      <c r="Y340" s="95">
+        <f>W340+1</f>
+        <v>351211</v>
       </c>
       <c r="Z340" s="79">
         <v>100</v>
       </c>
-      <c r="AA340" s="80">
-        <v>351112</v>
+      <c r="AA340" s="95">
+        <f>Y340+1</f>
+        <v>351212</v>
       </c>
       <c r="AB340" s="79">
         <v>100</v>
       </c>
-      <c r="AC340" s="80">
-        <v>351113</v>
+      <c r="AC340" s="95">
+        <f>AA340+1</f>
+        <v>351213</v>
       </c>
       <c r="AD340" s="79">
         <v>100</v>
       </c>
-      <c r="AE340" s="80">
-        <v>351114</v>
+      <c r="AE340" s="95">
+        <f>AC340+1</f>
+        <v>351214</v>
       </c>
       <c r="AF340" s="79">
         <v>100</v>
       </c>
-      <c r="AG340" s="80">
-        <v>351115</v>
+      <c r="AG340" s="95">
+        <f>AE340+1</f>
+        <v>351215</v>
       </c>
       <c r="AH340" s="79">
         <v>100</v>
       </c>
-      <c r="AI340" s="80">
-        <v>351200</v>
+      <c r="AI340" s="96" t="s">
+        <v>456</v>
       </c>
       <c r="AJ340" s="79">
         <v>100</v>
       </c>
-      <c r="AK340" s="80">
-        <v>351201</v>
+      <c r="AK340" s="95">
+        <f>AI340+1</f>
+        <v>340533</v>
       </c>
       <c r="AL340" s="79">
         <v>100</v>
       </c>
-      <c r="AM340" s="80">
-        <v>351202</v>
+      <c r="AM340" s="95">
+        <f>AK340+1</f>
+        <v>340534</v>
       </c>
       <c r="AN340" s="79">
         <v>100</v>
       </c>
-      <c r="AO340" s="80">
-        <v>351203</v>
+      <c r="AO340" s="95">
+        <f>AM340+1</f>
+        <v>340535</v>
       </c>
       <c r="AP340" s="79">
         <v>100</v>
       </c>
-      <c r="AQ340" s="80">
-        <v>351204</v>
+      <c r="AQ340" s="95">
+        <f>AO340+1</f>
+        <v>340536</v>
       </c>
       <c r="AR340" s="79">
         <v>100</v>
       </c>
-      <c r="AS340" s="80">
-        <v>351205</v>
+      <c r="AS340" s="95">
+        <f>AQ340+1</f>
+        <v>340537</v>
       </c>
       <c r="AT340" s="79">
         <v>100</v>
       </c>
-      <c r="AU340" s="80">
-        <v>351206</v>
+      <c r="AU340" s="95">
+        <f>AS340+1</f>
+        <v>340538</v>
       </c>
       <c r="AV340" s="79">
         <v>100</v>
       </c>
-      <c r="AW340" s="80">
-        <v>351207</v>
+      <c r="AW340" s="95">
+        <f>AU340+1</f>
+        <v>340539</v>
       </c>
       <c r="AX340" s="79">
         <v>100</v>
       </c>
-      <c r="AY340" s="80">
-        <v>351208</v>
+      <c r="AY340" s="95">
+        <f>AW340+1</f>
+        <v>340540</v>
       </c>
       <c r="AZ340" s="79">
         <v>100</v>
       </c>
-      <c r="BA340" s="80">
-        <v>351209</v>
-      </c>
-      <c r="BB340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BC340" s="80">
-        <v>351210</v>
-      </c>
-      <c r="BD340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BE340" s="80">
-        <v>351211</v>
-      </c>
-      <c r="BF340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BG340" s="80">
-        <v>351212</v>
-      </c>
-      <c r="BH340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BI340" s="80">
-        <v>351213</v>
-      </c>
-      <c r="BJ340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BK340" s="80">
-        <v>351214</v>
-      </c>
-      <c r="BL340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BM340" s="80">
-        <v>351215</v>
-      </c>
-      <c r="BN340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BO340" s="80">
-        <v>351300</v>
-      </c>
-      <c r="BP340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BQ340" s="80">
-        <v>351301</v>
-      </c>
-      <c r="BR340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BS340" s="80">
-        <v>351302</v>
-      </c>
-      <c r="BT340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BU340" s="80">
-        <v>351303</v>
-      </c>
-      <c r="BV340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BW340" s="80">
-        <v>351304</v>
-      </c>
-      <c r="BX340" s="79">
-        <v>100</v>
-      </c>
-      <c r="BY340" s="80">
-        <v>351305</v>
-      </c>
-      <c r="BZ340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CA340" s="80">
-        <v>351306</v>
-      </c>
-      <c r="CB340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CC340" s="80">
-        <v>351307</v>
-      </c>
-      <c r="CD340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CE340" s="80">
-        <v>351308</v>
-      </c>
-      <c r="CF340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CG340" s="80">
-        <v>351309</v>
-      </c>
-      <c r="CH340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CI340" s="80">
-        <v>351310</v>
-      </c>
-      <c r="CJ340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CK340" s="80">
-        <v>351311</v>
-      </c>
-      <c r="CL340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CM340" s="80">
-        <v>351312</v>
-      </c>
-      <c r="CN340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CO340" s="80">
-        <v>351313</v>
-      </c>
-      <c r="CP340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CQ340" s="80">
-        <v>351314</v>
-      </c>
-      <c r="CR340" s="79">
-        <v>100</v>
-      </c>
-      <c r="CS340" s="80">
-        <v>351315</v>
-      </c>
-      <c r="CT340" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="341" s="16" customFormat="1" ht="13" spans="1:66">
+    </row>
+    <row r="341" s="16" customFormat="1" spans="1:104">
       <c r="A341" s="16">
         <v>200401</v>
       </c>
-      <c r="B341" s="94" t="s">
-        <v>451</v>
-      </c>
-      <c r="C341" s="80">
-        <v>351200</v>
+      <c r="B341" s="91" t="s">
+        <v>457</v>
+      </c>
+      <c r="C341" s="96" t="s">
+        <v>458</v>
       </c>
       <c r="D341" s="79">
         <v>100</v>
       </c>
-      <c r="E341" s="80">
-        <v>351201</v>
+      <c r="E341" s="95">
+        <f>C341+1</f>
+        <v>351301</v>
       </c>
       <c r="F341" s="79">
         <v>100</v>
       </c>
-      <c r="G341" s="80">
-        <v>351202</v>
+      <c r="G341" s="95">
+        <f>E341+1</f>
+        <v>351302</v>
       </c>
       <c r="H341" s="79">
         <v>100</v>
       </c>
-      <c r="I341" s="80">
-        <v>351203</v>
+      <c r="I341" s="95">
+        <f>G341+1</f>
+        <v>351303</v>
       </c>
       <c r="J341" s="79">
         <v>100</v>
       </c>
-      <c r="K341" s="80">
-        <v>351204</v>
+      <c r="K341" s="95">
+        <f>I341+1</f>
+        <v>351304</v>
       </c>
       <c r="L341" s="79">
         <v>100</v>
       </c>
-      <c r="M341" s="80">
-        <v>351205</v>
+      <c r="M341" s="95">
+        <f>K341+1</f>
+        <v>351305</v>
       </c>
       <c r="N341" s="79">
         <v>100</v>
       </c>
-      <c r="O341" s="80">
-        <v>351206</v>
+      <c r="O341" s="95">
+        <f>M341+1</f>
+        <v>351306</v>
       </c>
       <c r="P341" s="79">
         <v>100</v>
       </c>
-      <c r="Q341" s="80">
-        <v>351207</v>
+      <c r="Q341" s="95">
+        <f>O341+1</f>
+        <v>351307</v>
       </c>
       <c r="R341" s="79">
         <v>100</v>
       </c>
-      <c r="S341" s="80">
-        <v>351208</v>
+      <c r="S341" s="95">
+        <f>Q341+1</f>
+        <v>351308</v>
       </c>
       <c r="T341" s="79">
         <v>100</v>
       </c>
-      <c r="U341" s="80">
-        <v>351209</v>
+      <c r="U341" s="95">
+        <f>S341+1</f>
+        <v>351309</v>
       </c>
       <c r="V341" s="79">
         <v>100</v>
       </c>
-      <c r="W341" s="80">
-        <v>351210</v>
+      <c r="W341" s="95">
+        <f>U341+1</f>
+        <v>351310</v>
       </c>
       <c r="X341" s="79">
         <v>100</v>
       </c>
-      <c r="Y341" s="80">
-        <v>351211</v>
+      <c r="Y341" s="95">
+        <f>W341+1</f>
+        <v>351311</v>
       </c>
       <c r="Z341" s="79">
         <v>100</v>
       </c>
-      <c r="AA341" s="80">
-        <v>351212</v>
+      <c r="AA341" s="95">
+        <f>Y341+1</f>
+        <v>351312</v>
       </c>
       <c r="AB341" s="79">
         <v>100</v>
       </c>
-      <c r="AC341" s="80">
-        <v>351213</v>
+      <c r="AC341" s="95">
+        <f>AA341+1</f>
+        <v>351313</v>
       </c>
       <c r="AD341" s="79">
         <v>100</v>
       </c>
-      <c r="AE341" s="80">
-        <v>351214</v>
+      <c r="AE341" s="95">
+        <f>AC341+1</f>
+        <v>351314</v>
       </c>
       <c r="AF341" s="79">
         <v>100</v>
       </c>
-      <c r="AG341" s="80">
-        <v>351215</v>
+      <c r="AG341" s="95">
+        <f>AE341+1</f>
+        <v>351315</v>
       </c>
       <c r="AH341" s="79">
         <v>100</v>
       </c>
-      <c r="AI341" s="80">
-        <v>351300</v>
+      <c r="AI341" s="96" t="s">
+        <v>459</v>
       </c>
       <c r="AJ341" s="79">
         <v>100</v>
       </c>
-      <c r="AK341" s="80">
-        <v>351301</v>
+      <c r="AK341" s="95">
+        <f>AI341+1</f>
+        <v>340542</v>
       </c>
       <c r="AL341" s="79">
         <v>100</v>
       </c>
-      <c r="AM341" s="80">
-        <v>351302</v>
+      <c r="AM341" s="95">
+        <f>AK341+1</f>
+        <v>340543</v>
       </c>
       <c r="AN341" s="79">
         <v>100</v>
       </c>
-      <c r="AO341" s="80">
-        <v>351303</v>
+      <c r="AO341" s="95">
+        <f>AM341+1</f>
+        <v>340544</v>
       </c>
       <c r="AP341" s="79">
         <v>100</v>
       </c>
-      <c r="AQ341" s="80">
-        <v>351304</v>
+      <c r="AQ341" s="95">
+        <f>AO341+1</f>
+        <v>340545</v>
       </c>
       <c r="AR341" s="79">
         <v>100</v>
       </c>
-      <c r="AS341" s="80">
-        <v>351305</v>
+      <c r="AS341" s="95">
+        <f>AQ341+1</f>
+        <v>340546</v>
       </c>
       <c r="AT341" s="79">
         <v>100</v>
       </c>
-      <c r="AU341" s="80">
-        <v>351306</v>
+      <c r="AU341" s="95">
+        <f>AS341+1</f>
+        <v>340547</v>
       </c>
       <c r="AV341" s="79">
         <v>100</v>
       </c>
-      <c r="AW341" s="80">
-        <v>351307</v>
+      <c r="AW341" s="95">
+        <f>AU341+1</f>
+        <v>340548</v>
       </c>
       <c r="AX341" s="79">
         <v>100</v>
       </c>
-      <c r="AY341" s="80">
-        <v>351308</v>
+      <c r="AY341" s="95">
+        <f>AW341+1</f>
+        <v>340549</v>
       </c>
       <c r="AZ341" s="79">
         <v>100</v>
       </c>
-      <c r="BA341" s="80">
-        <v>351309</v>
-      </c>
-      <c r="BB341" s="79">
-        <v>100</v>
-      </c>
-      <c r="BC341" s="80">
-        <v>351310</v>
-      </c>
-      <c r="BD341" s="79">
-        <v>100</v>
-      </c>
-      <c r="BE341" s="80">
-        <v>351311</v>
-      </c>
-      <c r="BF341" s="79">
-        <v>100</v>
-      </c>
-      <c r="BG341" s="80">
-        <v>351312</v>
-      </c>
-      <c r="BH341" s="79">
-        <v>100</v>
-      </c>
-      <c r="BI341" s="80">
-        <v>351313</v>
-      </c>
-      <c r="BJ341" s="79">
-        <v>100</v>
-      </c>
-      <c r="BK341" s="80">
-        <v>351314</v>
-      </c>
-      <c r="BL341" s="79">
-        <v>100</v>
-      </c>
-      <c r="BM341" s="80">
-        <v>351315</v>
-      </c>
-      <c r="BN341" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="342" ht="13" spans="1:66">
+      <c r="BA341" s="18"/>
+      <c r="BB341" s="18"/>
+      <c r="BC341" s="18"/>
+      <c r="BD341" s="18"/>
+      <c r="BE341" s="18"/>
+      <c r="BF341" s="18"/>
+      <c r="BG341" s="18"/>
+      <c r="BH341" s="18"/>
+      <c r="BI341" s="18"/>
+      <c r="BJ341" s="18"/>
+      <c r="BK341" s="18"/>
+      <c r="BL341" s="18"/>
+      <c r="BM341" s="18"/>
+      <c r="BN341" s="18"/>
+      <c r="BO341" s="18"/>
+      <c r="BP341" s="18"/>
+      <c r="BQ341" s="18"/>
+      <c r="BR341" s="18"/>
+      <c r="BS341" s="18"/>
+      <c r="BT341" s="18"/>
+      <c r="BU341" s="18"/>
+      <c r="BV341" s="18"/>
+      <c r="BW341" s="18"/>
+      <c r="BX341" s="18"/>
+      <c r="BY341" s="18"/>
+      <c r="BZ341" s="18"/>
+      <c r="CA341" s="18"/>
+      <c r="CB341" s="18"/>
+      <c r="CC341" s="18"/>
+      <c r="CD341" s="18"/>
+      <c r="CE341" s="18"/>
+      <c r="CF341" s="18"/>
+      <c r="CG341" s="18"/>
+      <c r="CH341" s="18"/>
+      <c r="CI341" s="18"/>
+      <c r="CJ341" s="18"/>
+      <c r="CK341" s="18"/>
+      <c r="CL341" s="18"/>
+      <c r="CM341" s="18"/>
+      <c r="CN341" s="18"/>
+      <c r="CO341" s="18"/>
+      <c r="CP341" s="18"/>
+      <c r="CQ341" s="18"/>
+      <c r="CR341" s="18"/>
+      <c r="CS341" s="18"/>
+      <c r="CT341" s="18"/>
+      <c r="CU341" s="18"/>
+      <c r="CV341" s="18"/>
+      <c r="CW341" s="18"/>
+      <c r="CX341" s="18"/>
+      <c r="CY341" s="18"/>
+      <c r="CZ341" s="18"/>
+    </row>
+    <row r="342" spans="1:52">
       <c r="A342" s="18">
         <v>200402</v>
       </c>
       <c r="B342" s="91" t="s">
-        <v>452</v>
-      </c>
-      <c r="C342" s="80">
-        <v>351300</v>
+        <v>460</v>
+      </c>
+      <c r="C342" s="97" t="s">
+        <v>461</v>
       </c>
       <c r="D342" s="79">
         <v>100</v>
       </c>
-      <c r="E342" s="80">
-        <v>351301</v>
+      <c r="E342" s="95">
+        <f>C342+1</f>
+        <v>351401</v>
       </c>
       <c r="F342" s="79">
         <v>100</v>
       </c>
-      <c r="G342" s="80">
-        <v>351302</v>
+      <c r="G342" s="95">
+        <f>E342+1</f>
+        <v>351402</v>
       </c>
       <c r="H342" s="79">
         <v>100</v>
       </c>
-      <c r="I342" s="80">
-        <v>351303</v>
+      <c r="I342" s="95">
+        <f>G342+1</f>
+        <v>351403</v>
       </c>
       <c r="J342" s="79">
         <v>100</v>
       </c>
-      <c r="K342" s="80">
-        <v>351304</v>
+      <c r="K342" s="95">
+        <f>I342+1</f>
+        <v>351404</v>
       </c>
       <c r="L342" s="79">
         <v>100</v>
       </c>
-      <c r="M342" s="80">
-        <v>351305</v>
+      <c r="M342" s="95">
+        <f>K342+1</f>
+        <v>351405</v>
       </c>
       <c r="N342" s="79">
         <v>100</v>
       </c>
-      <c r="O342" s="80">
-        <v>351306</v>
+      <c r="O342" s="95">
+        <f>M342+1</f>
+        <v>351406</v>
       </c>
       <c r="P342" s="79">
         <v>100</v>
       </c>
-      <c r="Q342" s="80">
-        <v>351307</v>
+      <c r="Q342" s="95">
+        <f>O342+1</f>
+        <v>351407</v>
       </c>
       <c r="R342" s="79">
         <v>100</v>
       </c>
-      <c r="S342" s="80">
-        <v>351308</v>
+      <c r="S342" s="95">
+        <f>Q342+1</f>
+        <v>351408</v>
       </c>
       <c r="T342" s="79">
         <v>100</v>
       </c>
-      <c r="U342" s="80">
-        <v>351309</v>
+      <c r="U342" s="95">
+        <f>S342+1</f>
+        <v>351409</v>
       </c>
       <c r="V342" s="79">
         <v>100</v>
       </c>
-      <c r="W342" s="80">
-        <v>351310</v>
+      <c r="W342" s="95">
+        <f>U342+1</f>
+        <v>351410</v>
       </c>
       <c r="X342" s="79">
         <v>100</v>
       </c>
-      <c r="Y342" s="80">
-        <v>351311</v>
+      <c r="Y342" s="95">
+        <f>W342+1</f>
+        <v>351411</v>
       </c>
       <c r="Z342" s="79">
         <v>100</v>
       </c>
-      <c r="AA342" s="80">
-        <v>351312</v>
+      <c r="AA342" s="95">
+        <f>Y342+1</f>
+        <v>351412</v>
       </c>
       <c r="AB342" s="79">
         <v>100</v>
       </c>
-      <c r="AC342" s="80">
-        <v>351313</v>
+      <c r="AC342" s="95">
+        <f>AA342+1</f>
+        <v>351413</v>
       </c>
       <c r="AD342" s="79">
         <v>100</v>
       </c>
-      <c r="AE342" s="80">
-        <v>351314</v>
+      <c r="AE342" s="95">
+        <f>AC342+1</f>
+        <v>351414</v>
       </c>
       <c r="AF342" s="79">
         <v>100</v>
       </c>
-      <c r="AG342" s="80">
-        <v>351315</v>
+      <c r="AG342" s="95">
+        <f>AE342+1</f>
+        <v>351415</v>
       </c>
       <c r="AH342" s="79">
         <v>100</v>
       </c>
-      <c r="AI342" s="80">
-        <v>351400</v>
+      <c r="AI342" s="96" t="s">
+        <v>462</v>
       </c>
       <c r="AJ342" s="79">
         <v>100</v>
       </c>
-      <c r="AK342" s="80">
-        <v>351401</v>
+      <c r="AK342" s="95">
+        <f>AI342+1</f>
+        <v>340551</v>
       </c>
       <c r="AL342" s="79">
         <v>100</v>
       </c>
-      <c r="AM342" s="80">
-        <v>351402</v>
+      <c r="AM342" s="95">
+        <f>AK342+1</f>
+        <v>340552</v>
       </c>
       <c r="AN342" s="79">
         <v>100</v>
       </c>
-      <c r="AO342" s="80">
-        <v>351403</v>
+      <c r="AO342" s="95">
+        <f>AM342+1</f>
+        <v>340553</v>
       </c>
       <c r="AP342" s="79">
         <v>100</v>
       </c>
-      <c r="AQ342" s="80">
-        <v>351404</v>
+      <c r="AQ342" s="95">
+        <f>AO342+1</f>
+        <v>340554</v>
       </c>
       <c r="AR342" s="79">
         <v>100</v>
       </c>
-      <c r="AS342" s="80">
-        <v>351405</v>
+      <c r="AS342" s="95">
+        <f>AQ342+1</f>
+        <v>340555</v>
       </c>
       <c r="AT342" s="79">
         <v>100</v>
       </c>
-      <c r="AU342" s="80">
-        <v>351406</v>
+      <c r="AU342" s="95">
+        <f>AS342+1</f>
+        <v>340556</v>
       </c>
       <c r="AV342" s="79">
         <v>100</v>
       </c>
-      <c r="AW342" s="80">
-        <v>351407</v>
+      <c r="AW342" s="95">
+        <f>AU342+1</f>
+        <v>340557</v>
       </c>
       <c r="AX342" s="79">
         <v>100</v>
       </c>
-      <c r="AY342" s="80">
-        <v>351408</v>
+      <c r="AY342" s="95">
+        <f>AW342+1</f>
+        <v>340558</v>
       </c>
       <c r="AZ342" s="79">
         <v>100</v>
       </c>
-      <c r="BA342" s="80">
-        <v>351409</v>
-      </c>
-      <c r="BB342" s="79">
-        <v>100</v>
-      </c>
-      <c r="BC342" s="80">
-        <v>351410</v>
-      </c>
-      <c r="BD342" s="79">
-        <v>100</v>
-      </c>
-      <c r="BE342" s="80">
-        <v>351411</v>
-      </c>
-      <c r="BF342" s="79">
-        <v>100</v>
-      </c>
-      <c r="BG342" s="80">
-        <v>351412</v>
-      </c>
-      <c r="BH342" s="79">
-        <v>100</v>
-      </c>
-      <c r="BI342" s="80">
-        <v>351413</v>
-      </c>
-      <c r="BJ342" s="79">
-        <v>100</v>
-      </c>
-      <c r="BK342" s="80">
-        <v>351414</v>
-      </c>
-      <c r="BL342" s="79">
-        <v>100</v>
-      </c>
-      <c r="BM342" s="80">
-        <v>351415</v>
-      </c>
-      <c r="BN342" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="343" ht="13" spans="1:98">
+    </row>
+    <row r="343" spans="1:52">
       <c r="A343" s="18">
         <v>200403</v>
       </c>
       <c r="B343" s="91" t="s">
-        <v>453</v>
-      </c>
-      <c r="C343" s="80">
-        <v>351300</v>
+        <v>463</v>
+      </c>
+      <c r="C343" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="D343" s="79">
         <v>100</v>
       </c>
-      <c r="E343" s="80">
-        <v>351301</v>
+      <c r="E343" s="95">
+        <f>C343+1</f>
+        <v>351501</v>
       </c>
       <c r="F343" s="79">
         <v>100</v>
       </c>
-      <c r="G343" s="80">
-        <v>351302</v>
+      <c r="G343" s="95">
+        <f>E343+1</f>
+        <v>351502</v>
       </c>
       <c r="H343" s="79">
         <v>100</v>
       </c>
-      <c r="I343" s="80">
-        <v>351303</v>
+      <c r="I343" s="95">
+        <f>G343+1</f>
+        <v>351503</v>
       </c>
       <c r="J343" s="79">
         <v>100</v>
       </c>
-      <c r="K343" s="80">
-        <v>351304</v>
+      <c r="K343" s="95">
+        <f>I343+1</f>
+        <v>351504</v>
       </c>
       <c r="L343" s="79">
         <v>100</v>
       </c>
-      <c r="M343" s="80">
-        <v>351305</v>
+      <c r="M343" s="95">
+        <f>K343+1</f>
+        <v>351505</v>
       </c>
       <c r="N343" s="79">
         <v>100</v>
       </c>
-      <c r="O343" s="80">
-        <v>351306</v>
+      <c r="O343" s="95">
+        <f>M343+1</f>
+        <v>351506</v>
       </c>
       <c r="P343" s="79">
         <v>100</v>
       </c>
-      <c r="Q343" s="80">
-        <v>351307</v>
+      <c r="Q343" s="95">
+        <f>O343+1</f>
+        <v>351507</v>
       </c>
       <c r="R343" s="79">
         <v>100</v>
       </c>
-      <c r="S343" s="80">
-        <v>351308</v>
+      <c r="S343" s="95">
+        <f>Q343+1</f>
+        <v>351508</v>
       </c>
       <c r="T343" s="79">
         <v>100</v>
       </c>
-      <c r="U343" s="80">
-        <v>351309</v>
+      <c r="U343" s="95">
+        <f>S343+1</f>
+        <v>351509</v>
       </c>
       <c r="V343" s="79">
         <v>100</v>
       </c>
-      <c r="W343" s="80">
-        <v>351310</v>
+      <c r="W343" s="95">
+        <f>U343+1</f>
+        <v>351510</v>
       </c>
       <c r="X343" s="79">
         <v>100</v>
       </c>
-      <c r="Y343" s="80">
-        <v>351311</v>
+      <c r="Y343" s="95">
+        <f>W343+1</f>
+        <v>351511</v>
       </c>
       <c r="Z343" s="79">
         <v>100</v>
       </c>
-      <c r="AA343" s="80">
-        <v>351312</v>
+      <c r="AA343" s="95">
+        <f>Y343+1</f>
+        <v>351512</v>
       </c>
       <c r="AB343" s="79">
         <v>100</v>
       </c>
-      <c r="AC343" s="80">
-        <v>351313</v>
+      <c r="AC343" s="95">
+        <f>AA343+1</f>
+        <v>351513</v>
       </c>
       <c r="AD343" s="79">
         <v>100</v>
       </c>
-      <c r="AE343" s="80">
-        <v>351314</v>
+      <c r="AE343" s="95">
+        <f>AC343+1</f>
+        <v>351514</v>
       </c>
       <c r="AF343" s="79">
         <v>100</v>
       </c>
-      <c r="AG343" s="80">
-        <v>351315</v>
+      <c r="AG343" s="95">
+        <f>AE343+1</f>
+        <v>351515</v>
       </c>
       <c r="AH343" s="79">
         <v>100</v>
       </c>
-      <c r="AI343" s="80">
-        <v>351400</v>
+      <c r="AI343" s="96" t="s">
+        <v>465</v>
       </c>
       <c r="AJ343" s="79">
         <v>100</v>
       </c>
-      <c r="AK343" s="80">
-        <v>351401</v>
+      <c r="AK343" s="95">
+        <f>AI343+1</f>
+        <v>340560</v>
       </c>
       <c r="AL343" s="79">
         <v>100</v>
       </c>
-      <c r="AM343" s="80">
-        <v>351402</v>
+      <c r="AM343" s="95">
+        <f>AK343+1</f>
+        <v>340561</v>
       </c>
       <c r="AN343" s="79">
         <v>100</v>
       </c>
-      <c r="AO343" s="80">
-        <v>351403</v>
+      <c r="AO343" s="95">
+        <f>AM343+1</f>
+        <v>340562</v>
       </c>
       <c r="AP343" s="79">
         <v>100</v>
       </c>
-      <c r="AQ343" s="80">
-        <v>351404</v>
+      <c r="AQ343" s="95">
+        <f>AO343+1</f>
+        <v>340563</v>
       </c>
       <c r="AR343" s="79">
         <v>100</v>
       </c>
-      <c r="AS343" s="80">
-        <v>351405</v>
+      <c r="AS343" s="95">
+        <f>AQ343+1</f>
+        <v>340564</v>
       </c>
       <c r="AT343" s="79">
         <v>100</v>
       </c>
-      <c r="AU343" s="80">
-        <v>351406</v>
+      <c r="AU343" s="95">
+        <f>AS343+1</f>
+        <v>340565</v>
       </c>
       <c r="AV343" s="79">
         <v>100</v>
       </c>
-      <c r="AW343" s="80">
-        <v>351407</v>
+      <c r="AW343" s="95">
+        <f>AU343+1</f>
+        <v>340566</v>
       </c>
       <c r="AX343" s="79">
         <v>100</v>
       </c>
-      <c r="AY343" s="80">
-        <v>351408</v>
+      <c r="AY343" s="95">
+        <f>AW343+1</f>
+        <v>340567</v>
       </c>
       <c r="AZ343" s="79">
         <v>100</v>
       </c>
-      <c r="BA343" s="80">
-        <v>351409</v>
-      </c>
-      <c r="BB343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BC343" s="80">
-        <v>351410</v>
-      </c>
-      <c r="BD343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BE343" s="80">
-        <v>351411</v>
-      </c>
-      <c r="BF343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BG343" s="80">
-        <v>351412</v>
-      </c>
-      <c r="BH343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BI343" s="80">
-        <v>351413</v>
-      </c>
-      <c r="BJ343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BK343" s="80">
-        <v>351414</v>
-      </c>
-      <c r="BL343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BM343" s="80">
-        <v>351415</v>
-      </c>
-      <c r="BN343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BO343" s="80">
-        <v>351500</v>
-      </c>
-      <c r="BP343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BQ343" s="80">
-        <v>351501</v>
-      </c>
-      <c r="BR343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BS343" s="80">
-        <v>351502</v>
-      </c>
-      <c r="BT343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BU343" s="80">
-        <v>351503</v>
-      </c>
-      <c r="BV343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BW343" s="80">
-        <v>351504</v>
-      </c>
-      <c r="BX343" s="79">
-        <v>100</v>
-      </c>
-      <c r="BY343" s="80">
-        <v>351505</v>
-      </c>
-      <c r="BZ343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CA343" s="80">
-        <v>351506</v>
-      </c>
-      <c r="CB343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CC343" s="80">
-        <v>351507</v>
-      </c>
-      <c r="CD343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CE343" s="80">
-        <v>351508</v>
-      </c>
-      <c r="CF343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CG343" s="80">
-        <v>351509</v>
-      </c>
-      <c r="CH343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CI343" s="80">
-        <v>351510</v>
-      </c>
-      <c r="CJ343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CK343" s="80">
-        <v>351511</v>
-      </c>
-      <c r="CL343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CM343" s="80">
-        <v>351512</v>
-      </c>
-      <c r="CN343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CO343" s="80">
-        <v>351513</v>
-      </c>
-      <c r="CP343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CQ343" s="80">
-        <v>351514</v>
-      </c>
-      <c r="CR343" s="79">
-        <v>100</v>
-      </c>
-      <c r="CS343" s="80">
-        <v>351515</v>
-      </c>
-      <c r="CT343" s="79">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="344" ht="13" spans="1:8">
+    </row>
+    <row r="344" spans="1:8">
       <c r="A344" s="18">
         <v>200404</v>
       </c>
       <c r="B344" s="91" t="s">
-        <v>454</v>
+        <v>466</v>
       </c>
       <c r="C344" s="87">
         <v>341112</v>
@@ -33504,23 +33303,23 @@
         <v>100</v>
       </c>
     </row>
-    <row r="345" ht="13" spans="1:3">
+    <row r="345" spans="1:3">
       <c r="A345" s="18">
         <v>200405</v>
       </c>
       <c r="B345" s="57" t="s">
-        <v>455</v>
+        <v>467</v>
       </c>
       <c r="C345" s="18">
         <v>522134</v>
       </c>
     </row>
-    <row r="346" ht="13" spans="1:20">
+    <row r="346" spans="1:20">
       <c r="A346" s="18">
         <v>200406</v>
       </c>
       <c r="B346" s="57" t="s">
-        <v>456</v>
+        <v>468</v>
       </c>
       <c r="C346" s="18">
         <v>631125</v>
@@ -33577,12 +33376,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="347" ht="13" spans="1:10">
+    <row r="347" spans="1:10">
       <c r="A347" s="18">
         <v>200407</v>
       </c>
       <c r="B347" s="57" t="s">
-        <v>457</v>
+        <v>469</v>
       </c>
       <c r="C347" s="18">
         <v>631110</v>
@@ -33609,12 +33408,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="348" ht="13" spans="1:10">
+    <row r="348" spans="1:10">
       <c r="A348" s="18">
         <v>200408</v>
       </c>
       <c r="B348" s="57" t="s">
-        <v>458</v>
+        <v>470</v>
       </c>
       <c r="C348" s="18">
         <v>631111</v>
@@ -33641,12 +33440,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="349" ht="13" spans="1:10">
+    <row r="349" spans="1:10">
       <c r="A349" s="18">
         <v>200409</v>
       </c>
       <c r="B349" s="57" t="s">
-        <v>459</v>
+        <v>471</v>
       </c>
       <c r="C349" s="18">
         <v>631112</v>
@@ -33673,12 +33472,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="350" ht="13" spans="1:10">
+    <row r="350" spans="1:10">
       <c r="A350" s="18">
         <v>200410</v>
       </c>
       <c r="B350" s="57" t="s">
-        <v>460</v>
+        <v>472</v>
       </c>
       <c r="C350" s="18">
         <v>631113</v>
@@ -33705,12 +33504,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="351" ht="13" spans="1:12">
+    <row r="351" spans="1:12">
       <c r="A351" s="18">
         <v>200411</v>
       </c>
       <c r="B351" s="57" t="s">
-        <v>461</v>
+        <v>473</v>
       </c>
       <c r="C351" s="18">
         <v>631114</v>
@@ -33743,12 +33542,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="352" ht="13" spans="1:6">
+    <row r="352" spans="1:6">
       <c r="A352" s="18">
         <v>200412</v>
       </c>
       <c r="B352" s="57" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C352" s="18">
         <v>35280</v>
@@ -33763,12 +33562,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="353" ht="13" spans="1:14">
+    <row r="353" spans="1:14">
       <c r="A353" s="18">
         <v>200413</v>
       </c>
       <c r="B353" s="57" t="s">
-        <v>462</v>
+        <v>474</v>
       </c>
       <c r="C353" s="18">
         <v>35275</v>
@@ -33807,12 +33606,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="354" ht="13" spans="1:4">
+    <row r="354" spans="1:4">
       <c r="A354" s="18">
         <v>200415</v>
       </c>
       <c r="B354" s="57" t="s">
-        <v>463</v>
+        <v>475</v>
       </c>
       <c r="C354" s="18">
         <v>333176</v>
@@ -33821,12 +33620,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="355" ht="13" spans="1:12">
+    <row r="355" spans="1:12">
       <c r="A355" s="18">
         <v>200416</v>
       </c>
       <c r="B355" s="57" t="s">
-        <v>464</v>
+        <v>476</v>
       </c>
       <c r="C355" s="18">
         <v>631119</v>
@@ -33859,12 +33658,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="356" ht="13" spans="1:20">
+    <row r="356" spans="1:20">
       <c r="A356" s="18">
         <v>200417</v>
       </c>
       <c r="B356" s="57" t="s">
-        <v>465</v>
+        <v>477</v>
       </c>
       <c r="C356" s="18">
         <v>311188</v>
@@ -33921,68 +33720,68 @@
         <v>100</v>
       </c>
     </row>
-    <row r="357" s="17" customFormat="1" ht="13" spans="1:18">
+    <row r="357" s="17" customFormat="1" spans="1:18">
       <c r="A357" s="17">
         <v>200418</v>
       </c>
-      <c r="B357" s="95" t="s">
-        <v>466</v>
-      </c>
-      <c r="C357" s="96">
+      <c r="B357" s="98" t="s">
+        <v>478</v>
+      </c>
+      <c r="C357" s="99">
         <v>35273</v>
       </c>
       <c r="D357" s="17">
         <v>100</v>
       </c>
-      <c r="E357" s="96">
+      <c r="E357" s="99">
         <v>35274</v>
       </c>
       <c r="F357" s="17">
         <v>100</v>
       </c>
-      <c r="G357" s="96">
+      <c r="G357" s="99">
         <v>35275</v>
       </c>
       <c r="H357" s="17">
         <v>100</v>
       </c>
-      <c r="I357" s="96">
+      <c r="I357" s="99">
         <v>35276</v>
       </c>
       <c r="J357" s="17">
         <v>100</v>
       </c>
-      <c r="K357" s="104">
+      <c r="K357" s="107">
         <v>35277</v>
       </c>
       <c r="L357" s="17">
         <v>100</v>
       </c>
-      <c r="M357" s="104">
+      <c r="M357" s="107">
         <v>35278</v>
       </c>
       <c r="N357" s="17">
         <v>100</v>
       </c>
-      <c r="O357" s="104">
+      <c r="O357" s="107">
         <v>35279</v>
       </c>
       <c r="P357" s="17">
         <v>100</v>
       </c>
-      <c r="Q357" s="104">
+      <c r="Q357" s="107">
         <v>35280</v>
       </c>
       <c r="R357" s="17">
         <v>100</v>
       </c>
     </row>
-    <row r="358" ht="13" spans="1:14">
+    <row r="358" spans="1:14">
       <c r="A358" s="18">
         <v>200419</v>
       </c>
       <c r="B358" s="57" t="s">
-        <v>467</v>
+        <v>479</v>
       </c>
       <c r="C358" s="18">
         <v>631119</v>
@@ -34021,12 +33820,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="359" ht="13" spans="1:4">
+    <row r="359" spans="1:4">
       <c r="A359" s="18">
         <v>200420</v>
       </c>
       <c r="B359" s="57" t="s">
-        <v>468</v>
+        <v>480</v>
       </c>
       <c r="C359" s="18">
         <v>631137</v>
@@ -34035,7 +33834,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="360" ht="13" spans="1:60">
+    <row r="360" spans="1:60">
       <c r="A360" s="18">
         <v>200421</v>
       </c>
@@ -34217,12 +34016,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="361" ht="13" spans="1:4">
+    <row r="361" spans="1:4">
       <c r="A361" s="18">
         <v>200422</v>
       </c>
       <c r="B361" s="57" t="s">
-        <v>469</v>
+        <v>481</v>
       </c>
       <c r="C361" s="18">
         <v>631138</v>
@@ -34231,12 +34030,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="362" ht="13" spans="1:4">
+    <row r="362" spans="1:4">
       <c r="A362" s="18">
         <v>200423</v>
       </c>
       <c r="B362" s="57" t="s">
-        <v>470</v>
+        <v>482</v>
       </c>
       <c r="C362" s="18">
         <v>631139</v>
@@ -34245,12 +34044,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="363" customFormat="1" ht="13" spans="1:72">
+    <row r="363" customFormat="1" spans="1:72">
       <c r="A363" s="18">
         <v>200424</v>
       </c>
       <c r="B363" s="57" t="s">
-        <v>471</v>
+        <v>483</v>
       </c>
       <c r="C363" s="18">
         <v>311219</v>
@@ -34463,12 +34262,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="364" customFormat="1" ht="13" spans="1:4">
+    <row r="364" customFormat="1" spans="1:4">
       <c r="A364" s="18">
         <v>200425</v>
       </c>
       <c r="B364" s="57" t="s">
-        <v>472</v>
+        <v>484</v>
       </c>
       <c r="C364" s="18">
         <v>631140</v>
@@ -34477,123 +34276,123 @@
         <v>100</v>
       </c>
     </row>
-    <row r="365" ht="13" spans="1:8">
+    <row r="365" spans="1:8">
       <c r="A365" s="18">
         <v>200426</v>
       </c>
       <c r="B365" s="91" t="s">
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="C365" s="69" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D365" s="18">
         <v>100</v>
       </c>
       <c r="E365" s="69" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F365" s="18">
         <v>100</v>
       </c>
       <c r="G365" s="90" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H365" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="366" ht="13" spans="1:8">
+    <row r="366" spans="1:8">
       <c r="A366" s="18">
         <v>200427</v>
       </c>
       <c r="B366" s="91" t="s">
-        <v>477</v>
+        <v>489</v>
       </c>
       <c r="C366" s="69" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="D366" s="18">
         <v>100</v>
       </c>
       <c r="E366" s="69" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="F366" s="18">
         <v>100</v>
       </c>
       <c r="G366" s="90" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="H366" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="367" ht="13" spans="1:8">
+    <row r="367" spans="1:8">
       <c r="A367" s="18">
         <v>200428</v>
       </c>
       <c r="B367" s="91" t="s">
-        <v>481</v>
+        <v>493</v>
       </c>
       <c r="C367" s="69" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D367" s="18">
         <v>100</v>
       </c>
       <c r="E367" s="69" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F367" s="18">
         <v>100</v>
       </c>
       <c r="G367" s="90" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H367" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="368" ht="13" spans="1:38">
+    <row r="368" spans="1:38">
       <c r="A368" s="18">
         <v>200429</v>
       </c>
       <c r="B368" s="91" t="s">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="C368" s="69" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="D368" s="18">
         <v>100</v>
       </c>
       <c r="E368" s="69" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="F368" s="18">
         <v>100</v>
       </c>
       <c r="G368" s="69" t="s">
-        <v>488</v>
+        <v>500</v>
       </c>
       <c r="H368" s="18">
         <v>100</v>
       </c>
       <c r="I368" s="69" t="s">
-        <v>489</v>
+        <v>501</v>
       </c>
       <c r="J368" s="18">
         <v>100</v>
       </c>
       <c r="K368" s="69" t="s">
-        <v>490</v>
+        <v>502</v>
       </c>
       <c r="L368" s="18">
         <v>100</v>
       </c>
       <c r="M368" s="69" t="s">
-        <v>491</v>
+        <v>503</v>
       </c>
       <c r="N368" s="18">
         <v>100</v>
@@ -34671,12 +34470,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="369" ht="13" spans="1:12">
+    <row r="369" spans="1:12">
       <c r="A369" s="18">
         <v>200430</v>
       </c>
       <c r="B369" s="91" t="s">
-        <v>492</v>
+        <v>504</v>
       </c>
       <c r="C369" s="18">
         <v>35271</v>
@@ -34709,12 +34508,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="370" ht="13" spans="1:17">
+    <row r="370" spans="1:17">
       <c r="A370" s="18">
         <v>200431</v>
       </c>
       <c r="B370" s="57" t="s">
-        <v>493</v>
+        <v>505</v>
       </c>
       <c r="C370" s="18">
         <v>311179</v>
@@ -34762,102 +34561,102 @@
         <v>100</v>
       </c>
     </row>
-    <row r="371" ht="13" spans="1:4">
+    <row r="371" spans="1:4">
       <c r="A371" s="18">
         <v>200432</v>
       </c>
-      <c r="B371" s="97" t="s">
-        <v>494</v>
-      </c>
-      <c r="C371" s="98" t="s">
-        <v>495</v>
+      <c r="B371" s="100" t="s">
+        <v>506</v>
+      </c>
+      <c r="C371" s="101" t="s">
+        <v>507</v>
       </c>
       <c r="D371" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="372" ht="13" spans="1:4">
+    <row r="372" spans="1:4">
       <c r="A372" s="18">
         <v>200433</v>
       </c>
-      <c r="B372" s="97" t="s">
-        <v>496</v>
-      </c>
-      <c r="C372" s="98" t="s">
-        <v>497</v>
+      <c r="B372" s="100" t="s">
+        <v>508</v>
+      </c>
+      <c r="C372" s="101" t="s">
+        <v>509</v>
       </c>
       <c r="D372" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="373" ht="13" spans="1:4">
+    <row r="373" spans="1:4">
       <c r="A373" s="18">
         <v>200434</v>
       </c>
-      <c r="B373" s="99" t="s">
-        <v>498</v>
-      </c>
-      <c r="C373" s="100">
+      <c r="B373" s="102" t="s">
+        <v>510</v>
+      </c>
+      <c r="C373" s="103">
         <v>340438</v>
       </c>
       <c r="D373" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="374" ht="15.5" spans="1:6">
+    <row r="374" ht="15" spans="1:6">
       <c r="A374" s="18">
         <v>200435</v>
       </c>
       <c r="B374" s="91" t="s">
-        <v>499</v>
-      </c>
-      <c r="C374" s="101">
+        <v>511</v>
+      </c>
+      <c r="C374" s="104">
         <v>7150716</v>
       </c>
       <c r="D374" s="18">
         <v>100</v>
       </c>
-      <c r="E374" s="101">
+      <c r="E374" s="104">
         <v>7150717</v>
       </c>
       <c r="F374" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="375" ht="13" spans="1:4">
+    <row r="375" spans="1:4">
       <c r="A375" s="18">
         <v>200436</v>
       </c>
-      <c r="B375" s="97" t="s">
-        <v>500</v>
-      </c>
-      <c r="C375" s="102" t="s">
-        <v>501</v>
+      <c r="B375" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="C375" s="105" t="s">
+        <v>513</v>
       </c>
       <c r="D375" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="376" ht="14" spans="1:4">
+    <row r="376" ht="13.5" spans="1:4">
       <c r="A376" s="18">
         <v>200437</v>
       </c>
-      <c r="B376" s="103" t="s">
-        <v>502</v>
+      <c r="B376" s="106" t="s">
+        <v>514</v>
       </c>
       <c r="C376" s="90" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="D376" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="377" ht="13" spans="1:4">
+    <row r="377" spans="1:4">
       <c r="A377" s="18">
         <v>200438</v>
       </c>
       <c r="B377" s="91" t="s">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="C377" s="18">
         <v>35279</v>
@@ -34866,12 +34665,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="378" ht="13" spans="1:4">
+    <row r="378" spans="1:4">
       <c r="A378" s="18">
         <v>200439</v>
       </c>
       <c r="B378" s="91" t="s">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="C378" s="18">
         <v>35280</v>
@@ -34880,12 +34679,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="379" ht="13" spans="1:4">
+    <row r="379" spans="1:4">
       <c r="A379" s="18">
         <v>200440</v>
       </c>
       <c r="B379" s="57" t="s">
-        <v>506</v>
+        <v>518</v>
       </c>
       <c r="C379" s="18">
         <v>631124</v>
@@ -34894,12 +34693,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="380" ht="13" spans="1:4">
+    <row r="380" spans="1:4">
       <c r="A380" s="18">
         <v>200441</v>
       </c>
       <c r="B380" s="91" t="s">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="C380" s="18">
         <v>335060</v>
@@ -34908,12 +34707,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="381" s="18" customFormat="1" ht="13" spans="1:104">
+    <row r="381" s="18" customFormat="1" spans="1:104">
       <c r="A381" s="18">
         <v>200442</v>
       </c>
       <c r="B381" s="91" t="s">
-        <v>508</v>
+        <v>520</v>
       </c>
       <c r="C381" s="80">
         <v>351300</v>
@@ -35222,12 +35021,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="382" s="12" customFormat="1" ht="13" spans="1:36">
+    <row r="382" s="12" customFormat="1" spans="1:36">
       <c r="A382" s="18">
         <v>200443</v>
       </c>
       <c r="B382" s="78" t="s">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="C382" s="80">
         <v>351500</v>
@@ -35326,122 +35125,122 @@
         <v>100</v>
       </c>
       <c r="AI382" s="90" t="s">
-        <v>503</v>
+        <v>515</v>
       </c>
       <c r="AJ382" s="18">
         <v>500</v>
       </c>
     </row>
-    <row r="383" s="18" customFormat="1" ht="13" spans="1:20">
+    <row r="383" s="18" customFormat="1" spans="1:20">
       <c r="A383" s="18">
         <v>200444</v>
       </c>
       <c r="B383" s="91" t="s">
-        <v>510</v>
+        <v>522</v>
       </c>
       <c r="C383" s="69" t="s">
-        <v>482</v>
+        <v>494</v>
       </c>
       <c r="D383" s="18">
         <v>100</v>
       </c>
       <c r="E383" s="69" t="s">
-        <v>483</v>
+        <v>495</v>
       </c>
       <c r="F383" s="18">
         <v>100</v>
       </c>
       <c r="G383" s="90" t="s">
-        <v>484</v>
+        <v>496</v>
       </c>
       <c r="H383" s="18">
         <v>100</v>
       </c>
       <c r="I383" s="69" t="s">
-        <v>478</v>
+        <v>490</v>
       </c>
       <c r="J383" s="18">
         <v>100</v>
       </c>
       <c r="K383" s="69" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
       <c r="L383" s="18">
         <v>100</v>
       </c>
       <c r="M383" s="90" t="s">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="N383" s="18">
         <v>100</v>
       </c>
       <c r="O383" s="69" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="P383" s="18">
         <v>100</v>
       </c>
       <c r="Q383" s="69" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="R383" s="18">
         <v>100</v>
       </c>
       <c r="S383" s="90" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="T383" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="384" ht="13" spans="1:8">
+    <row r="384" spans="1:8">
       <c r="A384" s="18">
         <v>200445</v>
       </c>
       <c r="B384" s="91" t="s">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="C384" s="69" t="s">
-        <v>474</v>
+        <v>486</v>
       </c>
       <c r="D384" s="18">
         <v>100</v>
       </c>
       <c r="E384" s="69" t="s">
-        <v>475</v>
+        <v>487</v>
       </c>
       <c r="F384" s="18">
         <v>100</v>
       </c>
       <c r="G384" s="90" t="s">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="H384" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="385" ht="13" spans="1:4">
+    <row r="385" spans="1:4">
       <c r="A385" s="18">
         <v>200446</v>
       </c>
       <c r="B385" s="91" t="s">
-        <v>512</v>
+        <v>524</v>
       </c>
       <c r="C385" s="69" t="s">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="D385" s="18">
         <v>100</v>
       </c>
     </row>
-    <row r="386" ht="13" spans="1:4">
+    <row r="386" spans="1:4">
       <c r="A386" s="18">
         <v>200447</v>
       </c>
-      <c r="B386" s="105" t="s">
-        <v>514</v>
-      </c>
-      <c r="C386" s="100">
+      <c r="B386" s="109" t="s">
+        <v>526</v>
+      </c>
+      <c r="C386" s="103">
         <v>340434</v>
       </c>
       <c r="D386" s="18">
